--- a/Excel-Table/BUDO_SQL_table.xlsx
+++ b/Excel-Table/BUDO_SQL_table.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11700" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="abbreviation" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1310" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1378" uniqueCount="548">
   <si>
     <t>Betonkerntemperierung</t>
   </si>
@@ -1461,6 +1461,222 @@
   </si>
   <si>
     <t>SBO</t>
+  </si>
+  <si>
+    <t>INT</t>
+  </si>
+  <si>
+    <t>VARCHAR(1000)</t>
+  </si>
+  <si>
+    <t>VARCHAR(30)</t>
+  </si>
+  <si>
+    <t>weather station</t>
+  </si>
+  <si>
+    <t>Wetterstation</t>
+  </si>
+  <si>
+    <t>WST</t>
+  </si>
+  <si>
+    <t>Elektrische Blindleistung</t>
+  </si>
+  <si>
+    <t>Konstruktion</t>
+  </si>
+  <si>
+    <t>CNST</t>
+  </si>
+  <si>
+    <t>Oberfläche</t>
+  </si>
+  <si>
+    <t>SURF</t>
+  </si>
+  <si>
+    <t>Deckenventilator</t>
+  </si>
+  <si>
+    <t>CLG.FAN</t>
+  </si>
+  <si>
+    <t>ceiling ventilator</t>
+  </si>
+  <si>
+    <t>surface</t>
+  </si>
+  <si>
+    <t>construction</t>
+  </si>
+  <si>
+    <t>electrical reactive power</t>
+  </si>
+  <si>
+    <t>Beleuchtung</t>
+  </si>
+  <si>
+    <t>lighting</t>
+  </si>
+  <si>
+    <t>LIG</t>
+  </si>
+  <si>
+    <t>Fenster</t>
+  </si>
+  <si>
+    <t>window</t>
+  </si>
+  <si>
+    <t>WIN</t>
+  </si>
+  <si>
+    <t>motion detector</t>
+  </si>
+  <si>
+    <t>Bewegungsmelder</t>
+  </si>
+  <si>
+    <t>SEN.MOT</t>
+  </si>
+  <si>
+    <t>Steckdose</t>
+  </si>
+  <si>
+    <t>socket</t>
+  </si>
+  <si>
+    <t>SOCK</t>
+  </si>
+  <si>
+    <t>Elektrische Energie</t>
+  </si>
+  <si>
+    <t>electrical energy</t>
+  </si>
+  <si>
+    <t>Elektrische Scheinleistung</t>
+  </si>
+  <si>
+    <t>apparent electrical power</t>
+  </si>
+  <si>
+    <t>POW.EL.REA</t>
+  </si>
+  <si>
+    <t>POW.EL.AP</t>
+  </si>
+  <si>
+    <t>Windgeschwindigkeit</t>
+  </si>
+  <si>
+    <t>wind speed</t>
+  </si>
+  <si>
+    <t>wind direction</t>
+  </si>
+  <si>
+    <t>Windrichtung</t>
+  </si>
+  <si>
+    <t>Geschwindigkeit</t>
+  </si>
+  <si>
+    <t>velocity</t>
+  </si>
+  <si>
+    <t>Elektrische Spannung</t>
+  </si>
+  <si>
+    <t>electric voltage</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>WIND.VC</t>
+  </si>
+  <si>
+    <t>VC</t>
+  </si>
+  <si>
+    <t>WIND.DI</t>
+  </si>
+  <si>
+    <t>VAI</t>
+  </si>
+  <si>
+    <t>VAO</t>
+  </si>
+  <si>
+    <t>VBI</t>
+  </si>
+  <si>
+    <t>VBO</t>
+  </si>
+  <si>
+    <t>Simulativer Analoger Eingang</t>
+  </si>
+  <si>
+    <t>Simulativer Analoger Ausgang</t>
+  </si>
+  <si>
+    <t>Simulativer Digitaler Eingang</t>
+  </si>
+  <si>
+    <t>Simulativer Digitaler Ausgang</t>
+  </si>
+  <si>
+    <t>simulative analog input</t>
+  </si>
+  <si>
+    <t>simulative analog output</t>
+  </si>
+  <si>
+    <t>simulative digital input</t>
+  </si>
+  <si>
+    <t>simulative digital output</t>
+  </si>
+  <si>
+    <t>Electrical Contact</t>
+  </si>
+  <si>
+    <t>Elektrischer Kontakt</t>
+  </si>
+  <si>
+    <t>COTC.EL</t>
+  </si>
+  <si>
+    <t>Öffnungsgrad</t>
+  </si>
+  <si>
+    <t>Schließgrad</t>
+  </si>
+  <si>
+    <t>STAT.OP</t>
+  </si>
+  <si>
+    <t>degree of opening</t>
+  </si>
+  <si>
+    <t>degree of closure</t>
+  </si>
+  <si>
+    <t>STAT.CLOS</t>
+  </si>
+  <si>
+    <t>schließen/geschlossen</t>
+  </si>
+  <si>
+    <t>CLOS</t>
+  </si>
+  <si>
+    <t>close/closed</t>
+  </si>
+  <si>
+    <t>temperature</t>
   </si>
 </sst>
 </file>
@@ -1501,7 +1717,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1511,6 +1727,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1549,7 +1771,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1564,11 +1786,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="18">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
@@ -1635,6 +1880,9 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -1668,30 +1916,6 @@
         <scheme val="minor"/>
       </font>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1706,14 +1930,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="abbreviation" displayName="abbreviation" ref="A2:E208" totalsRowShown="0">
-  <autoFilter ref="A2:E208"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="abbreviation" displayName="abbreviation" ref="A2:E230" totalsRowShown="0">
+  <autoFilter ref="A2:E230"/>
   <tableColumns count="5">
     <tableColumn id="1" name="abbreviation_id"/>
-    <tableColumn id="2" name="description_german" dataDxfId="9"/>
-    <tableColumn id="4" name="description_english" dataDxfId="8"/>
+    <tableColumn id="2" name="description_german" dataDxfId="17"/>
+    <tableColumn id="4" name="description_english" dataDxfId="16"/>
     <tableColumn id="3" name="abbreviation_budo"/>
-    <tableColumn id="5" name="abbreviation_id(for SVERWEIS)" dataDxfId="17">
+    <tableColumn id="5" name="abbreviation_id(for SVERWEIS)" dataDxfId="15">
       <calculatedColumnFormula>abbreviation[[#This Row],[abbreviation_id]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1722,15 +1946,15 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="category" displayName="category" ref="A2:F42" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="category" displayName="category" ref="A2:F42" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
   <autoFilter ref="A2:F42"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="category_id" dataDxfId="5"/>
-    <tableColumn id="2" name="category_name_german" dataDxfId="4"/>
-    <tableColumn id="3" name="category_name_english" dataDxfId="3"/>
-    <tableColumn id="4" name="abbreviation_category_budo" dataDxfId="2"/>
-    <tableColumn id="5" name="comment" dataDxfId="1"/>
-    <tableColumn id="6" name="category_id(for SVERWEIS)" dataDxfId="0">
+    <tableColumn id="1" name="category_id" dataDxfId="12"/>
+    <tableColumn id="2" name="category_name_german" dataDxfId="11"/>
+    <tableColumn id="3" name="category_name_english" dataDxfId="10"/>
+    <tableColumn id="4" name="abbreviation_category_budo" dataDxfId="9"/>
+    <tableColumn id="5" name="comment" dataDxfId="8"/>
+    <tableColumn id="6" name="category_id(for SVERWEIS)" dataDxfId="7">
       <calculatedColumnFormula>category[[#This Row],[category_id]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1757,10 +1981,10 @@
     <tableColumn id="1" name="category_assignment_id">
       <calculatedColumnFormula>category_assignment[[#This Row],[category_assignment_id]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="category_id" dataDxfId="16">
+    <tableColumn id="2" name="category_id" dataDxfId="6">
       <calculatedColumnFormula>VLOOKUP(category_assignment[[#This Row],[category]],category[[category_name_german]:[category_id(for SVERWEIS)]],5,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="abbreviation_id" dataDxfId="15">
+    <tableColumn id="3" name="abbreviation_id" dataDxfId="5">
       <calculatedColumnFormula>VLOOKUP(category_assignment[[#This Row],[description_german]],abbreviation[[description_german]:[abbreviation_id(for SVERWEIS)]],4,FALSE)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1784,13 +2008,13 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="parent_children8" displayName="parent_children8" ref="E2:G208" totalsRowShown="0">
   <autoFilter ref="E2:G208"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="parent_children_id" dataDxfId="14">
+    <tableColumn id="1" name="parent_children_id" dataDxfId="4">
       <calculatedColumnFormula>parent_children[[#This Row],[parent_children_id]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="parent_id" dataDxfId="13">
+    <tableColumn id="2" name="parent_id" dataDxfId="3">
       <calculatedColumnFormula>VLOOKUP(parent_children[[#This Row],[parent]],abbreviation[[description_german]:[abbreviation_id(for SVERWEIS)]],4,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="children_id" dataDxfId="12">
+    <tableColumn id="3" name="children_id" dataDxfId="2">
       <calculatedColumnFormula>VLOOKUP(parent_children[[#This Row],[children]],abbreviation[[description_german]:[abbreviation_id(for SVERWEIS)]],4,FALSE)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1804,8 +2028,8 @@
   <tableColumns count="4">
     <tableColumn id="1" name="System"/>
     <tableColumn id="2" name="."/>
-    <tableColumn id="3" name="System_2" dataDxfId="11"/>
-    <tableColumn id="4" name="System_3" dataDxfId="10">
+    <tableColumn id="3" name="System_2" dataDxfId="1"/>
+    <tableColumn id="4" name="System_3" dataDxfId="0">
       <calculatedColumnFormula>IF(Tabelle2[[#This Row],[System]]&lt;&gt;"",VLOOKUP(Tabelle2[[#This Row],[System]],parent_children[[parent]:[children]],2,0))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2076,36 +2300,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G208"/>
+  <dimension ref="A1:H230"/>
   <sheetViews>
-    <sheetView topLeftCell="A108" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:G208"/>
+    <sheetView tabSelected="1" topLeftCell="A200" workbookViewId="0">
+      <selection activeCell="D211" sqref="D211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.42578125" customWidth="1"/>
-    <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="0.42578125" customWidth="1"/>
+    <col min="4" max="4" width="21" customWidth="1"/>
+    <col min="5" max="5" width="0.85546875" customWidth="1"/>
+    <col min="7" max="7" width="71.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="5" customFormat="1">
+    <row r="1" spans="1:8" s="5" customFormat="1">
       <c r="A1" s="5" t="s">
-        <v>206</v>
+        <v>476</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>207</v>
+        <v>477</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>207</v>
+        <v>477</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>190</v>
       </c>
@@ -2123,10 +2348,14 @@
       </c>
       <c r="G2" t="str">
         <f ca="1">"CREATE TABLE "&amp;RIGHT(CELL("dateiname",A1),LEN(CELL("dateiname",A1))-FIND("]",CELL("dateiname",A1)))&amp;"("&amp;abbreviation[[#Headers],[abbreviation_id]]&amp;" "&amp;A1&amp;","&amp;abbreviation[[#Headers],[description_german]]&amp;" "&amp;B1&amp;","&amp;abbreviation[[#Headers],[description_english]]&amp;" "&amp;C1&amp;","&amp;abbreviation[[#Headers],[abbreviation_budo]]&amp;" "&amp;D1&amp;", PRIMARY KEY("&amp;abbreviation[[#Headers],[abbreviation_id]]&amp;"))"</f>
-        <v>CREATE TABLE abbreviation(abbreviation_id INTEGER[10],description_german VARCHAR[1000],description_english VARCHAR[1000],abbreviation_budo VARCHAR[30], PRIMARY KEY(abbreviation_id))</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="5" customFormat="1">
+        <v>CREATE TABLE abbreviation(abbreviation_id INT,description_german VARCHAR(1000),description_english VARCHAR(1000),abbreviation_budo VARCHAR(30), PRIMARY KEY(abbreviation_id))</v>
+      </c>
+      <c r="H2" t="str">
+        <f ca="1">"CREATE TABLE IF NOT EXISTS "&amp;RIGHT(CELL("dateiname",A1),LEN(CELL("dateiname",A1))-FIND("]",CELL("dateiname",A1)))&amp;"("&amp;abbreviation[[#Headers],[abbreviation_id]]&amp;" "&amp;A1&amp;","&amp;abbreviation[[#Headers],[description_german]]&amp;" "&amp;B1&amp;","&amp;abbreviation[[#Headers],[description_english]]&amp;" "&amp;C1&amp;","&amp;abbreviation[[#Headers],[abbreviation_budo]]&amp;" "&amp;D1&amp;", PRIMARY KEY("&amp;abbreviation[[#Headers],[abbreviation_id]]&amp;"))"</f>
+        <v>CREATE TABLE IF NOT EXISTS abbreviation(abbreviation_id INT,description_german VARCHAR(1000),description_english VARCHAR(1000),abbreviation_budo VARCHAR(30), PRIMARY KEY(abbreviation_id))</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="5" customFormat="1">
       <c r="A3" s="5">
         <v>0</v>
       </c>
@@ -2141,7 +2370,7 @@
         <v>INSERT INTO abbreviation VALUES (0,'','','');</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -2161,7 +2390,7 @@
         <v>INSERT INTO abbreviation VALUES (1,'Anlage','','SY');</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="5">
         <v>2</v>
       </c>
@@ -2181,7 +2410,7 @@
         <v>INSERT INTO abbreviation VALUES (2,'Betonkerntemperierung','','CCA');</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="5">
         <v>3</v>
       </c>
@@ -2201,7 +2430,7 @@
         <v>INSERT INTO abbreviation VALUES (3,'Blockheizkraftwerk (BHKW)','','CHP');</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7" s="5">
         <v>4</v>
       </c>
@@ -2221,7 +2450,7 @@
         <v>INSERT INTO abbreviation VALUES (4,'Fernkälte','','C.DISCT');</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8" s="5">
         <v>5</v>
       </c>
@@ -2241,7 +2470,7 @@
         <v>INSERT INTO abbreviation VALUES (5,'Fernwärme','','H.DISCT');</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="A9" s="5">
         <v>6</v>
       </c>
@@ -2261,7 +2490,7 @@
         <v>INSERT INTO abbreviation VALUES (6,'Freie Kühlung','','C.FREE');</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8">
       <c r="A10" s="5">
         <v>7</v>
       </c>
@@ -2281,7 +2510,7 @@
         <v>INSERT INTO abbreviation VALUES (7,'Gas','','GAS');</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:8">
       <c r="A11" s="5">
         <v>8</v>
       </c>
@@ -2301,7 +2530,7 @@
         <v>INSERT INTO abbreviation VALUES (8,'Gaskühler','','C.GAS');</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:8">
       <c r="A12" s="5">
         <v>9</v>
       </c>
@@ -2321,7 +2550,7 @@
         <v>INSERT INTO abbreviation VALUES (9,'Gebäudeautomationssystem','','BAS');</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:8">
       <c r="A13" s="5">
         <v>10</v>
       </c>
@@ -2341,7 +2570,7 @@
         <v>INSERT INTO abbreviation VALUES (10,'Gebäudemanagementsystem','','BMS');</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:8">
       <c r="A14" s="5">
         <v>11</v>
       </c>
@@ -2361,7 +2590,7 @@
         <v>INSERT INTO abbreviation VALUES (11,'Kältemaschine','','CH');</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:8">
       <c r="A15" s="5">
         <v>12</v>
       </c>
@@ -2381,7 +2610,7 @@
         <v>INSERT INTO abbreviation VALUES (12,'Kessel','','BOI');</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:8">
       <c r="A16" s="5">
         <v>13</v>
       </c>
@@ -4005,10 +4234,12 @@
       <c r="A97" s="5">
         <v>94</v>
       </c>
-      <c r="B97" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="C97" s="3"/>
+      <c r="B97" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>506</v>
+      </c>
       <c r="D97" s="5" t="s">
         <v>322</v>
       </c>
@@ -4018,7 +4249,7 @@
       </c>
       <c r="G97" s="5" t="str">
         <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A95),LEN(CELL("dateiname",A95))-FIND("]",CELL("dateiname",A95)))&amp;" VALUES"&amp;" ("&amp;abbreviation[[#This Row],[abbreviation_id]]&amp;",'"&amp;abbreviation[[#This Row],[description_german]]&amp;"','"&amp;abbreviation[[#This Row],[description_english]]&amp;"','"&amp;abbreviation[[#This Row],[abbreviation_budo]]&amp;"');"</f>
-        <v>INSERT INTO abbreviation VALUES (94,'Strommenge','','EN.EL');</v>
+        <v>INSERT INTO abbreviation VALUES (94,'Elektrische Energie','electrical energy','EN.EL');</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -4028,7 +4259,9 @@
       <c r="B98" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="C98" s="3"/>
+      <c r="C98" s="1" t="s">
+        <v>547</v>
+      </c>
       <c r="D98" s="5" t="s">
         <v>324</v>
       </c>
@@ -4038,7 +4271,7 @@
       </c>
       <c r="G98" s="5" t="str">
         <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A96),LEN(CELL("dateiname",A96))-FIND("]",CELL("dateiname",A96)))&amp;" VALUES"&amp;" ("&amp;abbreviation[[#This Row],[abbreviation_id]]&amp;",'"&amp;abbreviation[[#This Row],[description_german]]&amp;"','"&amp;abbreviation[[#This Row],[description_english]]&amp;"','"&amp;abbreviation[[#This Row],[abbreviation_budo]]&amp;"');"</f>
-        <v>INSERT INTO abbreviation VALUES (95,'Temperatur','','T');</v>
+        <v>INSERT INTO abbreviation VALUES (95,'Temperatur','temperature','T');</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -4745,7 +4978,7 @@
       <c r="A134" s="5">
         <v>131</v>
       </c>
-      <c r="B134" s="3" t="s">
+      <c r="B134" s="1" t="s">
         <v>391</v>
       </c>
       <c r="C134" s="3"/>
@@ -5530,7 +5763,7 @@
       </c>
       <c r="C173" s="3"/>
       <c r="D173" s="5" t="s">
-        <v>469</v>
+        <v>523</v>
       </c>
       <c r="E173" s="10">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -5538,7 +5771,7 @@
       </c>
       <c r="G173" s="5" t="str">
         <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A171),LEN(CELL("dateiname",A171))-FIND("]",CELL("dateiname",A171)))&amp;" VALUES"&amp;" ("&amp;abbreviation[[#This Row],[abbreviation_id]]&amp;",'"&amp;abbreviation[[#This Row],[description_german]]&amp;"','"&amp;abbreviation[[#This Row],[description_english]]&amp;"','"&amp;abbreviation[[#This Row],[abbreviation_budo]]&amp;"');"</f>
-        <v>INSERT INTO abbreviation VALUES (170,'Virtueller Analoger Eingang (VAE)','','SAI');</v>
+        <v>INSERT INTO abbreviation VALUES (170,'Virtueller Analoger Eingang (VAE)','','VAI');</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -5550,7 +5783,7 @@
       </c>
       <c r="C174" s="3"/>
       <c r="D174" s="5" t="s">
-        <v>471</v>
+        <v>524</v>
       </c>
       <c r="E174" s="10">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -5558,7 +5791,7 @@
       </c>
       <c r="G174" s="5" t="str">
         <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A172),LEN(CELL("dateiname",A172))-FIND("]",CELL("dateiname",A172)))&amp;" VALUES"&amp;" ("&amp;abbreviation[[#This Row],[abbreviation_id]]&amp;",'"&amp;abbreviation[[#This Row],[description_german]]&amp;"','"&amp;abbreviation[[#This Row],[description_english]]&amp;"','"&amp;abbreviation[[#This Row],[abbreviation_budo]]&amp;"');"</f>
-        <v>INSERT INTO abbreviation VALUES (171,'Virtueller Analoger Ausgang (VAA)','','SAO');</v>
+        <v>INSERT INTO abbreviation VALUES (171,'Virtueller Analoger Ausgang (VAA)','','VAO');</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -5570,7 +5803,7 @@
       </c>
       <c r="C175" s="3"/>
       <c r="D175" s="5" t="s">
-        <v>473</v>
+        <v>525</v>
       </c>
       <c r="E175" s="10">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -5578,7 +5811,7 @@
       </c>
       <c r="G175" s="5" t="str">
         <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A173),LEN(CELL("dateiname",A173))-FIND("]",CELL("dateiname",A173)))&amp;" VALUES"&amp;" ("&amp;abbreviation[[#This Row],[abbreviation_id]]&amp;",'"&amp;abbreviation[[#This Row],[description_german]]&amp;"','"&amp;abbreviation[[#This Row],[description_english]]&amp;"','"&amp;abbreviation[[#This Row],[abbreviation_budo]]&amp;"');"</f>
-        <v>INSERT INTO abbreviation VALUES (172,'Virtueller Digitaler Eingang (VDE/VBE)','','SBI');</v>
+        <v>INSERT INTO abbreviation VALUES (172,'Virtueller Digitaler Eingang (VDE/VBE)','','VBI');</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -5590,7 +5823,7 @@
       </c>
       <c r="C176" s="3"/>
       <c r="D176" s="5" t="s">
-        <v>475</v>
+        <v>526</v>
       </c>
       <c r="E176" s="10">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -5598,7 +5831,7 @@
       </c>
       <c r="G176" s="5" t="str">
         <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A174),LEN(CELL("dateiname",A174))-FIND("]",CELL("dateiname",A174)))&amp;" VALUES"&amp;" ("&amp;abbreviation[[#This Row],[abbreviation_id]]&amp;",'"&amp;abbreviation[[#This Row],[description_german]]&amp;"','"&amp;abbreviation[[#This Row],[description_english]]&amp;"','"&amp;abbreviation[[#This Row],[abbreviation_budo]]&amp;"');"</f>
-        <v>INSERT INTO abbreviation VALUES (173,'Virtueller Digitaler Ausgang (VDA/VBA)','','SBO');</v>
+        <v>INSERT INTO abbreviation VALUES (173,'Virtueller Digitaler Ausgang (VDA/VBA)','','VBO');</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -6303,6 +6536,422 @@
       <c r="G208" s="5" t="str">
         <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A206),LEN(CELL("dateiname",A206))-FIND("]",CELL("dateiname",A206)))&amp;" VALUES"&amp;" ("&amp;abbreviation[[#This Row],[abbreviation_id]]&amp;",'"&amp;abbreviation[[#This Row],[description_german]]&amp;"','"&amp;abbreviation[[#This Row],[description_english]]&amp;"','"&amp;abbreviation[[#This Row],[abbreviation_budo]]&amp;"');"</f>
         <v>INSERT INTO abbreviation VALUES (205,'Versorgtes Gebäude','supplied building','BL.SUP');</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7">
+      <c r="A209" s="14">
+        <v>206</v>
+      </c>
+      <c r="B209" s="15" t="s">
+        <v>480</v>
+      </c>
+      <c r="C209" s="15" t="s">
+        <v>479</v>
+      </c>
+      <c r="D209" s="15" t="s">
+        <v>481</v>
+      </c>
+      <c r="E209" s="10">
+        <f>abbreviation[[#This Row],[abbreviation_id]]</f>
+        <v>206</v>
+      </c>
+      <c r="G209" s="5" t="str">
+        <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A207),LEN(CELL("dateiname",A207))-FIND("]",CELL("dateiname",A207)))&amp;" VALUES"&amp;" ("&amp;abbreviation[[#This Row],[abbreviation_id]]&amp;",'"&amp;abbreviation[[#This Row],[description_german]]&amp;"','"&amp;abbreviation[[#This Row],[description_english]]&amp;"','"&amp;abbreviation[[#This Row],[abbreviation_budo]]&amp;"');"</f>
+        <v>INSERT INTO abbreviation VALUES (206,'Wetterstation','weather station','WST');</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7">
+      <c r="A210">
+        <v>207</v>
+      </c>
+      <c r="B210" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="D210" t="s">
+        <v>509</v>
+      </c>
+      <c r="E210" s="10">
+        <f>abbreviation[[#This Row],[abbreviation_id]]</f>
+        <v>207</v>
+      </c>
+      <c r="G210" s="5" t="str">
+        <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A208),LEN(CELL("dateiname",A208))-FIND("]",CELL("dateiname",A208)))&amp;" VALUES"&amp;" ("&amp;abbreviation[[#This Row],[abbreviation_id]]&amp;",'"&amp;abbreviation[[#This Row],[description_german]]&amp;"','"&amp;abbreviation[[#This Row],[description_english]]&amp;"','"&amp;abbreviation[[#This Row],[abbreviation_budo]]&amp;"');"</f>
+        <v>INSERT INTO abbreviation VALUES (207,'Elektrische Blindleistung','electrical reactive power','POW.EL.REA');</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7">
+      <c r="A211" s="5">
+        <v>208</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="D211" t="s">
+        <v>484</v>
+      </c>
+      <c r="E211" s="10">
+        <f>abbreviation[[#This Row],[abbreviation_id]]</f>
+        <v>208</v>
+      </c>
+      <c r="G211" s="5" t="str">
+        <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A209),LEN(CELL("dateiname",A209))-FIND("]",CELL("dateiname",A209)))&amp;" VALUES"&amp;" ("&amp;abbreviation[[#This Row],[abbreviation_id]]&amp;",'"&amp;abbreviation[[#This Row],[description_german]]&amp;"','"&amp;abbreviation[[#This Row],[description_english]]&amp;"','"&amp;abbreviation[[#This Row],[abbreviation_budo]]&amp;"');"</f>
+        <v>INSERT INTO abbreviation VALUES (208,'Konstruktion','construction','CNST');</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7">
+      <c r="A212" s="5">
+        <v>209</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="D212" t="s">
+        <v>486</v>
+      </c>
+      <c r="E212" s="10">
+        <f>abbreviation[[#This Row],[abbreviation_id]]</f>
+        <v>209</v>
+      </c>
+      <c r="G212" s="5" t="str">
+        <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A210),LEN(CELL("dateiname",A210))-FIND("]",CELL("dateiname",A210)))&amp;" VALUES"&amp;" ("&amp;abbreviation[[#This Row],[abbreviation_id]]&amp;",'"&amp;abbreviation[[#This Row],[description_german]]&amp;"','"&amp;abbreviation[[#This Row],[description_english]]&amp;"','"&amp;abbreviation[[#This Row],[abbreviation_budo]]&amp;"');"</f>
+        <v>INSERT INTO abbreviation VALUES (209,'Oberfläche','surface','SURF');</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7">
+      <c r="A213" s="5">
+        <v>210</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="D213" t="s">
+        <v>488</v>
+      </c>
+      <c r="E213" s="10">
+        <f>abbreviation[[#This Row],[abbreviation_id]]</f>
+        <v>210</v>
+      </c>
+      <c r="G213" s="5" t="str">
+        <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A211),LEN(CELL("dateiname",A211))-FIND("]",CELL("dateiname",A211)))&amp;" VALUES"&amp;" ("&amp;abbreviation[[#This Row],[abbreviation_id]]&amp;",'"&amp;abbreviation[[#This Row],[description_german]]&amp;"','"&amp;abbreviation[[#This Row],[description_english]]&amp;"','"&amp;abbreviation[[#This Row],[abbreviation_budo]]&amp;"');"</f>
+        <v>INSERT INTO abbreviation VALUES (210,'Deckenventilator','ceiling ventilator','CLG.FAN');</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7">
+      <c r="A214" s="5">
+        <v>211</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="D214" t="s">
+        <v>495</v>
+      </c>
+      <c r="E214" s="10">
+        <f>abbreviation[[#This Row],[abbreviation_id]]</f>
+        <v>211</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7">
+      <c r="A215" s="5">
+        <v>212</v>
+      </c>
+      <c r="B215" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="D215" t="s">
+        <v>498</v>
+      </c>
+      <c r="E215" s="10">
+        <f>abbreviation[[#This Row],[abbreviation_id]]</f>
+        <v>212</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7">
+      <c r="A216">
+        <v>213</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="D216" t="s">
+        <v>501</v>
+      </c>
+      <c r="E216" s="10">
+        <f>abbreviation[[#This Row],[abbreviation_id]]</f>
+        <v>213</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7">
+      <c r="A217">
+        <v>214</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="D217" t="s">
+        <v>504</v>
+      </c>
+      <c r="E217" s="10">
+        <f>abbreviation[[#This Row],[abbreviation_id]]</f>
+        <v>214</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7">
+      <c r="A218">
+        <v>215</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="D218" t="s">
+        <v>510</v>
+      </c>
+      <c r="E218" s="10">
+        <f>abbreviation[[#This Row],[abbreviation_id]]</f>
+        <v>215</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7">
+      <c r="A219">
+        <v>216</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="D219" t="s">
+        <v>520</v>
+      </c>
+      <c r="E219" s="10">
+        <f>abbreviation[[#This Row],[abbreviation_id]]</f>
+        <v>216</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7">
+      <c r="A220">
+        <v>217</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="D220" t="s">
+        <v>522</v>
+      </c>
+      <c r="E220" s="10">
+        <f>abbreviation[[#This Row],[abbreviation_id]]</f>
+        <v>217</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7">
+      <c r="A221">
+        <v>218</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="D221" t="s">
+        <v>521</v>
+      </c>
+      <c r="E221" s="10">
+        <f>abbreviation[[#This Row],[abbreviation_id]]</f>
+        <v>218</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7">
+      <c r="A222">
+        <v>219</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="D222" t="s">
+        <v>519</v>
+      </c>
+      <c r="E222" s="10">
+        <f>abbreviation[[#This Row],[abbreviation_id]]</f>
+        <v>219</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7">
+      <c r="A223">
+        <v>220</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="D223" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="E223" s="10">
+        <f>abbreviation[[#This Row],[abbreviation_id]]</f>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7">
+      <c r="A224" s="5">
+        <v>221</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="D224" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="E224" s="10">
+        <f>abbreviation[[#This Row],[abbreviation_id]]</f>
+        <v>221</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5">
+      <c r="A225" s="5">
+        <v>222</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="D225" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="E225" s="10">
+        <f>abbreviation[[#This Row],[abbreviation_id]]</f>
+        <v>222</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5">
+      <c r="A226" s="5">
+        <v>223</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="D226" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="E226" s="10">
+        <f>abbreviation[[#This Row],[abbreviation_id]]</f>
+        <v>223</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5">
+      <c r="A227" s="5">
+        <v>224</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="D227" t="s">
+        <v>537</v>
+      </c>
+      <c r="E227" s="10">
+        <f>abbreviation[[#This Row],[abbreviation_id]]</f>
+        <v>224</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5">
+      <c r="A228" s="5">
+        <v>225</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="D228" t="s">
+        <v>540</v>
+      </c>
+      <c r="E228" s="10">
+        <f>abbreviation[[#This Row],[abbreviation_id]]</f>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5">
+      <c r="A229" s="5">
+        <v>226</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="D229" t="s">
+        <v>543</v>
+      </c>
+      <c r="E229" s="10">
+        <f>abbreviation[[#This Row],[abbreviation_id]]</f>
+        <v>226</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5">
+      <c r="A230">
+        <v>227</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="D230" t="s">
+        <v>545</v>
+      </c>
+      <c r="E230" s="10">
+        <f>abbreviation[[#This Row],[abbreviation_id]]</f>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -6316,10 +6965,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H53"/>
+  <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:H42"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -6330,9 +6979,10 @@
     <col min="4" max="4" width="29.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.42578125" customWidth="1"/>
     <col min="6" max="6" width="0.28515625" customWidth="1"/>
+    <col min="8" max="8" width="206" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="5" customFormat="1">
+    <row r="1" spans="1:9" s="5" customFormat="1">
       <c r="A1" s="5" t="s">
         <v>206</v>
       </c>
@@ -6349,7 +6999,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" s="6" t="s">
         <v>71</v>
       </c>
@@ -6372,8 +7022,12 @@
         <f ca="1">"CREATE TABLE "&amp;RIGHT(CELL("dateiname",A1),LEN(CELL("dateiname",A1))-FIND("]",CELL("dateiname",A1)))&amp;"("&amp;category[[#Headers],[category_id]]&amp;" "&amp;A1&amp;","&amp;category[[#Headers],[category_name_german]]&amp;" "&amp;B1&amp;","&amp;category[[#Headers],[category_name_english]]&amp;" "&amp;C1&amp;","&amp;category[[#Headers],[abbreviation_category_budo]]&amp;" "&amp;D1&amp;","&amp;category[[#Headers],[comment]]&amp;" "&amp;E1&amp;", PRIMARY KEY("&amp;category[[#Headers],[category_id]]&amp;"))"</f>
         <v>CREATE TABLE category(category_id INTEGER[10],category_name_german VARCHAR[200],category_name_english VARCHAR[200],abbreviation_category_budo VARCHAR[30],comment VARCHAR[1000], PRIMARY KEY(category_id))</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" s="5" customFormat="1">
+      <c r="I2" t="str">
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(H2,"[","("),"]",")"),"INTEGER[10]","INT")</f>
+        <v>CREATE TABLE category(category_id INTEGER(10),category_name_german VARCHAR(200),category_name_english VARCHAR(200),abbreviation_category_budo VARCHAR(30),comment VARCHAR(1000), PRIMARY KEY(category_id))</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="5" customFormat="1">
       <c r="A3" s="6">
         <v>0</v>
       </c>
@@ -6390,7 +7044,7 @@
         <v>INSERT INTO category VALUES (0,'','','','');</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -6415,7 +7069,7 @@
         <v>INSERT INTO category VALUES (1,'System','System','SYS','not used as abbrevation');</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -6440,7 +7094,7 @@
         <v>INSERT INTO category VALUES (2,'Subsystem','Subsystem','SSYS','not used as abbrevation');</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -6465,7 +7119,7 @@
         <v>INSERT INTO category VALUES (3,'Subsubsystem','Subsubsystem','SSSYS','not used as abbrevation');</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:9">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -6490,7 +7144,7 @@
         <v>INSERT INTO category VALUES (4,'Medium','Medium','MED','not used as abbrevation');</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:9">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -6515,7 +7169,7 @@
         <v>INSERT INTO category VALUES (5,'Position Anlage','Position device','POSA','not used as abbrevation');</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:9">
       <c r="A9" s="6">
         <v>6</v>
       </c>
@@ -6540,7 +7194,7 @@
         <v>INSERT INTO category VALUES (6,'Datenpunkt','Data Point','DP','not used as abbrevation');</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:9">
       <c r="A10" s="6">
         <v>7</v>
       </c>
@@ -6565,7 +7219,7 @@
         <v>INSERT INTO category VALUES (7,'Funktionsart','Function type','FT','not used as abbrevation');</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:9">
       <c r="A11" s="6">
         <v>8</v>
       </c>
@@ -6588,7 +7242,7 @@
         <v>INSERT INTO category VALUES (8,'Gebäude','building','BL','');</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:9">
       <c r="A12" s="6">
         <v>9</v>
       </c>
@@ -6611,7 +7265,7 @@
         <v>INSERT INTO category VALUES (9,'Liegenschaft/Standort/Werk','location','L','');</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:9">
       <c r="A13" s="6">
         <v>10</v>
       </c>
@@ -6634,7 +7288,7 @@
         <v>INSERT INTO category VALUES (10,'Gewerk','craft','CR','');</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:9">
       <c r="A14" s="6">
         <v>11</v>
       </c>
@@ -6657,7 +7311,7 @@
         <v>INSERT INTO category VALUES (11,'Raum Gerät','room device','R.D','');</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:9">
       <c r="A15" s="6">
         <v>12</v>
       </c>
@@ -6680,7 +7334,7 @@
         <v>INSERT INTO category VALUES (12,'Geschoss Gerät','floor device','FL.D','');</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:9">
       <c r="A16" s="6">
         <v>13</v>
       </c>
@@ -7366,10 +8020,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I135"/>
+  <dimension ref="A1:J135"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4:I135"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -7384,7 +8038,7 @@
     <col min="10" max="10" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="5" customFormat="1">
+    <row r="1" spans="1:10" s="5" customFormat="1">
       <c r="E1" s="5" t="s">
         <v>206</v>
       </c>
@@ -7398,8 +8052,12 @@
         <f ca="1">"CREATE TABLE "&amp;RIGHT(CELL("dateiname",A1),LEN(CELL("dateiname",A1))-FIND("]",CELL("dateiname",A1)))&amp;"("&amp;Tabelle8[[#Headers],[category_assignment_id]]&amp;" "&amp;E1&amp;","&amp;Tabelle8[[#Headers],[category_id]]&amp;" "&amp;F1&amp;","&amp;Tabelle8[[#Headers],[abbreviation_id]]&amp;" "&amp;G1&amp;", PRIMARY KEY("&amp;Tabelle8[[#Headers],[category_assignment_id]]&amp;"))"</f>
         <v>CREATE TABLE category_assignment(category_assignment_id INTEGER[10],category_id INTEGER[10],abbreviation_id INTEGER[10], PRIMARY KEY(category_assignment_id))</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="5" t="str">
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(I1,"[","("),"]",")"),"INTEGER[10]","INT")</f>
+        <v>CREATE TABLE category_assignment(category_assignment_id INTEGER(10),category_id INTEGER(10),abbreviation_id INTEGER(10), PRIMARY KEY(category_assignment_id))</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="5" t="s">
         <v>189</v>
       </c>
@@ -7419,7 +8077,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="3" spans="1:9" hidden="1">
+    <row r="3" spans="1:10" hidden="1">
       <c r="A3">
         <v>0</v>
       </c>
@@ -7440,7 +8098,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:10">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -7467,7 +8125,7 @@
         <v>INSERT INTO category_assignment VALUES (1,1,1);</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:10">
       <c r="A5" s="5">
         <v>2</v>
       </c>
@@ -7494,7 +8152,7 @@
         <v>INSERT INTO category_assignment VALUES (2,1,2);</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:10">
       <c r="A6" s="5">
         <v>3</v>
       </c>
@@ -7521,7 +8179,7 @@
         <v>INSERT INTO category_assignment VALUES (3,1,3);</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:10">
       <c r="A7" s="5">
         <v>4</v>
       </c>
@@ -7548,7 +8206,7 @@
         <v>INSERT INTO category_assignment VALUES (4,1,4);</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:10">
       <c r="A8" s="5">
         <v>5</v>
       </c>
@@ -7575,7 +8233,7 @@
         <v>INSERT INTO category_assignment VALUES (5,1,5);</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:10">
       <c r="A9" s="5">
         <v>6</v>
       </c>
@@ -7602,7 +8260,7 @@
         <v>INSERT INTO category_assignment VALUES (6,1,6);</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:10">
       <c r="A10" s="5">
         <v>7</v>
       </c>
@@ -7629,7 +8287,7 @@
         <v>INSERT INTO category_assignment VALUES (7,1,7);</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:10">
       <c r="A11" s="5">
         <v>8</v>
       </c>
@@ -7656,7 +8314,7 @@
         <v>INSERT INTO category_assignment VALUES (8,1,8);</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:10">
       <c r="A12" s="5">
         <v>9</v>
       </c>
@@ -7683,7 +8341,7 @@
         <v>INSERT INTO category_assignment VALUES (9,1,9);</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:10">
       <c r="A13" s="5">
         <v>10</v>
       </c>
@@ -7710,7 +8368,7 @@
         <v>INSERT INTO category_assignment VALUES (10,1,10);</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:10">
       <c r="A14" s="5">
         <v>11</v>
       </c>
@@ -7737,7 +8395,7 @@
         <v>INSERT INTO category_assignment VALUES (11,1,11);</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:10">
       <c r="A15" s="5">
         <v>12</v>
       </c>
@@ -7764,7 +8422,7 @@
         <v>INSERT INTO category_assignment VALUES (12,1,12);</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:10">
       <c r="A16" s="5">
         <v>13</v>
       </c>
@@ -11023,10 +11681,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N208"/>
+  <dimension ref="A1:O208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
-      <selection activeCell="C176" sqref="C176"/>
+    <sheetView topLeftCell="A174" workbookViewId="0">
+      <selection activeCell="F200" sqref="F200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -11043,7 +11701,7 @@
     <col min="14" max="14" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="5" customFormat="1">
+    <row r="1" spans="1:15" s="5" customFormat="1">
       <c r="E1" s="5" t="s">
         <v>206</v>
       </c>
@@ -11054,7 +11712,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
         <v>194</v>
       </c>
@@ -11089,8 +11747,12 @@
         <f ca="1">"CREATE TABLE "&amp;RIGHT(CELL("dateiname",A1),LEN(CELL("dateiname",A1))-FIND("]",CELL("dateiname",A1)))&amp;"("&amp;parent_children8[[#Headers],[parent_children_id]]&amp;" "&amp;E1&amp;","&amp;parent_children8[[#Headers],[parent_id]]&amp;" "&amp;F1&amp;","&amp;parent_children8[[#Headers],[children_id]]&amp;" "&amp;G1&amp;", PRIMARY KEY("&amp;parent_children8[[#Headers],[parent_children_id]]&amp;"))"</f>
         <v>CREATE TABLE parent_children(parent_children_id INTEGER[10],parent_id INTEGER[10],children_id INTEGER[10], PRIMARY KEY(parent_children_id))</v>
       </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="O2" s="5" t="str">
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(N2,"[","("),"]",")"),"INTEGER[10]","INT")</f>
+        <v>CREATE TABLE parent_children(parent_children_id INTEGER(10),parent_id INTEGER(10),children_id INTEGER(10), PRIMARY KEY(parent_children_id))</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -11124,7 +11786,7 @@
         <v>INSERT INTO parent_children VALUES (1,12,31);</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:15">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -11161,7 +11823,7 @@
         <v>INSERT INTO parent_children VALUES (2,12,32);</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:15">
       <c r="A5" s="5">
         <v>3</v>
       </c>
@@ -11195,7 +11857,7 @@
         <v>INSERT INTO parent_children VALUES (3,12,33);</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:15">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -11229,7 +11891,7 @@
         <v>INSERT INTO parent_children VALUES (4,11,34);</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:15">
       <c r="A7" s="5">
         <v>5</v>
       </c>
@@ -11263,7 +11925,7 @@
         <v>INSERT INTO parent_children VALUES (5,11,35);</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:15">
       <c r="A8" s="5">
         <v>6</v>
       </c>
@@ -11297,7 +11959,7 @@
         <v>INSERT INTO parent_children VALUES (6,19,36);</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:15">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -11331,7 +11993,7 @@
         <v>INSERT INTO parent_children VALUES (7,19,37);</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:15">
       <c r="A10" s="5">
         <v>8</v>
       </c>
@@ -11365,7 +12027,7 @@
         <v>INSERT INTO parent_children VALUES (8,19,38);</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:15">
       <c r="A11" s="5">
         <v>9</v>
       </c>
@@ -11399,7 +12061,7 @@
         <v>INSERT INTO parent_children VALUES (9,19,39);</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:15">
       <c r="A12" s="5">
         <v>10</v>
       </c>
@@ -11433,7 +12095,7 @@
         <v>INSERT INTO parent_children VALUES (10,22,40);</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:15">
       <c r="A13" s="5">
         <v>11</v>
       </c>
@@ -11467,7 +12129,7 @@
         <v>INSERT INTO parent_children VALUES (11,22,41);</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:15">
       <c r="A14" s="5">
         <v>12</v>
       </c>
@@ -11501,7 +12163,7 @@
         <v>INSERT INTO parent_children VALUES (12,22,42);</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:15">
       <c r="A15" s="5">
         <v>13</v>
       </c>
@@ -11535,7 +12197,7 @@
         <v>INSERT INTO parent_children VALUES (13,20,40);</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:15">
       <c r="A16" s="5">
         <v>14</v>
       </c>
@@ -12683,13 +13345,13 @@
         <f>VLOOKUP(parent_children[[#This Row],[parent]],abbreviation[[description_german]:[abbreviation_id(for SVERWEIS)]],4,FALSE)</f>
         <v>63</v>
       </c>
-      <c r="G55" s="10">
-        <f>VLOOKUP(parent_children[[#This Row],[children]],abbreviation[[description_german]:[abbreviation_id(for SVERWEIS)]],4,FALSE)</f>
-        <v>94</v>
-      </c>
-      <c r="N55" s="5" t="str">
+      <c r="G55" s="10" t="e">
+        <f>VLOOKUP(parent_children[[#This Row],[children]],abbreviation[[description_german]:[abbreviation_id(for SVERWEIS)]],4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N55" s="5" t="e">
         <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A53),LEN(CELL("dateiname",A53))-FIND("]",CELL("dateiname",A53)))&amp;" VALUES"&amp;" ("&amp;parent_children8[[#This Row],[parent_children_id]]&amp;","&amp;parent_children8[[#This Row],[parent_id]]&amp;","&amp;parent_children8[[#This Row],[children_id]]&amp;");"</f>
-        <v>INSERT INTO parent_children VALUES (53,63,94);</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="56" spans="1:14">
@@ -14924,13 +15586,13 @@
         <f>VLOOKUP(parent_children[[#This Row],[parent]],abbreviation[[description_german]:[abbreviation_id(for SVERWEIS)]],4,FALSE)</f>
         <v>132</v>
       </c>
-      <c r="G138" s="10">
-        <f>VLOOKUP(parent_children[[#This Row],[children]],abbreviation[[description_german]:[abbreviation_id(for SVERWEIS)]],4,FALSE)</f>
-        <v>94</v>
-      </c>
-      <c r="N138" s="5" t="str">
+      <c r="G138" s="10" t="e">
+        <f>VLOOKUP(parent_children[[#This Row],[children]],abbreviation[[description_german]:[abbreviation_id(for SVERWEIS)]],4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N138" s="5" t="e">
         <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A136),LEN(CELL("dateiname",A136))-FIND("]",CELL("dateiname",A136)))&amp;" VALUES"&amp;" ("&amp;parent_children8[[#This Row],[parent_children_id]]&amp;","&amp;parent_children8[[#This Row],[parent_id]]&amp;","&amp;parent_children8[[#This Row],[children_id]]&amp;");"</f>
-        <v>INSERT INTO parent_children VALUES (136,132,94);</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="139" spans="1:14">
@@ -15572,13 +16234,13 @@
         <f>VLOOKUP(parent_children[[#This Row],[parent]],abbreviation[[description_german]:[abbreviation_id(for SVERWEIS)]],4,FALSE)</f>
         <v>134</v>
       </c>
-      <c r="G162" s="10">
-        <f>VLOOKUP(parent_children[[#This Row],[children]],abbreviation[[description_german]:[abbreviation_id(for SVERWEIS)]],4,FALSE)</f>
-        <v>94</v>
-      </c>
-      <c r="N162" s="5" t="str">
+      <c r="G162" s="10" t="e">
+        <f>VLOOKUP(parent_children[[#This Row],[children]],abbreviation[[description_german]:[abbreviation_id(for SVERWEIS)]],4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N162" s="5" t="e">
         <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A160),LEN(CELL("dateiname",A160))-FIND("]",CELL("dateiname",A160)))&amp;" VALUES"&amp;" ("&amp;parent_children8[[#This Row],[parent_children_id]]&amp;","&amp;parent_children8[[#This Row],[parent_id]]&amp;","&amp;parent_children8[[#This Row],[children_id]]&amp;");"</f>
-        <v>INSERT INTO parent_children VALUES (160,134,94);</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="163" spans="1:14">
@@ -16679,13 +17341,13 @@
         <f>VLOOKUP(parent_children[[#This Row],[parent]],abbreviation[[description_german]:[abbreviation_id(for SVERWEIS)]],4,FALSE)</f>
         <v>135</v>
       </c>
-      <c r="G203" s="10">
-        <f>VLOOKUP(parent_children[[#This Row],[children]],abbreviation[[description_german]:[abbreviation_id(for SVERWEIS)]],4,FALSE)</f>
-        <v>94</v>
-      </c>
-      <c r="N203" s="5" t="str">
+      <c r="G203" s="10" t="e">
+        <f>VLOOKUP(parent_children[[#This Row],[children]],abbreviation[[description_german]:[abbreviation_id(for SVERWEIS)]],4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N203" s="5" t="e">
         <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A201),LEN(CELL("dateiname",A201))-FIND("]",CELL("dateiname",A201)))&amp;" VALUES"&amp;" ("&amp;parent_children8[[#This Row],[parent_children_id]]&amp;","&amp;parent_children8[[#This Row],[parent_id]]&amp;","&amp;parent_children8[[#This Row],[children_id]]&amp;");"</f>
-        <v>INSERT INTO parent_children VALUES (201,135,94);</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="204" spans="1:14">

--- a/Excel-Table/BUDO_SQL_table.xlsx
+++ b/Excel-Table/BUDO_SQL_table.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sciebo\Programmierung\GIT\BUDO\Excel-Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11700"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18840" windowHeight="2910" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="abbreviation" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1378" uniqueCount="548">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1342" uniqueCount="551">
   <si>
     <t>Betonkerntemperierung</t>
   </si>
@@ -551,15 +551,9 @@
     <t>category_name_english</t>
   </si>
   <si>
-    <t>Subsubsystem</t>
-  </si>
-  <si>
     <t>Medium</t>
   </si>
   <si>
-    <t>Position Anlage</t>
-  </si>
-  <si>
     <t>Datenpunkt</t>
   </si>
   <si>
@@ -572,21 +566,12 @@
     <t>SSYS</t>
   </si>
   <si>
-    <t>SSSYS</t>
-  </si>
-  <si>
     <t>MED</t>
   </si>
   <si>
-    <t>POSA</t>
-  </si>
-  <si>
     <t>comment</t>
   </si>
   <si>
-    <t>Position device</t>
-  </si>
-  <si>
     <t>Data Point</t>
   </si>
   <si>
@@ -599,9 +584,6 @@
     <t>DP</t>
   </si>
   <si>
-    <t>not used as abbrevation</t>
-  </si>
-  <si>
     <t>category_assignment_id</t>
   </si>
   <si>
@@ -998,9 +980,6 @@
     <t>HUM.REL</t>
   </si>
   <si>
-    <t>Strommenge</t>
-  </si>
-  <si>
     <t>EN.EL</t>
   </si>
   <si>
@@ -1677,6 +1656,36 @@
   </si>
   <si>
     <t>temperature</t>
+  </si>
+  <si>
+    <t>Medium 2. Spezifizierung</t>
+  </si>
+  <si>
+    <t>Medium 3. Spezifizierung</t>
+  </si>
+  <si>
+    <t>Medium 2nd specification</t>
+  </si>
+  <si>
+    <t>MED2</t>
+  </si>
+  <si>
+    <t>not used as abbreviation</t>
+  </si>
+  <si>
+    <t>MED3</t>
+  </si>
+  <si>
+    <t>Medium 3rd specification</t>
+  </si>
+  <si>
+    <t>Datenpunkt 2. Spezifizierung</t>
+  </si>
+  <si>
+    <t>Data Point 2nd specification</t>
+  </si>
+  <si>
+    <t>DP2</t>
   </si>
 </sst>
 </file>
@@ -1771,7 +1780,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1788,11 +1797,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="20">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -1916,8 +1928,35 @@
         <scheme val="minor"/>
       </font>
     </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="19"/>
+      <tableStyleElement type="headerRow" dxfId="18"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1946,8 +1985,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="category" displayName="category" ref="A2:F42" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
-  <autoFilter ref="A2:F42"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="category" displayName="category" ref="A2:F43" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+  <autoFilter ref="A2:F43"/>
   <tableColumns count="6">
     <tableColumn id="1" name="category_id" dataDxfId="12"/>
     <tableColumn id="2" name="category_name_german" dataDxfId="11"/>
@@ -1963,8 +2002,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="category_assignment" displayName="category_assignment" ref="A2:C135" totalsRowShown="0">
-  <autoFilter ref="A2:C135"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="category_assignment" displayName="category_assignment" ref="A2:C115" totalsRowShown="0">
+  <autoFilter ref="A2:C115"/>
   <tableColumns count="3">
     <tableColumn id="1" name="category_assignment_id"/>
     <tableColumn id="2" name="category"/>
@@ -1975,8 +2014,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Tabelle8" displayName="Tabelle8" ref="E2:G135" totalsRowShown="0">
-  <autoFilter ref="E2:G135"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Tabelle8" displayName="Tabelle8" ref="E2:G115" totalsRowShown="0">
+  <autoFilter ref="E2:G115"/>
   <tableColumns count="3">
     <tableColumn id="1" name="category_assignment_id">
       <calculatedColumnFormula>category_assignment[[#This Row],[category_assignment_id]]</calculatedColumnFormula>
@@ -2300,10 +2339,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:H230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A200" workbookViewId="0">
-      <selection activeCell="D211" sqref="D211"/>
+    <sheetView topLeftCell="A196" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3:G230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2318,33 +2358,33 @@
   <sheetData>
     <row r="1" spans="1:8" s="5" customFormat="1">
       <c r="A1" s="5" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B2" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C2" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D2" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="E2" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G2" t="str">
         <f ca="1">"CREATE TABLE "&amp;RIGHT(CELL("dateiname",A1),LEN(CELL("dateiname",A1))-FIND("]",CELL("dateiname",A1)))&amp;"("&amp;abbreviation[[#Headers],[abbreviation_id]]&amp;" "&amp;A1&amp;","&amp;abbreviation[[#Headers],[description_german]]&amp;" "&amp;B1&amp;","&amp;abbreviation[[#Headers],[description_english]]&amp;" "&amp;C1&amp;","&amp;abbreviation[[#Headers],[abbreviation_budo]]&amp;" "&amp;D1&amp;", PRIMARY KEY("&amp;abbreviation[[#Headers],[abbreviation_id]]&amp;"))"</f>
@@ -2375,11 +2415,11 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="5" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="E4">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -2495,11 +2535,11 @@
         <v>7</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="E10">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -2675,11 +2715,11 @@
         <v>16</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="E19">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -2695,11 +2735,11 @@
         <v>17</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="E20">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -2899,7 +2939,7 @@
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="6" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="E30">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -2935,11 +2975,11 @@
         <v>29</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="6" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="E32">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -2955,11 +2995,11 @@
         <v>30</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="C33" s="6"/>
       <c r="D33" s="6" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="E33">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -3079,7 +3119,7 @@
       </c>
       <c r="C39" s="6"/>
       <c r="D39" s="6" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="E39">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -3119,7 +3159,7 @@
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="4" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="E41">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -3275,11 +3315,11 @@
         <v>46</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="5" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="E49" s="10">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -3295,11 +3335,11 @@
         <v>47</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="5" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="E50" s="10">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -3315,11 +3355,11 @@
         <v>48</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="5" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="E51" s="10">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -3335,11 +3375,11 @@
         <v>49</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="5" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="E52" s="10">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -3355,11 +3395,11 @@
         <v>50</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="5" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="E53" s="10">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -3375,11 +3415,11 @@
         <v>51</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="5" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="E54" s="10">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -3395,11 +3435,11 @@
         <v>52</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="C55" s="3"/>
       <c r="D55" s="5" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="E55" s="10">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -3415,11 +3455,11 @@
         <v>53</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="5" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="E56" s="10">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -3435,11 +3475,11 @@
         <v>54</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="5" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="E57" s="10">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -3455,11 +3495,11 @@
         <v>55</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="C58" s="3"/>
       <c r="D58" s="5" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="E58" s="10">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -3475,7 +3515,7 @@
         <v>56</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="5" t="s">
@@ -3495,11 +3535,11 @@
         <v>57</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="5" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="E60" s="10">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -3515,11 +3555,11 @@
         <v>58</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="C61" s="3"/>
       <c r="D61" s="5" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E61" s="10">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -3535,11 +3575,11 @@
         <v>59</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C62" s="3"/>
       <c r="D62" s="5" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="E62" s="10">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -3555,11 +3595,11 @@
         <v>60</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C63" s="3"/>
       <c r="D63" s="5" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="E63" s="10">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -3575,11 +3615,11 @@
         <v>61</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C64" s="3"/>
       <c r="D64" s="5" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="E64" s="10">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -3595,11 +3635,11 @@
         <v>62</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C65" s="3"/>
       <c r="D65" s="5" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="E65" s="10">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -3615,11 +3655,11 @@
         <v>63</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C66" s="3"/>
       <c r="D66" s="5" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="E66" s="10">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -3635,11 +3675,11 @@
         <v>64</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="5" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="E67" s="10">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -3655,11 +3695,11 @@
         <v>65</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C68" s="3"/>
       <c r="D68" s="5" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="E68" s="10">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -3675,11 +3715,11 @@
         <v>66</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C69" s="3"/>
       <c r="D69" s="5" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="E69" s="10">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -3695,11 +3735,11 @@
         <v>67</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="C70" s="3"/>
       <c r="D70" s="5" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="E70" s="10">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -3715,11 +3755,11 @@
         <v>68</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C71" s="3"/>
       <c r="D71" s="5" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="E71" s="10">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -3735,11 +3775,11 @@
         <v>69</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="C72" s="3"/>
       <c r="D72" s="5" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="E72" s="10">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -3755,11 +3795,11 @@
         <v>70</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="C73" s="3"/>
       <c r="D73" s="5" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="E73" s="10">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -3775,11 +3815,11 @@
         <v>71</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="C74" s="3"/>
       <c r="D74" s="5" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="E74" s="10">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -3795,11 +3835,11 @@
         <v>72</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C75" s="3"/>
       <c r="D75" s="5" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="E75" s="10">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -3815,11 +3855,11 @@
         <v>73</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="C76" s="3"/>
       <c r="D76" s="5" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="E76" s="10">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -3835,11 +3875,11 @@
         <v>74</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="C77" s="3"/>
       <c r="D77" s="5" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="E77" s="10">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -3855,11 +3895,11 @@
         <v>75</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="C78" s="3"/>
       <c r="D78" s="5" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="E78" s="10">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -3875,11 +3915,11 @@
         <v>76</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="C79" s="3"/>
       <c r="D79" s="5" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="E79" s="10">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -3895,11 +3935,11 @@
         <v>77</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="C80" s="3"/>
       <c r="D80" s="5" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="E80" s="10">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -3915,11 +3955,11 @@
         <v>78</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="C81" s="3"/>
       <c r="D81" s="5" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="E81" s="10">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -3935,11 +3975,11 @@
         <v>79</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="C82" s="3"/>
       <c r="D82" s="5" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="E82" s="10">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -3955,11 +3995,11 @@
         <v>80</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="C83" s="3"/>
       <c r="D83" s="5" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="E83" s="10">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -3975,11 +4015,11 @@
         <v>81</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C84" s="3"/>
       <c r="D84" s="5" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="E84" s="10">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -3995,11 +4035,11 @@
         <v>82</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="C85" s="3"/>
       <c r="D85" s="5" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="E85" s="10">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -4015,11 +4055,11 @@
         <v>83</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="C86" s="3"/>
       <c r="D86" s="5" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="E86" s="10">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -4035,11 +4075,11 @@
         <v>84</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="C87" s="3"/>
       <c r="D87" s="5" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="E87" s="10">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -4055,11 +4095,11 @@
         <v>85</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="C88" s="3"/>
       <c r="D88" s="5" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="E88" s="10">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -4075,11 +4115,11 @@
         <v>86</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="C89" s="3"/>
       <c r="D89" s="5" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="E89" s="10">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -4095,11 +4135,11 @@
         <v>87</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="C90" s="3"/>
       <c r="D90" s="5" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="E90" s="10">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -4115,11 +4155,11 @@
         <v>88</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="C91" s="3"/>
       <c r="D91" s="5" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="E91" s="10">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -4135,11 +4175,11 @@
         <v>89</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="C92" s="3"/>
       <c r="D92" s="5" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="E92" s="10">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -4155,11 +4195,11 @@
         <v>90</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="C93" s="3"/>
       <c r="D93" s="5" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="E93" s="10">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -4175,11 +4215,11 @@
         <v>91</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="C94" s="3"/>
       <c r="D94" s="5" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="E94" s="10">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -4195,11 +4235,11 @@
         <v>92</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="C95" s="3"/>
       <c r="D95" s="5" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="E95" s="10">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -4215,11 +4255,11 @@
         <v>93</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="C96" s="3"/>
       <c r="D96" s="5" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="E96" s="10">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -4234,14 +4274,14 @@
       <c r="A97" s="5">
         <v>94</v>
       </c>
-      <c r="B97" s="1" t="s">
-        <v>505</v>
+      <c r="B97" s="12" t="s">
+        <v>498</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="E97" s="10">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -4257,13 +4297,13 @@
         <v>95</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="E98" s="10">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -4279,11 +4319,11 @@
         <v>96</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="C99" s="3"/>
       <c r="D99" s="5" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E99" s="10">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -4299,11 +4339,11 @@
         <v>97</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="C100" s="3"/>
       <c r="D100" s="5" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="E100" s="10">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -4319,11 +4359,11 @@
         <v>98</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="C101" s="3"/>
       <c r="D101" s="5" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="E101" s="10">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -4339,11 +4379,11 @@
         <v>99</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="C102" s="3"/>
       <c r="D102" s="5" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="E102" s="10">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -4359,11 +4399,11 @@
         <v>100</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="C103" s="3"/>
       <c r="D103" s="5" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="E103" s="10">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -4379,11 +4419,11 @@
         <v>101</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="C104" s="3"/>
       <c r="D104" s="5" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="E104" s="10">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -4399,11 +4439,11 @@
         <v>102</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="C105" s="3"/>
       <c r="D105" s="5" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="E105" s="10">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -4419,11 +4459,11 @@
         <v>103</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="C106" s="3"/>
       <c r="D106" s="5" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="E106" s="10">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -4439,11 +4479,11 @@
         <v>104</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="C107" s="3"/>
       <c r="D107" s="5" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="E107" s="10">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -4459,11 +4499,11 @@
         <v>105</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="C108" s="3"/>
       <c r="D108" s="5" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="E108" s="10">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -4479,11 +4519,11 @@
         <v>106</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="C109" s="3"/>
       <c r="D109" s="5" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="E109" s="10">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -4499,11 +4539,11 @@
         <v>107</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="C110" s="3"/>
       <c r="D110" s="5" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="E110" s="10">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -4519,11 +4559,11 @@
         <v>108</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="C111" s="3"/>
       <c r="D111" s="5" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="E111" s="10">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -4539,11 +4579,11 @@
         <v>109</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="C112" s="3"/>
       <c r="D112" s="5" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="E112" s="10">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -4559,11 +4599,11 @@
         <v>110</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="C113" s="3"/>
       <c r="D113" s="5" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="E113" s="10">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -4579,11 +4619,11 @@
         <v>111</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="C114" s="3"/>
       <c r="D114" s="5" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="E114" s="10">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -4599,11 +4639,11 @@
         <v>112</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="C115" s="3"/>
       <c r="D115" s="5" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="E115" s="10">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -4619,7 +4659,7 @@
         <v>113</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="C116" s="3"/>
       <c r="D116" s="5" t="s">
@@ -4639,11 +4679,11 @@
         <v>114</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="C117" s="3"/>
       <c r="D117" s="5" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="E117" s="10">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -4659,11 +4699,11 @@
         <v>115</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="C118" s="3"/>
       <c r="D118" s="5" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="E118" s="10">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -4679,11 +4719,11 @@
         <v>116</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="C119" s="3"/>
       <c r="D119" s="5" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E119" s="10">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -4699,11 +4739,11 @@
         <v>117</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="C120" s="3"/>
       <c r="D120" s="5" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="E120" s="10">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -4719,11 +4759,11 @@
         <v>118</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="C121" s="3"/>
       <c r="D121" s="5" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="E121" s="10">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -4739,11 +4779,11 @@
         <v>119</v>
       </c>
       <c r="B122" s="12" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="C122" s="3"/>
       <c r="D122" s="13" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="E122" s="10">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -4759,11 +4799,11 @@
         <v>120</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="C123" s="3"/>
       <c r="D123" s="5" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="E123" s="10">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -4779,11 +4819,11 @@
         <v>121</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="C124" s="3"/>
       <c r="D124" s="5" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="E124" s="10">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -4799,11 +4839,11 @@
         <v>122</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="C125" s="3"/>
       <c r="D125" s="5" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="E125" s="10">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -4819,11 +4859,11 @@
         <v>123</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="C126" s="3"/>
       <c r="D126" s="5" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="E126" s="10">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -4839,11 +4879,11 @@
         <v>124</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="C127" s="3"/>
       <c r="D127" s="5" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="E127" s="10">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -4859,11 +4899,11 @@
         <v>125</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="C128" s="3"/>
       <c r="D128" s="5" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="E128" s="10">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -4879,11 +4919,11 @@
         <v>126</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="C129" s="3"/>
       <c r="D129" s="5" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="E129" s="10">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -4899,11 +4939,11 @@
         <v>127</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="C130" s="3"/>
       <c r="D130" s="5" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="E130" s="10">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -4919,11 +4959,11 @@
         <v>128</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="C131" s="3"/>
       <c r="D131" s="5" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="E131" s="10">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -4939,11 +4979,11 @@
         <v>129</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="C132" s="3"/>
       <c r="D132" s="5" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="E132" s="10">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -4959,11 +4999,11 @@
         <v>130</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="C133" s="3"/>
       <c r="D133" s="5" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="E133" s="10">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -4979,11 +5019,11 @@
         <v>131</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="C134" s="3"/>
       <c r="D134" s="5" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="E134" s="10">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -4999,11 +5039,11 @@
         <v>132</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="C135" s="3"/>
       <c r="D135" s="5" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="E135" s="10">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -5019,11 +5059,11 @@
         <v>133</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="C136" s="3"/>
       <c r="D136" s="5" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="E136" s="10">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -5039,11 +5079,11 @@
         <v>134</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="C137" s="3"/>
       <c r="D137" s="5" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="E137" s="10">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -5059,11 +5099,11 @@
         <v>135</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="C138" s="3"/>
       <c r="D138" s="5" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="E138" s="10">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -5079,11 +5119,11 @@
         <v>136</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="C139" s="3"/>
       <c r="D139" s="5" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="E139" s="10">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -5099,11 +5139,11 @@
         <v>137</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="C140" s="3"/>
       <c r="D140" s="5" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="E140" s="10">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -5119,11 +5159,11 @@
         <v>138</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="C141" s="3"/>
       <c r="D141" s="5" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="E141" s="10">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -5139,11 +5179,11 @@
         <v>139</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="C142" s="3"/>
       <c r="D142" s="5" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="E142" s="10">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -5159,11 +5199,11 @@
         <v>140</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="C143" s="3"/>
       <c r="D143" s="5" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="E143" s="10">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -5179,11 +5219,11 @@
         <v>141</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="C144" s="3"/>
       <c r="D144" s="5" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="E144" s="10">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -5199,11 +5239,11 @@
         <v>142</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="C145" s="3"/>
       <c r="D145" s="5" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="E145" s="10">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -5219,11 +5259,11 @@
         <v>143</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="C146" s="3"/>
       <c r="D146" s="5" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="E146" s="10">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -5239,11 +5279,11 @@
         <v>144</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="C147" s="3"/>
       <c r="D147" s="5" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="E147" s="10">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -5259,11 +5299,11 @@
         <v>145</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="C148" s="3"/>
       <c r="D148" s="5" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="E148" s="10">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -5279,11 +5319,11 @@
         <v>146</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="C149" s="3"/>
       <c r="D149" s="5" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="E149" s="10">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -5299,11 +5339,11 @@
         <v>147</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="C150" s="3"/>
       <c r="D150" s="5" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="E150" s="10">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -5319,11 +5359,11 @@
         <v>148</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="C151" s="3"/>
       <c r="D151" s="5" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="E151" s="10">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -5339,11 +5379,11 @@
         <v>149</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="C152" s="3"/>
       <c r="D152" s="5" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="E152" s="10">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -5359,11 +5399,11 @@
         <v>150</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="C153" s="3"/>
       <c r="D153" s="5" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="E153" s="10">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -5379,11 +5419,11 @@
         <v>151</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="C154" s="3"/>
       <c r="D154" s="5" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="E154" s="10">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -5399,11 +5439,11 @@
         <v>152</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="C155" s="3"/>
       <c r="D155" s="5" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="E155" s="10">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -5419,11 +5459,11 @@
         <v>153</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="C156" s="3"/>
       <c r="D156" s="5" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="E156" s="10">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -5439,11 +5479,11 @@
         <v>154</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="C157" s="3"/>
       <c r="D157" s="5" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="E157" s="10">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -5459,11 +5499,11 @@
         <v>155</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="C158" s="3"/>
       <c r="D158" s="5" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="E158" s="10">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -5479,11 +5519,11 @@
         <v>156</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="C159" s="3"/>
       <c r="D159" s="5" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="E159" s="10">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -5499,11 +5539,11 @@
         <v>157</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="C160" s="3"/>
       <c r="D160" s="5" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="E160" s="10">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -5519,11 +5559,11 @@
         <v>158</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="C161" s="3"/>
       <c r="D161" s="5" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="E161" s="10">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -5539,11 +5579,11 @@
         <v>159</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="C162" s="3"/>
       <c r="D162" s="5" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="E162" s="10">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -5559,11 +5599,11 @@
         <v>160</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="C163" s="3"/>
       <c r="D163" s="5" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="E163" s="10">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -5579,11 +5619,11 @@
         <v>161</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="C164" s="3"/>
       <c r="D164" s="5" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="E164" s="10">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -5599,11 +5639,11 @@
         <v>162</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="C165" s="3"/>
       <c r="D165" s="5" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="E165" s="10">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -5619,11 +5659,11 @@
         <v>163</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="C166" s="3"/>
       <c r="D166" s="5" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="E166" s="10">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -5639,11 +5679,11 @@
         <v>164</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="C167" s="3"/>
       <c r="D167" s="5" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="E167" s="10">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -5659,11 +5699,11 @@
         <v>165</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="C168" s="3"/>
       <c r="D168" s="5" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="E168" s="10">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -5679,11 +5719,11 @@
         <v>166</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="C169" s="3"/>
       <c r="D169" s="5" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="E169" s="10">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -5699,11 +5739,11 @@
         <v>167</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="C170" s="3"/>
       <c r="D170" s="5" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="E170" s="10">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -5719,11 +5759,11 @@
         <v>168</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="C171" s="3"/>
       <c r="D171" s="5" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="E171" s="10">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -5739,11 +5779,11 @@
         <v>169</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="C172" s="3"/>
       <c r="D172" s="5" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="E172" s="10">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -5759,11 +5799,11 @@
         <v>170</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="C173" s="3"/>
       <c r="D173" s="5" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="E173" s="10">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -5779,11 +5819,11 @@
         <v>171</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="C174" s="3"/>
       <c r="D174" s="5" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="E174" s="10">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -5799,11 +5839,11 @@
         <v>172</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="C175" s="3"/>
       <c r="D175" s="5" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="E175" s="10">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -5819,11 +5859,11 @@
         <v>173</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="C176" s="3"/>
       <c r="D176" s="5" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="E176" s="10">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -6543,13 +6583,13 @@
         <v>206</v>
       </c>
       <c r="B209" s="15" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="C209" s="15" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="D209" s="15" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="E209" s="10">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -6565,13 +6605,13 @@
         <v>207</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="D210" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="E210" s="10">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -6587,13 +6627,13 @@
         <v>208</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="D211" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="E211" s="10">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -6609,13 +6649,13 @@
         <v>209</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="D212" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="E212" s="10">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -6631,13 +6671,13 @@
         <v>210</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="D213" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="E213" s="10">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -6653,17 +6693,21 @@
         <v>211</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="D214" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="E214" s="10">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
         <v>211</v>
+      </c>
+      <c r="G214" s="5" t="str">
+        <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A212),LEN(CELL("dateiname",A212))-FIND("]",CELL("dateiname",A212)))&amp;" VALUES"&amp;" ("&amp;abbreviation[[#This Row],[abbreviation_id]]&amp;",'"&amp;abbreviation[[#This Row],[description_german]]&amp;"','"&amp;abbreviation[[#This Row],[description_english]]&amp;"','"&amp;abbreviation[[#This Row],[abbreviation_budo]]&amp;"');"</f>
+        <v>INSERT INTO abbreviation VALUES (211,'Beleuchtung','lighting','LIG');</v>
       </c>
     </row>
     <row r="215" spans="1:7">
@@ -6671,17 +6715,21 @@
         <v>212</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="D215" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="E215" s="10">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
         <v>212</v>
+      </c>
+      <c r="G215" s="5" t="str">
+        <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A213),LEN(CELL("dateiname",A213))-FIND("]",CELL("dateiname",A213)))&amp;" VALUES"&amp;" ("&amp;abbreviation[[#This Row],[abbreviation_id]]&amp;",'"&amp;abbreviation[[#This Row],[description_german]]&amp;"','"&amp;abbreviation[[#This Row],[description_english]]&amp;"','"&amp;abbreviation[[#This Row],[abbreviation_budo]]&amp;"');"</f>
+        <v>INSERT INTO abbreviation VALUES (212,'Fenster','window','WIN');</v>
       </c>
     </row>
     <row r="216" spans="1:7">
@@ -6689,17 +6737,21 @@
         <v>213</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="D216" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="E216" s="10">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
         <v>213</v>
+      </c>
+      <c r="G216" s="5" t="str">
+        <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A214),LEN(CELL("dateiname",A214))-FIND("]",CELL("dateiname",A214)))&amp;" VALUES"&amp;" ("&amp;abbreviation[[#This Row],[abbreviation_id]]&amp;",'"&amp;abbreviation[[#This Row],[description_german]]&amp;"','"&amp;abbreviation[[#This Row],[description_english]]&amp;"','"&amp;abbreviation[[#This Row],[abbreviation_budo]]&amp;"');"</f>
+        <v>INSERT INTO abbreviation VALUES (213,'Bewegungsmelder','motion detector','SEN.MOT');</v>
       </c>
     </row>
     <row r="217" spans="1:7">
@@ -6707,17 +6759,21 @@
         <v>214</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="D217" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="E217" s="10">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
         <v>214</v>
+      </c>
+      <c r="G217" s="5" t="str">
+        <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A215),LEN(CELL("dateiname",A215))-FIND("]",CELL("dateiname",A215)))&amp;" VALUES"&amp;" ("&amp;abbreviation[[#This Row],[abbreviation_id]]&amp;",'"&amp;abbreviation[[#This Row],[description_german]]&amp;"','"&amp;abbreviation[[#This Row],[description_english]]&amp;"','"&amp;abbreviation[[#This Row],[abbreviation_budo]]&amp;"');"</f>
+        <v>INSERT INTO abbreviation VALUES (214,'Steckdose','socket','SOCK');</v>
       </c>
     </row>
     <row r="218" spans="1:7">
@@ -6725,17 +6781,21 @@
         <v>215</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="D218" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="E218" s="10">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
         <v>215</v>
+      </c>
+      <c r="G218" s="5" t="str">
+        <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A216),LEN(CELL("dateiname",A216))-FIND("]",CELL("dateiname",A216)))&amp;" VALUES"&amp;" ("&amp;abbreviation[[#This Row],[abbreviation_id]]&amp;",'"&amp;abbreviation[[#This Row],[description_german]]&amp;"','"&amp;abbreviation[[#This Row],[description_english]]&amp;"','"&amp;abbreviation[[#This Row],[abbreviation_budo]]&amp;"');"</f>
+        <v>INSERT INTO abbreviation VALUES (215,'Elektrische Scheinleistung','apparent electrical power','POW.EL.AP');</v>
       </c>
     </row>
     <row r="219" spans="1:7">
@@ -6743,17 +6803,21 @@
         <v>216</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="D219" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="E219" s="10">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
         <v>216</v>
+      </c>
+      <c r="G219" s="5" t="str">
+        <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A217),LEN(CELL("dateiname",A217))-FIND("]",CELL("dateiname",A217)))&amp;" VALUES"&amp;" ("&amp;abbreviation[[#This Row],[abbreviation_id]]&amp;",'"&amp;abbreviation[[#This Row],[description_german]]&amp;"','"&amp;abbreviation[[#This Row],[description_english]]&amp;"','"&amp;abbreviation[[#This Row],[abbreviation_budo]]&amp;"');"</f>
+        <v>INSERT INTO abbreviation VALUES (216,'Windgeschwindigkeit','wind speed','WIND.VC');</v>
       </c>
     </row>
     <row r="220" spans="1:7">
@@ -6761,17 +6825,21 @@
         <v>217</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="D220" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="E220" s="10">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
         <v>217</v>
+      </c>
+      <c r="G220" s="5" t="str">
+        <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A218),LEN(CELL("dateiname",A218))-FIND("]",CELL("dateiname",A218)))&amp;" VALUES"&amp;" ("&amp;abbreviation[[#This Row],[abbreviation_id]]&amp;",'"&amp;abbreviation[[#This Row],[description_german]]&amp;"','"&amp;abbreviation[[#This Row],[description_english]]&amp;"','"&amp;abbreviation[[#This Row],[abbreviation_budo]]&amp;"');"</f>
+        <v>INSERT INTO abbreviation VALUES (217,'Windrichtung','wind direction','WIND.DI');</v>
       </c>
     </row>
     <row r="221" spans="1:7">
@@ -6779,17 +6847,21 @@
         <v>218</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="D221" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="E221" s="10">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
         <v>218</v>
+      </c>
+      <c r="G221" s="5" t="str">
+        <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A219),LEN(CELL("dateiname",A219))-FIND("]",CELL("dateiname",A219)))&amp;" VALUES"&amp;" ("&amp;abbreviation[[#This Row],[abbreviation_id]]&amp;",'"&amp;abbreviation[[#This Row],[description_german]]&amp;"','"&amp;abbreviation[[#This Row],[description_english]]&amp;"','"&amp;abbreviation[[#This Row],[abbreviation_budo]]&amp;"');"</f>
+        <v>INSERT INTO abbreviation VALUES (218,'Geschwindigkeit','velocity','VC');</v>
       </c>
     </row>
     <row r="222" spans="1:7">
@@ -6797,17 +6869,21 @@
         <v>219</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="D222" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="E222" s="10">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
         <v>219</v>
+      </c>
+      <c r="G222" s="5" t="str">
+        <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A220),LEN(CELL("dateiname",A220))-FIND("]",CELL("dateiname",A220)))&amp;" VALUES"&amp;" ("&amp;abbreviation[[#This Row],[abbreviation_id]]&amp;",'"&amp;abbreviation[[#This Row],[description_german]]&amp;"','"&amp;abbreviation[[#This Row],[description_english]]&amp;"','"&amp;abbreviation[[#This Row],[abbreviation_budo]]&amp;"');"</f>
+        <v>INSERT INTO abbreviation VALUES (219,'Elektrische Spannung','electric voltage','V');</v>
       </c>
     </row>
     <row r="223" spans="1:7">
@@ -6815,17 +6891,21 @@
         <v>220</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="D223" s="5" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="E223" s="10">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
         <v>220</v>
+      </c>
+      <c r="G223" s="5" t="str">
+        <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A221),LEN(CELL("dateiname",A221))-FIND("]",CELL("dateiname",A221)))&amp;" VALUES"&amp;" ("&amp;abbreviation[[#This Row],[abbreviation_id]]&amp;",'"&amp;abbreviation[[#This Row],[description_german]]&amp;"','"&amp;abbreviation[[#This Row],[description_english]]&amp;"','"&amp;abbreviation[[#This Row],[abbreviation_budo]]&amp;"');"</f>
+        <v>INSERT INTO abbreviation VALUES (220,'Simulativer Analoger Eingang','simulative analog input','SAI');</v>
       </c>
     </row>
     <row r="224" spans="1:7">
@@ -6833,125 +6913,153 @@
         <v>221</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="D224" s="5" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="E224" s="10">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
         <v>221</v>
       </c>
-    </row>
-    <row r="225" spans="1:5">
+      <c r="G224" s="5" t="str">
+        <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A222),LEN(CELL("dateiname",A222))-FIND("]",CELL("dateiname",A222)))&amp;" VALUES"&amp;" ("&amp;abbreviation[[#This Row],[abbreviation_id]]&amp;",'"&amp;abbreviation[[#This Row],[description_german]]&amp;"','"&amp;abbreviation[[#This Row],[description_english]]&amp;"','"&amp;abbreviation[[#This Row],[abbreviation_budo]]&amp;"');"</f>
+        <v>INSERT INTO abbreviation VALUES (221,'Simulativer Analoger Ausgang','simulative analog output','SAO');</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7">
       <c r="A225" s="5">
         <v>222</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="D225" s="5" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="E225" s="10">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
         <v>222</v>
       </c>
-    </row>
-    <row r="226" spans="1:5">
+      <c r="G225" s="5" t="str">
+        <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A223),LEN(CELL("dateiname",A223))-FIND("]",CELL("dateiname",A223)))&amp;" VALUES"&amp;" ("&amp;abbreviation[[#This Row],[abbreviation_id]]&amp;",'"&amp;abbreviation[[#This Row],[description_german]]&amp;"','"&amp;abbreviation[[#This Row],[description_english]]&amp;"','"&amp;abbreviation[[#This Row],[abbreviation_budo]]&amp;"');"</f>
+        <v>INSERT INTO abbreviation VALUES (222,'Simulativer Digitaler Eingang','simulative digital input','SBI');</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7">
       <c r="A226" s="5">
         <v>223</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="D226" s="5" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="E226" s="10">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
         <v>223</v>
       </c>
-    </row>
-    <row r="227" spans="1:5">
+      <c r="G226" s="5" t="str">
+        <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A224),LEN(CELL("dateiname",A224))-FIND("]",CELL("dateiname",A224)))&amp;" VALUES"&amp;" ("&amp;abbreviation[[#This Row],[abbreviation_id]]&amp;",'"&amp;abbreviation[[#This Row],[description_german]]&amp;"','"&amp;abbreviation[[#This Row],[description_english]]&amp;"','"&amp;abbreviation[[#This Row],[abbreviation_budo]]&amp;"');"</f>
+        <v>INSERT INTO abbreviation VALUES (223,'Simulativer Digitaler Ausgang','simulative digital output','SBO');</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7">
       <c r="A227" s="5">
         <v>224</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="D227" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="E227" s="10">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
         <v>224</v>
       </c>
-    </row>
-    <row r="228" spans="1:5">
+      <c r="G227" s="5" t="str">
+        <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A225),LEN(CELL("dateiname",A225))-FIND("]",CELL("dateiname",A225)))&amp;" VALUES"&amp;" ("&amp;abbreviation[[#This Row],[abbreviation_id]]&amp;",'"&amp;abbreviation[[#This Row],[description_german]]&amp;"','"&amp;abbreviation[[#This Row],[description_english]]&amp;"','"&amp;abbreviation[[#This Row],[abbreviation_budo]]&amp;"');"</f>
+        <v>INSERT INTO abbreviation VALUES (224,'Elektrischer Kontakt','Electrical Contact','COTC.EL');</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7">
       <c r="A228" s="5">
         <v>225</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="D228" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="E228" s="10">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
         <v>225</v>
       </c>
-    </row>
-    <row r="229" spans="1:5">
+      <c r="G228" s="5" t="str">
+        <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A226),LEN(CELL("dateiname",A226))-FIND("]",CELL("dateiname",A226)))&amp;" VALUES"&amp;" ("&amp;abbreviation[[#This Row],[abbreviation_id]]&amp;",'"&amp;abbreviation[[#This Row],[description_german]]&amp;"','"&amp;abbreviation[[#This Row],[description_english]]&amp;"','"&amp;abbreviation[[#This Row],[abbreviation_budo]]&amp;"');"</f>
+        <v>INSERT INTO abbreviation VALUES (225,'Öffnungsgrad','degree of opening','STAT.OP');</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7">
       <c r="A229" s="5">
         <v>226</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="D229" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="E229" s="10">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
         <v>226</v>
       </c>
-    </row>
-    <row r="230" spans="1:5">
+      <c r="G229" s="5" t="str">
+        <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A227),LEN(CELL("dateiname",A227))-FIND("]",CELL("dateiname",A227)))&amp;" VALUES"&amp;" ("&amp;abbreviation[[#This Row],[abbreviation_id]]&amp;",'"&amp;abbreviation[[#This Row],[description_german]]&amp;"','"&amp;abbreviation[[#This Row],[description_english]]&amp;"','"&amp;abbreviation[[#This Row],[abbreviation_budo]]&amp;"');"</f>
+        <v>INSERT INTO abbreviation VALUES (226,'Schließgrad','degree of closure','STAT.CLOS');</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7">
       <c r="A230">
         <v>227</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="D230" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="E230" s="10">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
         <v>227</v>
+      </c>
+      <c r="G230" s="5" t="str">
+        <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A228),LEN(CELL("dateiname",A228))-FIND("]",CELL("dateiname",A228)))&amp;" VALUES"&amp;" ("&amp;abbreviation[[#This Row],[abbreviation_id]]&amp;",'"&amp;abbreviation[[#This Row],[description_german]]&amp;"','"&amp;abbreviation[[#This Row],[description_english]]&amp;"','"&amp;abbreviation[[#This Row],[abbreviation_budo]]&amp;"');"</f>
+        <v>INSERT INTO abbreviation VALUES (227,'schließen/geschlossen','close/closed','CLOS');</v>
       </c>
     </row>
   </sheetData>
@@ -6965,10 +7073,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Tabelle2"/>
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView topLeftCell="F11" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3:H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -6978,25 +7087,25 @@
     <col min="3" max="3" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.42578125" customWidth="1"/>
-    <col min="6" max="6" width="0.28515625" customWidth="1"/>
+    <col min="6" max="6" width="27.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="206" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="5" customFormat="1">
       <c r="A1" s="5" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -7010,13 +7119,13 @@
         <v>171</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="H2" t="str">
         <f ca="1">"CREATE TABLE "&amp;RIGHT(CELL("dateiname",A1),LEN(CELL("dateiname",A1))-FIND("]",CELL("dateiname",A1)))&amp;"("&amp;category[[#Headers],[category_id]]&amp;" "&amp;A1&amp;","&amp;category[[#Headers],[category_name_german]]&amp;" "&amp;B1&amp;","&amp;category[[#Headers],[category_name_english]]&amp;" "&amp;C1&amp;","&amp;category[[#Headers],[abbreviation_category_budo]]&amp;" "&amp;D1&amp;","&amp;category[[#Headers],[comment]]&amp;" "&amp;E1&amp;", PRIMARY KEY("&amp;category[[#Headers],[category_id]]&amp;"))"</f>
@@ -7055,10 +7164,10 @@
         <v>169</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>188</v>
+        <v>545</v>
       </c>
       <c r="F4" s="6">
         <f>category[[#This Row],[category_id]]</f>
@@ -7066,7 +7175,7 @@
       </c>
       <c r="H4" s="5" t="str">
         <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A2),LEN(CELL("dateiname",A2))-FIND("]",CELL("dateiname",A2)))&amp;" VALUES"&amp;" ("&amp;category[[#This Row],[category_id]]&amp;",'"&amp;category[[#This Row],[category_name_german]]&amp;"','"&amp;category[[#This Row],[category_name_english]]&amp;"','"&amp;category[[#This Row],[abbreviation_category_budo]]&amp;"','"&amp;category[[#This Row],[comment]]&amp;"');"</f>
-        <v>INSERT INTO category VALUES (1,'System','System','SYS','not used as abbrevation');</v>
+        <v>INSERT INTO category VALUES (1,'System','System','SYS','not used as abbreviation');</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -7080,10 +7189,10 @@
         <v>170</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>188</v>
+        <v>545</v>
       </c>
       <c r="F5" s="6">
         <f>category[[#This Row],[category_id]]</f>
@@ -7091,7 +7200,7 @@
       </c>
       <c r="H5" s="5" t="str">
         <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A3),LEN(CELL("dateiname",A3))-FIND("]",CELL("dateiname",A3)))&amp;" VALUES"&amp;" ("&amp;category[[#This Row],[category_id]]&amp;",'"&amp;category[[#This Row],[category_name_german]]&amp;"','"&amp;category[[#This Row],[category_name_english]]&amp;"','"&amp;category[[#This Row],[abbreviation_category_budo]]&amp;"','"&amp;category[[#This Row],[comment]]&amp;"');"</f>
-        <v>INSERT INTO category VALUES (2,'Subsystem','Subsystem','SSYS','not used as abbrevation');</v>
+        <v>INSERT INTO category VALUES (2,'Subsystem','Subsystem','SSYS','not used as abbreviation');</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -7105,10 +7214,10 @@
         <v>172</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>188</v>
+        <v>545</v>
       </c>
       <c r="F6" s="6">
         <f>category[[#This Row],[category_id]]</f>
@@ -7116,57 +7225,57 @@
       </c>
       <c r="H6" s="5" t="str">
         <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A4),LEN(CELL("dateiname",A4))-FIND("]",CELL("dateiname",A4)))&amp;" VALUES"&amp;" ("&amp;category[[#This Row],[category_id]]&amp;",'"&amp;category[[#This Row],[category_name_german]]&amp;"','"&amp;category[[#This Row],[category_name_english]]&amp;"','"&amp;category[[#This Row],[abbreviation_category_budo]]&amp;"','"&amp;category[[#This Row],[comment]]&amp;"');"</f>
-        <v>INSERT INTO category VALUES (3,'Subsubsystem','Subsubsystem','SSSYS','not used as abbrevation');</v>
+        <v>INSERT INTO category VALUES (3,'Medium','Medium','MED','not used as abbreviation');</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="6">
+      <c r="A7" s="14">
         <v>4</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="F7" s="6">
+      <c r="B7" s="14" t="s">
+        <v>541</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>543</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>544</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>545</v>
+      </c>
+      <c r="F7" s="18">
         <f>category[[#This Row],[category_id]]</f>
         <v>4</v>
       </c>
       <c r="H7" s="5" t="str">
         <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A5),LEN(CELL("dateiname",A5))-FIND("]",CELL("dateiname",A5)))&amp;" VALUES"&amp;" ("&amp;category[[#This Row],[category_id]]&amp;",'"&amp;category[[#This Row],[category_name_german]]&amp;"','"&amp;category[[#This Row],[category_name_english]]&amp;"','"&amp;category[[#This Row],[abbreviation_category_budo]]&amp;"','"&amp;category[[#This Row],[comment]]&amp;"');"</f>
-        <v>INSERT INTO category VALUES (4,'Medium','Medium','MED','not used as abbrevation');</v>
+        <v>INSERT INTO category VALUES (4,'Medium 2. Spezifizierung','Medium 2nd specification','MED2','not used as abbreviation');</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="6">
+      <c r="A8" s="14">
         <v>5</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="F8" s="6">
+      <c r="B8" s="14" t="s">
+        <v>542</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>547</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>546</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>545</v>
+      </c>
+      <c r="F8" s="18">
         <f>category[[#This Row],[category_id]]</f>
         <v>5</v>
       </c>
       <c r="H8" s="5" t="str">
         <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A6),LEN(CELL("dateiname",A6))-FIND("]",CELL("dateiname",A6)))&amp;" VALUES"&amp;" ("&amp;category[[#This Row],[category_id]]&amp;",'"&amp;category[[#This Row],[category_name_german]]&amp;"','"&amp;category[[#This Row],[category_name_english]]&amp;"','"&amp;category[[#This Row],[abbreviation_category_budo]]&amp;"','"&amp;category[[#This Row],[comment]]&amp;"');"</f>
-        <v>INSERT INTO category VALUES (5,'Position Anlage','Position device','POSA','not used as abbrevation');</v>
+        <v>INSERT INTO category VALUES (5,'Medium 3. Spezifizierung','Medium 3rd specification','MED3','not used as abbreviation');</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -7174,49 +7283,49 @@
         <v>6</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="F9" s="6">
+        <v>545</v>
+      </c>
+      <c r="F9" s="17">
         <f>category[[#This Row],[category_id]]</f>
         <v>6</v>
       </c>
       <c r="H9" s="5" t="str">
         <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A7),LEN(CELL("dateiname",A7))-FIND("]",CELL("dateiname",A7)))&amp;" VALUES"&amp;" ("&amp;category[[#This Row],[category_id]]&amp;",'"&amp;category[[#This Row],[category_name_german]]&amp;"','"&amp;category[[#This Row],[category_name_english]]&amp;"','"&amp;category[[#This Row],[abbreviation_category_budo]]&amp;"','"&amp;category[[#This Row],[comment]]&amp;"');"</f>
-        <v>INSERT INTO category VALUES (6,'Datenpunkt','Data Point','DP','not used as abbrevation');</v>
+        <v>INSERT INTO category VALUES (6,'Datenpunkt','Data Point','DP','not used as abbreviation');</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="6">
+      <c r="A10" s="14">
         <v>7</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="F10" s="6">
+      <c r="B10" s="14" t="s">
+        <v>548</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>549</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>550</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>545</v>
+      </c>
+      <c r="F10" s="18">
         <f>category[[#This Row],[category_id]]</f>
         <v>7</v>
       </c>
       <c r="H10" s="5" t="str">
         <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A8),LEN(CELL("dateiname",A8))-FIND("]",CELL("dateiname",A8)))&amp;" VALUES"&amp;" ("&amp;category[[#This Row],[category_id]]&amp;",'"&amp;category[[#This Row],[category_name_german]]&amp;"','"&amp;category[[#This Row],[category_name_english]]&amp;"','"&amp;category[[#This Row],[abbreviation_category_budo]]&amp;"','"&amp;category[[#This Row],[comment]]&amp;"');"</f>
-        <v>INSERT INTO category VALUES (7,'Funktionsart','Function type','FT','not used as abbrevation');</v>
+        <v>INSERT INTO category VALUES (7,'Datenpunkt 2. Spezifizierung','Data Point 2nd specification','DP2','not used as abbreviation');</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -7224,22 +7333,24 @@
         <v>8</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>72</v>
+        <v>174</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>73</v>
+        <v>180</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6">
+        <v>181</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="F11" s="17">
         <f>category[[#This Row],[category_id]]</f>
         <v>8</v>
       </c>
       <c r="H11" s="5" t="str">
         <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A9),LEN(CELL("dateiname",A9))-FIND("]",CELL("dateiname",A9)))&amp;" VALUES"&amp;" ("&amp;category[[#This Row],[category_id]]&amp;",'"&amp;category[[#This Row],[category_name_german]]&amp;"','"&amp;category[[#This Row],[category_name_english]]&amp;"','"&amp;category[[#This Row],[abbreviation_category_budo]]&amp;"','"&amp;category[[#This Row],[comment]]&amp;"');"</f>
-        <v>INSERT INTO category VALUES (8,'Gebäude','building','BL','');</v>
+        <v>INSERT INTO category VALUES (8,'Funktionsart','Function type','FT','not used as abbreviation');</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -7247,22 +7358,22 @@
         <v>9</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E12" s="6"/>
-      <c r="F12" s="6">
+      <c r="F12" s="17">
         <f>category[[#This Row],[category_id]]</f>
         <v>9</v>
       </c>
       <c r="H12" s="5" t="str">
         <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A10),LEN(CELL("dateiname",A10))-FIND("]",CELL("dateiname",A10)))&amp;" VALUES"&amp;" ("&amp;category[[#This Row],[category_id]]&amp;",'"&amp;category[[#This Row],[category_name_german]]&amp;"','"&amp;category[[#This Row],[category_name_english]]&amp;"','"&amp;category[[#This Row],[abbreviation_category_budo]]&amp;"','"&amp;category[[#This Row],[comment]]&amp;"');"</f>
-        <v>INSERT INTO category VALUES (9,'Liegenschaft/Standort/Werk','location','L','');</v>
+        <v>INSERT INTO category VALUES (9,'Gebäude','building','BL','');</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -7270,22 +7381,22 @@
         <v>10</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E13" s="6"/>
-      <c r="F13" s="6">
+      <c r="F13" s="17">
         <f>category[[#This Row],[category_id]]</f>
         <v>10</v>
       </c>
       <c r="H13" s="5" t="str">
         <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A11),LEN(CELL("dateiname",A11))-FIND("]",CELL("dateiname",A11)))&amp;" VALUES"&amp;" ("&amp;category[[#This Row],[category_id]]&amp;",'"&amp;category[[#This Row],[category_name_german]]&amp;"','"&amp;category[[#This Row],[category_name_english]]&amp;"','"&amp;category[[#This Row],[abbreviation_category_budo]]&amp;"','"&amp;category[[#This Row],[comment]]&amp;"');"</f>
-        <v>INSERT INTO category VALUES (10,'Gewerk','craft','CR','');</v>
+        <v>INSERT INTO category VALUES (10,'Liegenschaft/Standort/Werk','location','L','');</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -7293,22 +7404,22 @@
         <v>11</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E14" s="6"/>
-      <c r="F14" s="6">
+      <c r="F14" s="17">
         <f>category[[#This Row],[category_id]]</f>
         <v>11</v>
       </c>
       <c r="H14" s="5" t="str">
         <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A12),LEN(CELL("dateiname",A12))-FIND("]",CELL("dateiname",A12)))&amp;" VALUES"&amp;" ("&amp;category[[#This Row],[category_id]]&amp;",'"&amp;category[[#This Row],[category_name_german]]&amp;"','"&amp;category[[#This Row],[category_name_english]]&amp;"','"&amp;category[[#This Row],[abbreviation_category_budo]]&amp;"','"&amp;category[[#This Row],[comment]]&amp;"');"</f>
-        <v>INSERT INTO category VALUES (11,'Raum Gerät','room device','R.D','');</v>
+        <v>INSERT INTO category VALUES (11,'Gewerk','craft','CR','');</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -7316,22 +7427,22 @@
         <v>12</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E15" s="6"/>
-      <c r="F15" s="6">
+      <c r="F15" s="17">
         <f>category[[#This Row],[category_id]]</f>
         <v>12</v>
       </c>
       <c r="H15" s="5" t="str">
         <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A13),LEN(CELL("dateiname",A13))-FIND("]",CELL("dateiname",A13)))&amp;" VALUES"&amp;" ("&amp;category[[#This Row],[category_id]]&amp;",'"&amp;category[[#This Row],[category_name_german]]&amp;"','"&amp;category[[#This Row],[category_name_english]]&amp;"','"&amp;category[[#This Row],[abbreviation_category_budo]]&amp;"','"&amp;category[[#This Row],[comment]]&amp;"');"</f>
-        <v>INSERT INTO category VALUES (12,'Geschoss Gerät','floor device','FL.D','');</v>
+        <v>INSERT INTO category VALUES (12,'Raum Gerät','room device','R.D','');</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -7339,22 +7450,22 @@
         <v>13</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E16" s="6"/>
-      <c r="F16" s="6">
+      <c r="F16" s="17">
         <f>category[[#This Row],[category_id]]</f>
         <v>13</v>
       </c>
       <c r="H16" s="5" t="str">
         <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A14),LEN(CELL("dateiname",A14))-FIND("]",CELL("dateiname",A14)))&amp;" VALUES"&amp;" ("&amp;category[[#This Row],[category_id]]&amp;",'"&amp;category[[#This Row],[category_name_german]]&amp;"','"&amp;category[[#This Row],[category_name_english]]&amp;"','"&amp;category[[#This Row],[abbreviation_category_budo]]&amp;"','"&amp;category[[#This Row],[comment]]&amp;"');"</f>
-        <v>INSERT INTO category VALUES (13,'Gebäudeteil Gerät','section device','SC.D','');</v>
+        <v>INSERT INTO category VALUES (13,'Geschoss Gerät','floor device','FL.D','');</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -7362,22 +7473,22 @@
         <v>14</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E17" s="6"/>
-      <c r="F17" s="6">
+      <c r="F17" s="17">
         <f>category[[#This Row],[category_id]]</f>
         <v>14</v>
       </c>
       <c r="H17" s="5" t="str">
         <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A15),LEN(CELL("dateiname",A15))-FIND("]",CELL("dateiname",A15)))&amp;" VALUES"&amp;" ("&amp;category[[#This Row],[category_id]]&amp;",'"&amp;category[[#This Row],[category_name_german]]&amp;"','"&amp;category[[#This Row],[category_name_english]]&amp;"','"&amp;category[[#This Row],[abbreviation_category_budo]]&amp;"','"&amp;category[[#This Row],[comment]]&amp;"');"</f>
-        <v>INSERT INTO category VALUES (14,'Zone','zone','Z','');</v>
+        <v>INSERT INTO category VALUES (14,'Gebäudeteil Gerät','section device','SC.D','');</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -7385,22 +7496,22 @@
         <v>15</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E18" s="6"/>
-      <c r="F18" s="6">
+      <c r="F18" s="17">
         <f>category[[#This Row],[category_id]]</f>
         <v>15</v>
       </c>
       <c r="H18" s="5" t="str">
         <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A16),LEN(CELL("dateiname",A16))-FIND("]",CELL("dateiname",A16)))&amp;" VALUES"&amp;" ("&amp;category[[#This Row],[category_id]]&amp;",'"&amp;category[[#This Row],[category_name_german]]&amp;"','"&amp;category[[#This Row],[category_name_english]]&amp;"','"&amp;category[[#This Row],[abbreviation_category_budo]]&amp;"','"&amp;category[[#This Row],[comment]]&amp;"');"</f>
-        <v>INSERT INTO category VALUES (15,'Fertigungsinsel/Fertigungslinie','production line','PL','');</v>
+        <v>INSERT INTO category VALUES (15,'Zone','zone','Z','');</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -7408,22 +7519,22 @@
         <v>16</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E19" s="6"/>
-      <c r="F19" s="6">
+      <c r="F19" s="17">
         <f>category[[#This Row],[category_id]]</f>
         <v>16</v>
       </c>
       <c r="H19" s="5" t="str">
         <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A17),LEN(CELL("dateiname",A17))-FIND("]",CELL("dateiname",A17)))&amp;" VALUES"&amp;" ("&amp;category[[#This Row],[category_id]]&amp;",'"&amp;category[[#This Row],[category_name_german]]&amp;"','"&amp;category[[#This Row],[category_name_english]]&amp;"','"&amp;category[[#This Row],[abbreviation_category_budo]]&amp;"','"&amp;category[[#This Row],[comment]]&amp;"');"</f>
-        <v>INSERT INTO category VALUES (16,'Informationsschwerpunkt','information focus','ISP','');</v>
+        <v>INSERT INTO category VALUES (16,'Fertigungsinsel/Fertigungslinie','production line','PL','');</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -7431,22 +7542,22 @@
         <v>17</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E20" s="6"/>
-      <c r="F20" s="6">
+      <c r="F20" s="17">
         <f>category[[#This Row],[category_id]]</f>
         <v>17</v>
       </c>
       <c r="H20" s="5" t="str">
         <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A18),LEN(CELL("dateiname",A18))-FIND("]",CELL("dateiname",A18)))&amp;" VALUES"&amp;" ("&amp;category[[#This Row],[category_id]]&amp;",'"&amp;category[[#This Row],[category_name_german]]&amp;"','"&amp;category[[#This Row],[category_name_english]]&amp;"','"&amp;category[[#This Row],[abbreviation_category_budo]]&amp;"','"&amp;category[[#This Row],[comment]]&amp;"');"</f>
-        <v>INSERT INTO category VALUES (17,'Wirtschaftseinheit/Kostengruppe','accounting entity','AE','');</v>
+        <v>INSERT INTO category VALUES (17,'Informationsschwerpunkt','information focus','ISP','');</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -7454,22 +7565,22 @@
         <v>18</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E21" s="6"/>
-      <c r="F21" s="6">
+      <c r="F21" s="17">
         <f>category[[#This Row],[category_id]]</f>
         <v>18</v>
       </c>
       <c r="H21" s="5" t="str">
         <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A19),LEN(CELL("dateiname",A19))-FIND("]",CELL("dateiname",A19)))&amp;" VALUES"&amp;" ("&amp;category[[#This Row],[category_id]]&amp;",'"&amp;category[[#This Row],[category_name_german]]&amp;"','"&amp;category[[#This Row],[category_name_english]]&amp;"','"&amp;category[[#This Row],[abbreviation_category_budo]]&amp;"','"&amp;category[[#This Row],[comment]]&amp;"');"</f>
-        <v>INSERT INTO category VALUES (18,'Land','country','CTRY','');</v>
+        <v>INSERT INTO category VALUES (18,'Wirtschaftseinheit/Kostengruppe','accounting entity','AE','');</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -7477,22 +7588,22 @@
         <v>19</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E22" s="6"/>
-      <c r="F22" s="7">
+      <c r="F22" s="16">
         <f>category[[#This Row],[category_id]]</f>
         <v>19</v>
       </c>
       <c r="H22" s="5" t="str">
         <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A20),LEN(CELL("dateiname",A20))-FIND("]",CELL("dateiname",A20)))&amp;" VALUES"&amp;" ("&amp;category[[#This Row],[category_id]]&amp;",'"&amp;category[[#This Row],[category_name_german]]&amp;"','"&amp;category[[#This Row],[category_name_english]]&amp;"','"&amp;category[[#This Row],[abbreviation_category_budo]]&amp;"','"&amp;category[[#This Row],[comment]]&amp;"');"</f>
-        <v>INSERT INTO category VALUES (19,'Typ der Netzwerkanbindung','network protocol','NP','');</v>
+        <v>INSERT INTO category VALUES (19,'Land','country','CTRY','');</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -7500,22 +7611,22 @@
         <v>20</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E23" s="6"/>
-      <c r="F23" s="7">
+      <c r="F23" s="16">
         <f>category[[#This Row],[category_id]]</f>
         <v>20</v>
       </c>
       <c r="H23" s="5" t="str">
         <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A21),LEN(CELL("dateiname",A21))-FIND("]",CELL("dateiname",A21)))&amp;" VALUES"&amp;" ("&amp;category[[#This Row],[category_id]]&amp;",'"&amp;category[[#This Row],[category_name_german]]&amp;"','"&amp;category[[#This Row],[category_name_english]]&amp;"','"&amp;category[[#This Row],[abbreviation_category_budo]]&amp;"','"&amp;category[[#This Row],[comment]]&amp;"');"</f>
-        <v>INSERT INTO category VALUES (20,'Netzwerknummer','network number','NET.N','');</v>
+        <v>INSERT INTO category VALUES (20,'Typ der Netzwerkanbindung','network protocol','NP','');</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -7523,22 +7634,22 @@
         <v>21</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E24" s="6"/>
-      <c r="F24" s="7">
+      <c r="F24" s="16">
         <f>category[[#This Row],[category_id]]</f>
         <v>21</v>
       </c>
       <c r="H24" s="5" t="str">
         <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A22),LEN(CELL("dateiname",A22))-FIND("]",CELL("dateiname",A22)))&amp;" VALUES"&amp;" ("&amp;category[[#This Row],[category_id]]&amp;",'"&amp;category[[#This Row],[category_name_german]]&amp;"','"&amp;category[[#This Row],[category_name_english]]&amp;"','"&amp;category[[#This Row],[abbreviation_category_budo]]&amp;"','"&amp;category[[#This Row],[comment]]&amp;"');"</f>
-        <v>INSERT INTO category VALUES (21,'Raum Schaltschrank','room control cabinet','R.CC','');</v>
+        <v>INSERT INTO category VALUES (21,'Netzwerknummer','network number','NET.N','');</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -7546,22 +7657,22 @@
         <v>22</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E25" s="6"/>
-      <c r="F25" s="7">
+      <c r="F25" s="16">
         <f>category[[#This Row],[category_id]]</f>
         <v>22</v>
       </c>
       <c r="H25" s="5" t="str">
         <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A23),LEN(CELL("dateiname",A23))-FIND("]",CELL("dateiname",A23)))&amp;" VALUES"&amp;" ("&amp;category[[#This Row],[category_id]]&amp;",'"&amp;category[[#This Row],[category_name_german]]&amp;"','"&amp;category[[#This Row],[category_name_english]]&amp;"','"&amp;category[[#This Row],[abbreviation_category_budo]]&amp;"','"&amp;category[[#This Row],[comment]]&amp;"');"</f>
-        <v>INSERT INTO category VALUES (22,'Geschoss Schaltschrank','floor control cabinet','FL.CC','');</v>
+        <v>INSERT INTO category VALUES (22,'Raum Schaltschrank','room control cabinet','R.CC','');</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -7569,22 +7680,22 @@
         <v>23</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E26" s="6"/>
-      <c r="F26" s="7">
+      <c r="F26" s="16">
         <f>category[[#This Row],[category_id]]</f>
         <v>23</v>
       </c>
       <c r="H26" s="5" t="str">
         <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A24),LEN(CELL("dateiname",A24))-FIND("]",CELL("dateiname",A24)))&amp;" VALUES"&amp;" ("&amp;category[[#This Row],[category_id]]&amp;",'"&amp;category[[#This Row],[category_name_german]]&amp;"','"&amp;category[[#This Row],[category_name_english]]&amp;"','"&amp;category[[#This Row],[abbreviation_category_budo]]&amp;"','"&amp;category[[#This Row],[comment]]&amp;"');"</f>
-        <v>INSERT INTO category VALUES (23,'Gebäudeteil Schaltschrank','section control cabinet','SC.CC','');</v>
+        <v>INSERT INTO category VALUES (23,'Geschoss Schaltschrank','floor control cabinet','FL.CC','');</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -7592,22 +7703,22 @@
         <v>24</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E27" s="6"/>
-      <c r="F27" s="7">
+      <c r="F27" s="16">
         <f>category[[#This Row],[category_id]]</f>
         <v>24</v>
       </c>
       <c r="H27" s="5" t="str">
         <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A25),LEN(CELL("dateiname",A25))-FIND("]",CELL("dateiname",A25)))&amp;" VALUES"&amp;" ("&amp;category[[#This Row],[category_id]]&amp;",'"&amp;category[[#This Row],[category_name_german]]&amp;"','"&amp;category[[#This Row],[category_name_english]]&amp;"','"&amp;category[[#This Row],[abbreviation_category_budo]]&amp;"','"&amp;category[[#This Row],[comment]]&amp;"');"</f>
-        <v>INSERT INTO category VALUES (24,'Dokumentenart/Planart','document type','DT','');</v>
+        <v>INSERT INTO category VALUES (24,'Gebäudeteil Schaltschrank','section control cabinet','SC.CC','');</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -7615,22 +7726,22 @@
         <v>25</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E28" s="6"/>
-      <c r="F28" s="7">
+      <c r="F28" s="16">
         <f>category[[#This Row],[category_id]]</f>
         <v>25</v>
       </c>
       <c r="H28" s="5" t="str">
         <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A26),LEN(CELL("dateiname",A26))-FIND("]",CELL("dateiname",A26)))&amp;" VALUES"&amp;" ("&amp;category[[#This Row],[category_id]]&amp;",'"&amp;category[[#This Row],[category_name_german]]&amp;"','"&amp;category[[#This Row],[category_name_english]]&amp;"','"&amp;category[[#This Row],[abbreviation_category_budo]]&amp;"','"&amp;category[[#This Row],[comment]]&amp;"');"</f>
-        <v>INSERT INTO category VALUES (25,'Unternehmen','company','CMPY','');</v>
+        <v>INSERT INTO category VALUES (25,'Dokumentenart/Planart','document type','DT','');</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -7638,22 +7749,22 @@
         <v>26</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E29" s="6"/>
-      <c r="F29" s="7">
+      <c r="F29" s="16">
         <f>category[[#This Row],[category_id]]</f>
         <v>26</v>
       </c>
       <c r="H29" s="5" t="str">
         <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A27),LEN(CELL("dateiname",A27))-FIND("]",CELL("dateiname",A27)))&amp;" VALUES"&amp;" ("&amp;category[[#This Row],[category_id]]&amp;",'"&amp;category[[#This Row],[category_name_german]]&amp;"','"&amp;category[[#This Row],[category_name_english]]&amp;"','"&amp;category[[#This Row],[abbreviation_category_budo]]&amp;"','"&amp;category[[#This Row],[comment]]&amp;"');"</f>
-        <v>INSERT INTO category VALUES (26,'Fabrikat/Hersteller','manufacturer','MAN','');</v>
+        <v>INSERT INTO category VALUES (26,'Unternehmen','company','CMPY','');</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -7661,22 +7772,22 @@
         <v>27</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E30" s="6"/>
-      <c r="F30" s="7">
+      <c r="F30" s="16">
         <f>category[[#This Row],[category_id]]</f>
         <v>27</v>
       </c>
       <c r="H30" s="5" t="str">
         <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A28),LEN(CELL("dateiname",A28))-FIND("]",CELL("dateiname",A28)))&amp;" VALUES"&amp;" ("&amp;category[[#This Row],[category_id]]&amp;",'"&amp;category[[#This Row],[category_name_german]]&amp;"','"&amp;category[[#This Row],[category_name_english]]&amp;"','"&amp;category[[#This Row],[abbreviation_category_budo]]&amp;"','"&amp;category[[#This Row],[comment]]&amp;"');"</f>
-        <v>INSERT INTO category VALUES (27,'Servername','server name','SN','');</v>
+        <v>INSERT INTO category VALUES (27,'Fabrikat/Hersteller','manufacturer','MAN','');</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -7684,22 +7795,22 @@
         <v>28</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E31" s="6"/>
-      <c r="F31" s="7">
+      <c r="F31" s="16">
         <f>category[[#This Row],[category_id]]</f>
         <v>28</v>
       </c>
       <c r="H31" s="5" t="str">
         <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A29),LEN(CELL("dateiname",A29))-FIND("]",CELL("dateiname",A29)))&amp;" VALUES"&amp;" ("&amp;category[[#This Row],[category_id]]&amp;",'"&amp;category[[#This Row],[category_name_german]]&amp;"','"&amp;category[[#This Row],[category_name_english]]&amp;"','"&amp;category[[#This Row],[abbreviation_category_budo]]&amp;"','"&amp;category[[#This Row],[comment]]&amp;"');"</f>
-        <v>INSERT INTO category VALUES (28,'Steuerungsgruppe','control group','CG','');</v>
+        <v>INSERT INTO category VALUES (28,'Servername','server name','SN','');</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -7707,22 +7818,22 @@
         <v>29</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E32" s="6"/>
-      <c r="F32" s="7">
+      <c r="F32" s="16">
         <f>category[[#This Row],[category_id]]</f>
         <v>29</v>
       </c>
       <c r="H32" s="5" t="str">
         <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A30),LEN(CELL("dateiname",A30))-FIND("]",CELL("dateiname",A30)))&amp;" VALUES"&amp;" ("&amp;category[[#This Row],[category_id]]&amp;",'"&amp;category[[#This Row],[category_name_german]]&amp;"','"&amp;category[[#This Row],[category_name_english]]&amp;"','"&amp;category[[#This Row],[abbreviation_category_budo]]&amp;"','"&amp;category[[#This Row],[comment]]&amp;"');"</f>
-        <v>INSERT INTO category VALUES (29,'Größe','size','SZ','');</v>
+        <v>INSERT INTO category VALUES (29,'Steuerungsgruppe','control group','CG','');</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -7730,22 +7841,22 @@
         <v>30</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E33" s="6"/>
-      <c r="F33" s="7">
+      <c r="F33" s="16">
         <f>category[[#This Row],[category_id]]</f>
         <v>30</v>
       </c>
       <c r="H33" s="5" t="str">
         <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A31),LEN(CELL("dateiname",A31))-FIND("]",CELL("dateiname",A31)))&amp;" VALUES"&amp;" ("&amp;category[[#This Row],[category_id]]&amp;",'"&amp;category[[#This Row],[category_name_german]]&amp;"','"&amp;category[[#This Row],[category_name_english]]&amp;"','"&amp;category[[#This Row],[abbreviation_category_budo]]&amp;"','"&amp;category[[#This Row],[comment]]&amp;"');"</f>
-        <v>INSERT INTO category VALUES (30,'Zählernummer','counter number','CN.N','');</v>
+        <v>INSERT INTO category VALUES (30,'Größe','size','SZ','');</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -7753,22 +7864,22 @@
         <v>31</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E34" s="6"/>
-      <c r="F34" s="7">
+      <c r="F34" s="16">
         <f>category[[#This Row],[category_id]]</f>
         <v>31</v>
       </c>
       <c r="H34" s="5" t="str">
         <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A32),LEN(CELL("dateiname",A32))-FIND("]",CELL("dateiname",A32)))&amp;" VALUES"&amp;" ("&amp;category[[#This Row],[category_id]]&amp;",'"&amp;category[[#This Row],[category_name_german]]&amp;"','"&amp;category[[#This Row],[category_name_english]]&amp;"','"&amp;category[[#This Row],[abbreviation_category_budo]]&amp;"','"&amp;category[[#This Row],[comment]]&amp;"');"</f>
-        <v>INSERT INTO category VALUES (31,'Achse','axis','AX','');</v>
+        <v>INSERT INTO category VALUES (31,'Zählernummer','counter number','CN.N','');</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -7776,22 +7887,22 @@
         <v>32</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E35" s="6"/>
-      <c r="F35" s="7">
+      <c r="F35" s="16">
         <f>category[[#This Row],[category_id]]</f>
         <v>32</v>
       </c>
       <c r="H35" s="5" t="str">
         <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A33),LEN(CELL("dateiname",A33))-FIND("]",CELL("dateiname",A33)))&amp;" VALUES"&amp;" ("&amp;category[[#This Row],[category_id]]&amp;",'"&amp;category[[#This Row],[category_name_german]]&amp;"','"&amp;category[[#This Row],[category_name_english]]&amp;"','"&amp;category[[#This Row],[abbreviation_category_budo]]&amp;"','"&amp;category[[#This Row],[comment]]&amp;"');"</f>
-        <v>INSERT INTO category VALUES (32,'Straße','street','STR','');</v>
+        <v>INSERT INTO category VALUES (32,'Achse','axis','AX','');</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -7799,22 +7910,22 @@
         <v>33</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E36" s="6"/>
-      <c r="F36" s="7">
+      <c r="F36" s="16">
         <f>category[[#This Row],[category_id]]</f>
         <v>33</v>
       </c>
       <c r="H36" s="5" t="str">
         <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A34),LEN(CELL("dateiname",A34))-FIND("]",CELL("dateiname",A34)))&amp;" VALUES"&amp;" ("&amp;category[[#This Row],[category_id]]&amp;",'"&amp;category[[#This Row],[category_name_german]]&amp;"','"&amp;category[[#This Row],[category_name_english]]&amp;"','"&amp;category[[#This Row],[abbreviation_category_budo]]&amp;"','"&amp;category[[#This Row],[comment]]&amp;"');"</f>
-        <v>INSERT INTO category VALUES (33,'Hausnummer','street number','STR.N','');</v>
+        <v>INSERT INTO category VALUES (33,'Straße','street','STR','');</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -7822,22 +7933,22 @@
         <v>34</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E37" s="6"/>
-      <c r="F37" s="7">
+      <c r="F37" s="16">
         <f>category[[#This Row],[category_id]]</f>
         <v>34</v>
       </c>
       <c r="H37" s="5" t="str">
         <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A35),LEN(CELL("dateiname",A35))-FIND("]",CELL("dateiname",A35)))&amp;" VALUES"&amp;" ("&amp;category[[#This Row],[category_id]]&amp;",'"&amp;category[[#This Row],[category_name_german]]&amp;"','"&amp;category[[#This Row],[category_name_english]]&amp;"','"&amp;category[[#This Row],[abbreviation_category_budo]]&amp;"','"&amp;category[[#This Row],[comment]]&amp;"');"</f>
-        <v>INSERT INTO category VALUES (34,'Einheit','unit','U','');</v>
+        <v>INSERT INTO category VALUES (34,'Hausnummer','street number','STR.N','');</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -7845,22 +7956,22 @@
         <v>35</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E38" s="6"/>
-      <c r="F38" s="7">
+      <c r="F38" s="16">
         <f>category[[#This Row],[category_id]]</f>
         <v>35</v>
       </c>
       <c r="H38" s="5" t="str">
         <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A36),LEN(CELL("dateiname",A36))-FIND("]",CELL("dateiname",A36)))&amp;" VALUES"&amp;" ("&amp;category[[#This Row],[category_id]]&amp;",'"&amp;category[[#This Row],[category_name_german]]&amp;"','"&amp;category[[#This Row],[category_name_english]]&amp;"','"&amp;category[[#This Row],[abbreviation_category_budo]]&amp;"','"&amp;category[[#This Row],[comment]]&amp;"');"</f>
-        <v>INSERT INTO category VALUES (35,'Versorgter Raum','supplied room','R.SUP','');</v>
+        <v>INSERT INTO category VALUES (35,'Einheit','unit','U','');</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -7868,22 +7979,22 @@
         <v>36</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E39" s="6"/>
-      <c r="F39" s="7">
+      <c r="F39" s="16">
         <f>category[[#This Row],[category_id]]</f>
         <v>36</v>
       </c>
       <c r="H39" s="5" t="str">
         <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A37),LEN(CELL("dateiname",A37))-FIND("]",CELL("dateiname",A37)))&amp;" VALUES"&amp;" ("&amp;category[[#This Row],[category_id]]&amp;",'"&amp;category[[#This Row],[category_name_german]]&amp;"','"&amp;category[[#This Row],[category_name_english]]&amp;"','"&amp;category[[#This Row],[abbreviation_category_budo]]&amp;"','"&amp;category[[#This Row],[comment]]&amp;"');"</f>
-        <v>INSERT INTO category VALUES (36,'Versorgtes Geschoss','supplied floor','FL.SUP','');</v>
+        <v>INSERT INTO category VALUES (36,'Versorgter Raum','supplied room','R.SUP','');</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -7891,22 +8002,22 @@
         <v>37</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E40" s="6"/>
-      <c r="F40" s="7">
+      <c r="F40" s="16">
         <f>category[[#This Row],[category_id]]</f>
         <v>37</v>
       </c>
       <c r="H40" s="5" t="str">
         <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A38),LEN(CELL("dateiname",A38))-FIND("]",CELL("dateiname",A38)))&amp;" VALUES"&amp;" ("&amp;category[[#This Row],[category_id]]&amp;",'"&amp;category[[#This Row],[category_name_german]]&amp;"','"&amp;category[[#This Row],[category_name_english]]&amp;"','"&amp;category[[#This Row],[abbreviation_category_budo]]&amp;"','"&amp;category[[#This Row],[comment]]&amp;"');"</f>
-        <v>INSERT INTO category VALUES (37,'Versorgte Zone','supplied zone','Z.SUP','');</v>
+        <v>INSERT INTO category VALUES (37,'Versorgtes Geschoss','supplied floor','FL.SUP','');</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -7914,22 +8025,22 @@
         <v>38</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E41" s="6"/>
-      <c r="F41" s="7">
+      <c r="F41" s="16">
         <f>category[[#This Row],[category_id]]</f>
         <v>38</v>
       </c>
       <c r="H41" s="5" t="str">
         <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A39),LEN(CELL("dateiname",A39))-FIND("]",CELL("dateiname",A39)))&amp;" VALUES"&amp;" ("&amp;category[[#This Row],[category_id]]&amp;",'"&amp;category[[#This Row],[category_name_german]]&amp;"','"&amp;category[[#This Row],[category_name_english]]&amp;"','"&amp;category[[#This Row],[abbreviation_category_budo]]&amp;"','"&amp;category[[#This Row],[comment]]&amp;"');"</f>
-        <v>INSERT INTO category VALUES (38,'Versorgter Gebäudeteil','supplied section','SC.SUP','');</v>
+        <v>INSERT INTO category VALUES (38,'Versorgte Zone','supplied zone','Z.SUP','');</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -7937,38 +8048,64 @@
         <v>39</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E42" s="6"/>
-      <c r="F42" s="7">
+      <c r="F42" s="16">
         <f>category[[#This Row],[category_id]]</f>
         <v>39</v>
       </c>
-      <c r="H42" s="11" t="str">
+      <c r="H42" s="4" t="str">
         <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A40),LEN(CELL("dateiname",A40))-FIND("]",CELL("dateiname",A40)))&amp;" VALUES"&amp;" ("&amp;category[[#This Row],[category_id]]&amp;",'"&amp;category[[#This Row],[category_name_german]]&amp;"','"&amp;category[[#This Row],[category_name_english]]&amp;"','"&amp;category[[#This Row],[abbreviation_category_budo]]&amp;"','"&amp;category[[#This Row],[comment]]&amp;"');"</f>
-        <v>INSERT INTO category VALUES (39,'Versorgtes Gebäude','supplied building','BL.SUP','');</v>
+        <v>INSERT INTO category VALUES (39,'Versorgter Gebäudeteil','supplied section','SC.SUP','');</v>
       </c>
     </row>
     <row r="43" spans="1:8">
-      <c r="C43" s="6"/>
+      <c r="A43" s="6">
+        <v>40</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>167</v>
+      </c>
       <c r="E43" s="6"/>
-      <c r="F43" s="7"/>
+      <c r="F43" s="16">
+        <f>category[[#This Row],[category_id]]</f>
+        <v>40</v>
+      </c>
+      <c r="H43" s="4" t="str">
+        <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A41),LEN(CELL("dateiname",A41))-FIND("]",CELL("dateiname",A41)))&amp;" VALUES"&amp;" ("&amp;category[[#This Row],[category_id]]&amp;",'"&amp;category[[#This Row],[category_name_german]]&amp;"','"&amp;category[[#This Row],[category_name_english]]&amp;"','"&amp;category[[#This Row],[abbreviation_category_budo]]&amp;"','"&amp;category[[#This Row],[comment]]&amp;"');"</f>
+        <v>INSERT INTO category VALUES (40,'Versorgtes Gebäude','supplied building','BL.SUP','');</v>
+      </c>
     </row>
     <row r="44" spans="1:8">
+      <c r="A44" s="6"/>
+      <c r="B44" s="6"/>
       <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
       <c r="E44" s="6"/>
-      <c r="F44" s="7"/>
+      <c r="F44" s="17"/>
+      <c r="H44" s="4"/>
     </row>
     <row r="45" spans="1:8">
+      <c r="A45" s="6"/>
+      <c r="B45" s="6"/>
       <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
       <c r="E45" s="6"/>
-      <c r="F45" s="7"/>
+      <c r="F45" s="16"/>
+      <c r="H45" s="4"/>
     </row>
     <row r="46" spans="1:8">
       <c r="C46" s="6"/>
@@ -8020,15 +8157,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Tabelle3"/>
   <dimension ref="A1:J135"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4:I115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="24.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
@@ -8040,13 +8179,13 @@
   <sheetData>
     <row r="1" spans="1:10" s="5" customFormat="1">
       <c r="E1" s="5" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="I1" s="5" t="str">
         <f ca="1">"CREATE TABLE "&amp;RIGHT(CELL("dateiname",A1),LEN(CELL("dateiname",A1))-FIND("]",CELL("dateiname",A1)))&amp;"("&amp;Tabelle8[[#Headers],[category_assignment_id]]&amp;" "&amp;E1&amp;","&amp;Tabelle8[[#Headers],[category_id]]&amp;" "&amp;F1&amp;","&amp;Tabelle8[[#Headers],[abbreviation_id]]&amp;" "&amp;G1&amp;", PRIMARY KEY("&amp;Tabelle8[[#Headers],[category_assignment_id]]&amp;"))"</f>
@@ -8059,22 +8198,22 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="5" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B2" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C2" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="E2" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="F2" t="s">
         <v>71</v>
       </c>
       <c r="G2" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:10" hidden="1">
@@ -8106,7 +8245,7 @@
         <v>169</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="E4" s="5">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
@@ -8268,7 +8407,7 @@
         <v>169</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="E10" s="5">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
@@ -8511,7 +8650,7 @@
         <v>169</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="E19" s="5">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
@@ -8538,7 +8677,7 @@
         <v>169</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="E20" s="5">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
@@ -8862,7 +9001,7 @@
         <v>169</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="E32">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
@@ -8889,7 +9028,7 @@
         <v>169</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="E33">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
@@ -8916,7 +9055,7 @@
         <v>170</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="E34">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
@@ -8943,7 +9082,7 @@
         <v>170</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="E35">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
@@ -8997,7 +9136,7 @@
         <v>170</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="E37">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
@@ -9024,7 +9163,7 @@
         <v>170</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="E38">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
@@ -9051,7 +9190,7 @@
         <v>170</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="E39">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
@@ -9078,7 +9217,7 @@
         <v>170</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="E40">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
@@ -9105,7 +9244,7 @@
         <v>170</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="E41">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
@@ -9159,7 +9298,7 @@
         <v>170</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="E43">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
@@ -9186,7 +9325,7 @@
         <v>170</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="E44">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
@@ -9213,7 +9352,7 @@
         <v>170</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="E45">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
@@ -9240,7 +9379,7 @@
         <v>170</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="E46">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
@@ -9267,7 +9406,7 @@
         <v>170</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="E47">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
@@ -9294,7 +9433,7 @@
         <v>170</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="E48">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
@@ -9321,7 +9460,7 @@
         <v>170</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="E49">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
@@ -9348,7 +9487,7 @@
         <v>170</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="E50">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
@@ -9402,7 +9541,7 @@
         <v>170</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="E52">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
@@ -9429,7 +9568,7 @@
         <v>170</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="E53">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
@@ -9456,7 +9595,7 @@
         <v>170</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="E54">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
@@ -9483,7 +9622,7 @@
         <v>170</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="E55">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
@@ -9537,7 +9676,7 @@
         <v>170</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="E57">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
@@ -9564,7 +9703,7 @@
         <v>170</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="E58">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
@@ -9618,7 +9757,7 @@
         <v>170</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="E60">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
@@ -9645,7 +9784,7 @@
         <v>170</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="E61">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
@@ -9672,7 +9811,7 @@
         <v>170</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="E62">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
@@ -9699,7 +9838,7 @@
         <v>170</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="E63">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
@@ -9726,7 +9865,7 @@
         <v>170</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="E64">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
@@ -9780,7 +9919,7 @@
         <v>170</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="E66">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
@@ -9807,7 +9946,7 @@
         <v>172</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>227</v>
+        <v>330</v>
       </c>
       <c r="E67">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
@@ -9819,11 +9958,11 @@
       </c>
       <c r="G67" s="10">
         <f>VLOOKUP(category_assignment[[#This Row],[description_german]],abbreviation[[description_german]:[abbreviation_id(for SVERWEIS)]],4,FALSE)</f>
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="I67" s="5" t="str">
         <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A65),LEN(CELL("dateiname",A65))-FIND("]",CELL("dateiname",A65)))&amp;" VALUES"&amp;" ("&amp;Tabelle8[[#This Row],[category_assignment_id]]&amp;","&amp;Tabelle8[[#This Row],[category_id]]&amp;","&amp;Tabelle8[[#This Row],[abbreviation_id]]&amp;");"</f>
-        <v>INSERT INTO category_assignment VALUES (64,3,46);</v>
+        <v>INSERT INTO category_assignment VALUES (64,3,102);</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -9834,7 +9973,7 @@
         <v>172</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>229</v>
+        <v>332</v>
       </c>
       <c r="E68">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
@@ -9846,11 +9985,11 @@
       </c>
       <c r="G68" s="10">
         <f>VLOOKUP(category_assignment[[#This Row],[description_german]],abbreviation[[description_german]:[abbreviation_id(for SVERWEIS)]],4,FALSE)</f>
-        <v>47</v>
+        <v>103</v>
       </c>
       <c r="I68" s="5" t="str">
         <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A66),LEN(CELL("dateiname",A66))-FIND("]",CELL("dateiname",A66)))&amp;" VALUES"&amp;" ("&amp;Tabelle8[[#This Row],[category_assignment_id]]&amp;","&amp;Tabelle8[[#This Row],[category_id]]&amp;","&amp;Tabelle8[[#This Row],[abbreviation_id]]&amp;");"</f>
-        <v>INSERT INTO category_assignment VALUES (65,3,47);</v>
+        <v>INSERT INTO category_assignment VALUES (65,3,103);</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -9861,7 +10000,7 @@
         <v>172</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>0</v>
+        <v>208</v>
       </c>
       <c r="E69">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
@@ -9873,11 +10012,11 @@
       </c>
       <c r="G69" s="10">
         <f>VLOOKUP(category_assignment[[#This Row],[description_german]],abbreviation[[description_german]:[abbreviation_id(for SVERWEIS)]],4,FALSE)</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I69" s="5" t="str">
         <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A67),LEN(CELL("dateiname",A67))-FIND("]",CELL("dateiname",A67)))&amp;" VALUES"&amp;" ("&amp;Tabelle8[[#This Row],[category_assignment_id]]&amp;","&amp;Tabelle8[[#This Row],[category_id]]&amp;","&amp;Tabelle8[[#This Row],[abbreviation_id]]&amp;");"</f>
-        <v>INSERT INTO category_assignment VALUES (66,3,2);</v>
+        <v>INSERT INTO category_assignment VALUES (66,3,7);</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -9888,7 +10027,7 @@
         <v>172</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>231</v>
+        <v>334</v>
       </c>
       <c r="E70">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
@@ -9900,11 +10039,11 @@
       </c>
       <c r="G70" s="10">
         <f>VLOOKUP(category_assignment[[#This Row],[description_german]],abbreviation[[description_german]:[abbreviation_id(for SVERWEIS)]],4,FALSE)</f>
-        <v>48</v>
+        <v>104</v>
       </c>
       <c r="I70" s="5" t="str">
         <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A68),LEN(CELL("dateiname",A68))-FIND("]",CELL("dateiname",A68)))&amp;" VALUES"&amp;" ("&amp;Tabelle8[[#This Row],[category_assignment_id]]&amp;","&amp;Tabelle8[[#This Row],[category_id]]&amp;","&amp;Tabelle8[[#This Row],[abbreviation_id]]&amp;");"</f>
-        <v>INSERT INTO category_assignment VALUES (67,3,48);</v>
+        <v>INSERT INTO category_assignment VALUES (67,3,104);</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -9915,7 +10054,7 @@
         <v>172</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>233</v>
+        <v>336</v>
       </c>
       <c r="E71">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
@@ -9927,11 +10066,11 @@
       </c>
       <c r="G71" s="10">
         <f>VLOOKUP(category_assignment[[#This Row],[description_german]],abbreviation[[description_german]:[abbreviation_id(for SVERWEIS)]],4,FALSE)</f>
-        <v>49</v>
+        <v>105</v>
       </c>
       <c r="I71" s="5" t="str">
         <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A69),LEN(CELL("dateiname",A69))-FIND("]",CELL("dateiname",A69)))&amp;" VALUES"&amp;" ("&amp;Tabelle8[[#This Row],[category_assignment_id]]&amp;","&amp;Tabelle8[[#This Row],[category_id]]&amp;","&amp;Tabelle8[[#This Row],[abbreviation_id]]&amp;");"</f>
-        <v>INSERT INTO category_assignment VALUES (68,3,49);</v>
+        <v>INSERT INTO category_assignment VALUES (68,3,105);</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -9942,7 +10081,7 @@
         <v>172</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>235</v>
+        <v>22</v>
       </c>
       <c r="E72">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
@@ -9954,11 +10093,11 @@
       </c>
       <c r="G72" s="10">
         <f>VLOOKUP(category_assignment[[#This Row],[description_german]],abbreviation[[description_german]:[abbreviation_id(for SVERWEIS)]],4,FALSE)</f>
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="I72" s="5" t="str">
         <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A70),LEN(CELL("dateiname",A70))-FIND("]",CELL("dateiname",A70)))&amp;" VALUES"&amp;" ("&amp;Tabelle8[[#This Row],[category_assignment_id]]&amp;","&amp;Tabelle8[[#This Row],[category_id]]&amp;","&amp;Tabelle8[[#This Row],[abbreviation_id]]&amp;");"</f>
-        <v>INSERT INTO category_assignment VALUES (69,3,50);</v>
+        <v>INSERT INTO category_assignment VALUES (69,3,14);</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -9969,7 +10108,7 @@
         <v>172</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>237</v>
+        <v>338</v>
       </c>
       <c r="E73">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
@@ -9981,11 +10120,11 @@
       </c>
       <c r="G73" s="10">
         <f>VLOOKUP(category_assignment[[#This Row],[description_german]],abbreviation[[description_german]:[abbreviation_id(for SVERWEIS)]],4,FALSE)</f>
-        <v>51</v>
+        <v>106</v>
       </c>
       <c r="I73" s="5" t="str">
         <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A71),LEN(CELL("dateiname",A71))-FIND("]",CELL("dateiname",A71)))&amp;" VALUES"&amp;" ("&amp;Tabelle8[[#This Row],[category_assignment_id]]&amp;","&amp;Tabelle8[[#This Row],[category_id]]&amp;","&amp;Tabelle8[[#This Row],[abbreviation_id]]&amp;");"</f>
-        <v>INSERT INTO category_assignment VALUES (70,3,51);</v>
+        <v>INSERT INTO category_assignment VALUES (70,3,106);</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -9996,7 +10135,7 @@
         <v>172</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>239</v>
+        <v>28</v>
       </c>
       <c r="E74">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
@@ -10008,11 +10147,11 @@
       </c>
       <c r="G74" s="10">
         <f>VLOOKUP(category_assignment[[#This Row],[description_german]],abbreviation[[description_german]:[abbreviation_id(for SVERWEIS)]],4,FALSE)</f>
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="I74" s="5" t="str">
         <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A72),LEN(CELL("dateiname",A72))-FIND("]",CELL("dateiname",A72)))&amp;" VALUES"&amp;" ("&amp;Tabelle8[[#This Row],[category_assignment_id]]&amp;","&amp;Tabelle8[[#This Row],[category_id]]&amp;","&amp;Tabelle8[[#This Row],[abbreviation_id]]&amp;");"</f>
-        <v>INSERT INTO category_assignment VALUES (71,3,52);</v>
+        <v>INSERT INTO category_assignment VALUES (71,3,19);</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -10023,7 +10162,7 @@
         <v>172</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>10</v>
+        <v>260</v>
       </c>
       <c r="E75">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
@@ -10035,11 +10174,11 @@
       </c>
       <c r="G75" s="10">
         <f>VLOOKUP(category_assignment[[#This Row],[description_german]],abbreviation[[description_german]:[abbreviation_id(for SVERWEIS)]],4,FALSE)</f>
-        <v>8</v>
+        <v>66</v>
       </c>
       <c r="I75" s="5" t="str">
         <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A73),LEN(CELL("dateiname",A73))-FIND("]",CELL("dateiname",A73)))&amp;" VALUES"&amp;" ("&amp;Tabelle8[[#This Row],[category_assignment_id]]&amp;","&amp;Tabelle8[[#This Row],[category_id]]&amp;","&amp;Tabelle8[[#This Row],[abbreviation_id]]&amp;");"</f>
-        <v>INSERT INTO category_assignment VALUES (72,3,8);</v>
+        <v>INSERT INTO category_assignment VALUES (72,3,66);</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -10050,7 +10189,7 @@
         <v>172</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>241</v>
+        <v>42</v>
       </c>
       <c r="E76">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
@@ -10062,22 +10201,22 @@
       </c>
       <c r="G76" s="10">
         <f>VLOOKUP(category_assignment[[#This Row],[description_german]],abbreviation[[description_german]:[abbreviation_id(for SVERWEIS)]],4,FALSE)</f>
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="I76" s="5" t="str">
         <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A74),LEN(CELL("dateiname",A74))-FIND("]",CELL("dateiname",A74)))&amp;" VALUES"&amp;" ("&amp;Tabelle8[[#This Row],[category_assignment_id]]&amp;","&amp;Tabelle8[[#This Row],[category_id]]&amp;","&amp;Tabelle8[[#This Row],[abbreviation_id]]&amp;");"</f>
-        <v>INSERT INTO category_assignment VALUES (73,3,53);</v>
+        <v>INSERT INTO category_assignment VALUES (73,3,26);</v>
       </c>
     </row>
     <row r="77" spans="1:9">
       <c r="A77" s="5">
         <v>74</v>
       </c>
-      <c r="B77" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>243</v>
+      <c r="B77" s="14" t="s">
+        <v>541</v>
+      </c>
+      <c r="C77" s="14" t="s">
+        <v>330</v>
       </c>
       <c r="E77">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
@@ -10085,26 +10224,26 @@
       </c>
       <c r="F77" s="10">
         <f>VLOOKUP(category_assignment[[#This Row],[category]],category[[category_name_german]:[category_id(for SVERWEIS)]],5,FALSE)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G77" s="10">
         <f>VLOOKUP(category_assignment[[#This Row],[description_german]],abbreviation[[description_german]:[abbreviation_id(for SVERWEIS)]],4,FALSE)</f>
-        <v>54</v>
+        <v>102</v>
       </c>
       <c r="I77" s="5" t="str">
         <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A75),LEN(CELL("dateiname",A75))-FIND("]",CELL("dateiname",A75)))&amp;" VALUES"&amp;" ("&amp;Tabelle8[[#This Row],[category_assignment_id]]&amp;","&amp;Tabelle8[[#This Row],[category_id]]&amp;","&amp;Tabelle8[[#This Row],[abbreviation_id]]&amp;");"</f>
-        <v>INSERT INTO category_assignment VALUES (74,3,54);</v>
+        <v>INSERT INTO category_assignment VALUES (74,4,102);</v>
       </c>
     </row>
     <row r="78" spans="1:9">
       <c r="A78" s="5">
         <v>75</v>
       </c>
-      <c r="B78" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>245</v>
+      <c r="B78" s="14" t="s">
+        <v>541</v>
+      </c>
+      <c r="C78" s="14" t="s">
+        <v>369</v>
       </c>
       <c r="E78">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
@@ -10112,26 +10251,26 @@
       </c>
       <c r="F78" s="10">
         <f>VLOOKUP(category_assignment[[#This Row],[category]],category[[category_name_german]:[category_id(for SVERWEIS)]],5,FALSE)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G78" s="10">
         <f>VLOOKUP(category_assignment[[#This Row],[description_german]],abbreviation[[description_german]:[abbreviation_id(for SVERWEIS)]],4,FALSE)</f>
-        <v>55</v>
+        <v>123</v>
       </c>
       <c r="I78" s="5" t="str">
         <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A76),LEN(CELL("dateiname",A76))-FIND("]",CELL("dateiname",A76)))&amp;" VALUES"&amp;" ("&amp;Tabelle8[[#This Row],[category_assignment_id]]&amp;","&amp;Tabelle8[[#This Row],[category_id]]&amp;","&amp;Tabelle8[[#This Row],[abbreviation_id]]&amp;");"</f>
-        <v>INSERT INTO category_assignment VALUES (75,3,55);</v>
+        <v>INSERT INTO category_assignment VALUES (75,4,123);</v>
       </c>
     </row>
     <row r="79" spans="1:9">
       <c r="A79" s="5">
         <v>76</v>
       </c>
-      <c r="B79" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>247</v>
+      <c r="B79" s="14" t="s">
+        <v>541</v>
+      </c>
+      <c r="C79" s="14" t="s">
+        <v>371</v>
       </c>
       <c r="E79">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
@@ -10139,26 +10278,26 @@
       </c>
       <c r="F79" s="10">
         <f>VLOOKUP(category_assignment[[#This Row],[category]],category[[category_name_german]:[category_id(for SVERWEIS)]],5,FALSE)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G79" s="10">
         <f>VLOOKUP(category_assignment[[#This Row],[description_german]],abbreviation[[description_german]:[abbreviation_id(for SVERWEIS)]],4,FALSE)</f>
-        <v>56</v>
+        <v>124</v>
       </c>
       <c r="I79" s="5" t="str">
         <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A77),LEN(CELL("dateiname",A77))-FIND("]",CELL("dateiname",A77)))&amp;" VALUES"&amp;" ("&amp;Tabelle8[[#This Row],[category_assignment_id]]&amp;","&amp;Tabelle8[[#This Row],[category_id]]&amp;","&amp;Tabelle8[[#This Row],[abbreviation_id]]&amp;");"</f>
-        <v>INSERT INTO category_assignment VALUES (76,3,56);</v>
+        <v>INSERT INTO category_assignment VALUES (76,4,124);</v>
       </c>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" s="5">
         <v>77</v>
       </c>
-      <c r="B80" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="C80" s="5" t="s">
-        <v>248</v>
+      <c r="B80" s="14" t="s">
+        <v>541</v>
+      </c>
+      <c r="C80" s="14" t="s">
+        <v>373</v>
       </c>
       <c r="E80">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
@@ -10166,26 +10305,26 @@
       </c>
       <c r="F80" s="10">
         <f>VLOOKUP(category_assignment[[#This Row],[category]],category[[category_name_german]:[category_id(for SVERWEIS)]],5,FALSE)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G80" s="10">
         <f>VLOOKUP(category_assignment[[#This Row],[description_german]],abbreviation[[description_german]:[abbreviation_id(for SVERWEIS)]],4,FALSE)</f>
-        <v>57</v>
+        <v>125</v>
       </c>
       <c r="I80" s="5" t="str">
         <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A78),LEN(CELL("dateiname",A78))-FIND("]",CELL("dateiname",A78)))&amp;" VALUES"&amp;" ("&amp;Tabelle8[[#This Row],[category_assignment_id]]&amp;","&amp;Tabelle8[[#This Row],[category_id]]&amp;","&amp;Tabelle8[[#This Row],[abbreviation_id]]&amp;");"</f>
-        <v>INSERT INTO category_assignment VALUES (77,3,57);</v>
+        <v>INSERT INTO category_assignment VALUES (77,4,125);</v>
       </c>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" s="5">
         <v>78</v>
       </c>
-      <c r="B81" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="C81" s="5" t="s">
-        <v>250</v>
+      <c r="B81" s="14" t="s">
+        <v>541</v>
+      </c>
+      <c r="C81" s="14" t="s">
+        <v>375</v>
       </c>
       <c r="E81">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
@@ -10193,26 +10332,26 @@
       </c>
       <c r="F81" s="10">
         <f>VLOOKUP(category_assignment[[#This Row],[category]],category[[category_name_german]:[category_id(for SVERWEIS)]],5,FALSE)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G81" s="10">
         <f>VLOOKUP(category_assignment[[#This Row],[description_german]],abbreviation[[description_german]:[abbreviation_id(for SVERWEIS)]],4,FALSE)</f>
-        <v>58</v>
+        <v>126</v>
       </c>
       <c r="I81" s="5" t="str">
         <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A79),LEN(CELL("dateiname",A79))-FIND("]",CELL("dateiname",A79)))&amp;" VALUES"&amp;" ("&amp;Tabelle8[[#This Row],[category_assignment_id]]&amp;","&amp;Tabelle8[[#This Row],[category_id]]&amp;","&amp;Tabelle8[[#This Row],[abbreviation_id]]&amp;");"</f>
-        <v>INSERT INTO category_assignment VALUES (78,3,58);</v>
+        <v>INSERT INTO category_assignment VALUES (78,4,126);</v>
       </c>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" s="5">
         <v>79</v>
       </c>
-      <c r="B82" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="C82" s="5" t="s">
-        <v>252</v>
+      <c r="B82" s="14" t="s">
+        <v>541</v>
+      </c>
+      <c r="C82" s="14" t="s">
+        <v>377</v>
       </c>
       <c r="E82">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
@@ -10220,26 +10359,26 @@
       </c>
       <c r="F82" s="10">
         <f>VLOOKUP(category_assignment[[#This Row],[category]],category[[category_name_german]:[category_id(for SVERWEIS)]],5,FALSE)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G82" s="10">
         <f>VLOOKUP(category_assignment[[#This Row],[description_german]],abbreviation[[description_german]:[abbreviation_id(for SVERWEIS)]],4,FALSE)</f>
-        <v>59</v>
+        <v>127</v>
       </c>
       <c r="I82" s="5" t="str">
         <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A80),LEN(CELL("dateiname",A80))-FIND("]",CELL("dateiname",A80)))&amp;" VALUES"&amp;" ("&amp;Tabelle8[[#This Row],[category_assignment_id]]&amp;","&amp;Tabelle8[[#This Row],[category_id]]&amp;","&amp;Tabelle8[[#This Row],[abbreviation_id]]&amp;");"</f>
-        <v>INSERT INTO category_assignment VALUES (79,3,59);</v>
+        <v>INSERT INTO category_assignment VALUES (79,4,127);</v>
       </c>
     </row>
     <row r="83" spans="1:9">
       <c r="A83" s="5">
         <v>80</v>
       </c>
-      <c r="B83" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="C83" s="5" t="s">
-        <v>254</v>
+      <c r="B83" s="14" t="s">
+        <v>541</v>
+      </c>
+      <c r="C83" s="14" t="s">
+        <v>379</v>
       </c>
       <c r="E83">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
@@ -10247,26 +10386,26 @@
       </c>
       <c r="F83" s="10">
         <f>VLOOKUP(category_assignment[[#This Row],[category]],category[[category_name_german]:[category_id(for SVERWEIS)]],5,FALSE)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G83" s="10">
         <f>VLOOKUP(category_assignment[[#This Row],[description_german]],abbreviation[[description_german]:[abbreviation_id(for SVERWEIS)]],4,FALSE)</f>
-        <v>60</v>
+        <v>128</v>
       </c>
       <c r="I83" s="5" t="str">
         <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A81),LEN(CELL("dateiname",A81))-FIND("]",CELL("dateiname",A81)))&amp;" VALUES"&amp;" ("&amp;Tabelle8[[#This Row],[category_assignment_id]]&amp;","&amp;Tabelle8[[#This Row],[category_id]]&amp;","&amp;Tabelle8[[#This Row],[abbreviation_id]]&amp;");"</f>
-        <v>INSERT INTO category_assignment VALUES (80,3,60);</v>
+        <v>INSERT INTO category_assignment VALUES (80,4,128);</v>
       </c>
     </row>
     <row r="84" spans="1:9">
       <c r="A84" s="5">
         <v>81</v>
       </c>
-      <c r="B84" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="C84" s="5" t="s">
-        <v>20</v>
+      <c r="B84" s="14" t="s">
+        <v>541</v>
+      </c>
+      <c r="C84" s="14" t="s">
+        <v>381</v>
       </c>
       <c r="E84">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
@@ -10274,26 +10413,26 @@
       </c>
       <c r="F84" s="10">
         <f>VLOOKUP(category_assignment[[#This Row],[category]],category[[category_name_german]:[category_id(for SVERWEIS)]],5,FALSE)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G84" s="10">
         <f>VLOOKUP(category_assignment[[#This Row],[description_german]],abbreviation[[description_german]:[abbreviation_id(for SVERWEIS)]],4,FALSE)</f>
-        <v>13</v>
+        <v>129</v>
       </c>
       <c r="I84" s="5" t="str">
         <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A82),LEN(CELL("dateiname",A82))-FIND("]",CELL("dateiname",A82)))&amp;" VALUES"&amp;" ("&amp;Tabelle8[[#This Row],[category_assignment_id]]&amp;","&amp;Tabelle8[[#This Row],[category_id]]&amp;","&amp;Tabelle8[[#This Row],[abbreviation_id]]&amp;");"</f>
-        <v>INSERT INTO category_assignment VALUES (81,3,13);</v>
+        <v>INSERT INTO category_assignment VALUES (81,4,129);</v>
       </c>
     </row>
     <row r="85" spans="1:9">
       <c r="A85" s="5">
         <v>82</v>
       </c>
-      <c r="B85" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>256</v>
+      <c r="B85" s="14" t="s">
+        <v>542</v>
+      </c>
+      <c r="C85" s="14" t="s">
+        <v>365</v>
       </c>
       <c r="E85">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
@@ -10301,26 +10440,26 @@
       </c>
       <c r="F85" s="10">
         <f>VLOOKUP(category_assignment[[#This Row],[category]],category[[category_name_german]:[category_id(for SVERWEIS)]],5,FALSE)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G85" s="10">
         <f>VLOOKUP(category_assignment[[#This Row],[description_german]],abbreviation[[description_german]:[abbreviation_id(for SVERWEIS)]],4,FALSE)</f>
-        <v>61</v>
+        <v>121</v>
       </c>
       <c r="I85" s="5" t="str">
         <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A83),LEN(CELL("dateiname",A83))-FIND("]",CELL("dateiname",A83)))&amp;" VALUES"&amp;" ("&amp;Tabelle8[[#This Row],[category_assignment_id]]&amp;","&amp;Tabelle8[[#This Row],[category_id]]&amp;","&amp;Tabelle8[[#This Row],[abbreviation_id]]&amp;");"</f>
-        <v>INSERT INTO category_assignment VALUES (82,3,61);</v>
+        <v>INSERT INTO category_assignment VALUES (82,5,121);</v>
       </c>
     </row>
     <row r="86" spans="1:9">
       <c r="A86" s="5">
         <v>83</v>
       </c>
-      <c r="B86" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="C86" s="5" t="s">
-        <v>258</v>
+      <c r="B86" s="14" t="s">
+        <v>542</v>
+      </c>
+      <c r="C86" s="14" t="s">
+        <v>367</v>
       </c>
       <c r="E86">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
@@ -10328,26 +10467,26 @@
       </c>
       <c r="F86" s="10">
         <f>VLOOKUP(category_assignment[[#This Row],[category]],category[[category_name_german]:[category_id(for SVERWEIS)]],5,FALSE)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G86" s="10">
         <f>VLOOKUP(category_assignment[[#This Row],[description_german]],abbreviation[[description_german]:[abbreviation_id(for SVERWEIS)]],4,FALSE)</f>
-        <v>62</v>
+        <v>122</v>
       </c>
       <c r="I86" s="5" t="str">
         <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A84),LEN(CELL("dateiname",A84))-FIND("]",CELL("dateiname",A84)))&amp;" VALUES"&amp;" ("&amp;Tabelle8[[#This Row],[category_assignment_id]]&amp;","&amp;Tabelle8[[#This Row],[category_id]]&amp;","&amp;Tabelle8[[#This Row],[abbreviation_id]]&amp;");"</f>
-        <v>INSERT INTO category_assignment VALUES (83,3,62);</v>
+        <v>INSERT INTO category_assignment VALUES (83,5,122);</v>
       </c>
     </row>
     <row r="87" spans="1:9">
       <c r="A87" s="5">
         <v>84</v>
       </c>
-      <c r="B87" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="C87" s="5" t="s">
-        <v>260</v>
+      <c r="B87" s="14" t="s">
+        <v>542</v>
+      </c>
+      <c r="C87" s="14" t="s">
+        <v>344</v>
       </c>
       <c r="E87">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
@@ -10355,26 +10494,26 @@
       </c>
       <c r="F87" s="10">
         <f>VLOOKUP(category_assignment[[#This Row],[category]],category[[category_name_german]:[category_id(for SVERWEIS)]],5,FALSE)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G87" s="10">
         <f>VLOOKUP(category_assignment[[#This Row],[description_german]],abbreviation[[description_german]:[abbreviation_id(for SVERWEIS)]],4,FALSE)</f>
-        <v>63</v>
+        <v>110</v>
       </c>
       <c r="I87" s="5" t="str">
         <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A85),LEN(CELL("dateiname",A85))-FIND("]",CELL("dateiname",A85)))&amp;" VALUES"&amp;" ("&amp;Tabelle8[[#This Row],[category_assignment_id]]&amp;","&amp;Tabelle8[[#This Row],[category_id]]&amp;","&amp;Tabelle8[[#This Row],[abbreviation_id]]&amp;");"</f>
-        <v>INSERT INTO category_assignment VALUES (84,3,63);</v>
+        <v>INSERT INTO category_assignment VALUES (84,5,110);</v>
       </c>
     </row>
     <row r="88" spans="1:9">
       <c r="A88" s="5">
         <v>85</v>
       </c>
-      <c r="B88" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="C88" s="5" t="s">
-        <v>262</v>
+      <c r="B88" s="14" t="s">
+        <v>542</v>
+      </c>
+      <c r="C88" s="14" t="s">
+        <v>346</v>
       </c>
       <c r="E88">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
@@ -10382,15 +10521,15 @@
       </c>
       <c r="F88" s="10">
         <f>VLOOKUP(category_assignment[[#This Row],[category]],category[[category_name_german]:[category_id(for SVERWEIS)]],5,FALSE)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G88" s="10">
         <f>VLOOKUP(category_assignment[[#This Row],[description_german]],abbreviation[[description_german]:[abbreviation_id(for SVERWEIS)]],4,FALSE)</f>
-        <v>64</v>
+        <v>111</v>
       </c>
       <c r="I88" s="5" t="str">
         <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A86),LEN(CELL("dateiname",A86))-FIND("]",CELL("dateiname",A86)))&amp;" VALUES"&amp;" ("&amp;Tabelle8[[#This Row],[category_assignment_id]]&amp;","&amp;Tabelle8[[#This Row],[category_id]]&amp;","&amp;Tabelle8[[#This Row],[abbreviation_id]]&amp;");"</f>
-        <v>INSERT INTO category_assignment VALUES (85,3,64);</v>
+        <v>INSERT INTO category_assignment VALUES (85,5,111);</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -10398,10 +10537,10 @@
         <v>86</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>30</v>
+        <v>382</v>
       </c>
       <c r="E89">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
@@ -10409,15 +10548,15 @@
       </c>
       <c r="F89" s="10">
         <f>VLOOKUP(category_assignment[[#This Row],[category]],category[[category_name_german]:[category_id(for SVERWEIS)]],5,FALSE)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G89" s="10">
         <f>VLOOKUP(category_assignment[[#This Row],[description_german]],abbreviation[[description_german]:[abbreviation_id(for SVERWEIS)]],4,FALSE)</f>
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="I89" s="5" t="str">
         <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A87),LEN(CELL("dateiname",A87))-FIND("]",CELL("dateiname",A87)))&amp;" VALUES"&amp;" ("&amp;Tabelle8[[#This Row],[category_assignment_id]]&amp;","&amp;Tabelle8[[#This Row],[category_id]]&amp;","&amp;Tabelle8[[#This Row],[abbreviation_id]]&amp;");"</f>
-        <v>INSERT INTO category_assignment VALUES (86,3,20);</v>
+        <v>INSERT INTO category_assignment VALUES (86,6,130);</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -10425,10 +10564,10 @@
         <v>87</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>264</v>
+        <v>384</v>
       </c>
       <c r="E90">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
@@ -10436,15 +10575,15 @@
       </c>
       <c r="F90" s="10">
         <f>VLOOKUP(category_assignment[[#This Row],[category]],category[[category_name_german]:[category_id(for SVERWEIS)]],5,FALSE)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G90" s="10">
         <f>VLOOKUP(category_assignment[[#This Row],[description_german]],abbreviation[[description_german]:[abbreviation_id(for SVERWEIS)]],4,FALSE)</f>
-        <v>65</v>
+        <v>131</v>
       </c>
       <c r="I90" s="5" t="str">
         <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A88),LEN(CELL("dateiname",A88))-FIND("]",CELL("dateiname",A88)))&amp;" VALUES"&amp;" ("&amp;Tabelle8[[#This Row],[category_assignment_id]]&amp;","&amp;Tabelle8[[#This Row],[category_id]]&amp;","&amp;Tabelle8[[#This Row],[abbreviation_id]]&amp;");"</f>
-        <v>INSERT INTO category_assignment VALUES (87,3,65);</v>
+        <v>INSERT INTO category_assignment VALUES (87,6,131);</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -10452,10 +10591,10 @@
         <v>88</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>266</v>
+        <v>386</v>
       </c>
       <c r="E91">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
@@ -10463,15 +10602,15 @@
       </c>
       <c r="F91" s="10">
         <f>VLOOKUP(category_assignment[[#This Row],[category]],category[[category_name_german]:[category_id(for SVERWEIS)]],5,FALSE)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G91" s="10">
         <f>VLOOKUP(category_assignment[[#This Row],[description_german]],abbreviation[[description_german]:[abbreviation_id(for SVERWEIS)]],4,FALSE)</f>
-        <v>66</v>
+        <v>132</v>
       </c>
       <c r="I91" s="5" t="str">
         <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A89),LEN(CELL("dateiname",A89))-FIND("]",CELL("dateiname",A89)))&amp;" VALUES"&amp;" ("&amp;Tabelle8[[#This Row],[category_assignment_id]]&amp;","&amp;Tabelle8[[#This Row],[category_id]]&amp;","&amp;Tabelle8[[#This Row],[abbreviation_id]]&amp;");"</f>
-        <v>INSERT INTO category_assignment VALUES (88,3,66);</v>
+        <v>INSERT INTO category_assignment VALUES (88,6,132);</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -10479,10 +10618,10 @@
         <v>89</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>34</v>
+        <v>388</v>
       </c>
       <c r="E92">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
@@ -10490,15 +10629,15 @@
       </c>
       <c r="F92" s="10">
         <f>VLOOKUP(category_assignment[[#This Row],[category]],category[[category_name_german]:[category_id(for SVERWEIS)]],5,FALSE)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G92" s="10">
         <f>VLOOKUP(category_assignment[[#This Row],[description_german]],abbreviation[[description_german]:[abbreviation_id(for SVERWEIS)]],4,FALSE)</f>
-        <v>22</v>
+        <v>133</v>
       </c>
       <c r="I92" s="5" t="str">
         <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A90),LEN(CELL("dateiname",A90))-FIND("]",CELL("dateiname",A90)))&amp;" VALUES"&amp;" ("&amp;Tabelle8[[#This Row],[category_assignment_id]]&amp;","&amp;Tabelle8[[#This Row],[category_id]]&amp;","&amp;Tabelle8[[#This Row],[abbreviation_id]]&amp;");"</f>
-        <v>INSERT INTO category_assignment VALUES (89,3,22);</v>
+        <v>INSERT INTO category_assignment VALUES (89,6,133);</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -10506,10 +10645,10 @@
         <v>90</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>268</v>
+        <v>390</v>
       </c>
       <c r="E93">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
@@ -10517,15 +10656,15 @@
       </c>
       <c r="F93" s="10">
         <f>VLOOKUP(category_assignment[[#This Row],[category]],category[[category_name_german]:[category_id(for SVERWEIS)]],5,FALSE)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G93" s="10">
         <f>VLOOKUP(category_assignment[[#This Row],[description_german]],abbreviation[[description_german]:[abbreviation_id(for SVERWEIS)]],4,FALSE)</f>
-        <v>67</v>
+        <v>134</v>
       </c>
       <c r="I93" s="5" t="str">
         <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A91),LEN(CELL("dateiname",A91))-FIND("]",CELL("dateiname",A91)))&amp;" VALUES"&amp;" ("&amp;Tabelle8[[#This Row],[category_assignment_id]]&amp;","&amp;Tabelle8[[#This Row],[category_id]]&amp;","&amp;Tabelle8[[#This Row],[abbreviation_id]]&amp;");"</f>
-        <v>INSERT INTO category_assignment VALUES (90,3,67);</v>
+        <v>INSERT INTO category_assignment VALUES (90,6,134);</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -10533,10 +10672,10 @@
         <v>91</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>270</v>
+        <v>392</v>
       </c>
       <c r="E94">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
@@ -10544,26 +10683,26 @@
       </c>
       <c r="F94" s="10">
         <f>VLOOKUP(category_assignment[[#This Row],[category]],category[[category_name_german]:[category_id(for SVERWEIS)]],5,FALSE)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G94" s="10">
         <f>VLOOKUP(category_assignment[[#This Row],[description_german]],abbreviation[[description_german]:[abbreviation_id(for SVERWEIS)]],4,FALSE)</f>
-        <v>68</v>
+        <v>135</v>
       </c>
       <c r="I94" s="5" t="str">
         <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A92),LEN(CELL("dateiname",A92))-FIND("]",CELL("dateiname",A92)))&amp;" VALUES"&amp;" ("&amp;Tabelle8[[#This Row],[category_assignment_id]]&amp;","&amp;Tabelle8[[#This Row],[category_id]]&amp;","&amp;Tabelle8[[#This Row],[abbreviation_id]]&amp;");"</f>
-        <v>INSERT INTO category_assignment VALUES (91,3,68);</v>
+        <v>INSERT INTO category_assignment VALUES (91,6,135);</v>
       </c>
     </row>
     <row r="95" spans="1:9">
       <c r="A95" s="5">
         <v>92</v>
       </c>
-      <c r="B95" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="C95" s="5" t="s">
-        <v>272</v>
+      <c r="B95" s="14" t="s">
+        <v>548</v>
+      </c>
+      <c r="C95" s="14" t="s">
+        <v>427</v>
       </c>
       <c r="E95">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
@@ -10571,26 +10710,26 @@
       </c>
       <c r="F95" s="10">
         <f>VLOOKUP(category_assignment[[#This Row],[category]],category[[category_name_german]:[category_id(for SVERWEIS)]],5,FALSE)</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G95" s="10">
         <f>VLOOKUP(category_assignment[[#This Row],[description_german]],abbreviation[[description_german]:[abbreviation_id(for SVERWEIS)]],4,FALSE)</f>
-        <v>69</v>
+        <v>153</v>
       </c>
       <c r="I95" s="5" t="str">
         <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A93),LEN(CELL("dateiname",A93))-FIND("]",CELL("dateiname",A93)))&amp;" VALUES"&amp;" ("&amp;Tabelle8[[#This Row],[category_assignment_id]]&amp;","&amp;Tabelle8[[#This Row],[category_id]]&amp;","&amp;Tabelle8[[#This Row],[abbreviation_id]]&amp;");"</f>
-        <v>INSERT INTO category_assignment VALUES (92,3,69);</v>
+        <v>INSERT INTO category_assignment VALUES (92,7,153);</v>
       </c>
     </row>
     <row r="96" spans="1:9">
       <c r="A96" s="5">
         <v>93</v>
       </c>
-      <c r="B96" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="C96" s="5" t="s">
-        <v>274</v>
+      <c r="B96" s="14" t="s">
+        <v>548</v>
+      </c>
+      <c r="C96" s="14" t="s">
+        <v>429</v>
       </c>
       <c r="E96">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
@@ -10598,26 +10737,26 @@
       </c>
       <c r="F96" s="10">
         <f>VLOOKUP(category_assignment[[#This Row],[category]],category[[category_name_german]:[category_id(for SVERWEIS)]],5,FALSE)</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G96" s="10">
         <f>VLOOKUP(category_assignment[[#This Row],[description_german]],abbreviation[[description_german]:[abbreviation_id(for SVERWEIS)]],4,FALSE)</f>
-        <v>70</v>
+        <v>154</v>
       </c>
       <c r="I96" s="5" t="str">
         <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A94),LEN(CELL("dateiname",A94))-FIND("]",CELL("dateiname",A94)))&amp;" VALUES"&amp;" ("&amp;Tabelle8[[#This Row],[category_assignment_id]]&amp;","&amp;Tabelle8[[#This Row],[category_id]]&amp;","&amp;Tabelle8[[#This Row],[abbreviation_id]]&amp;");"</f>
-        <v>INSERT INTO category_assignment VALUES (93,3,70);</v>
+        <v>INSERT INTO category_assignment VALUES (93,7,154);</v>
       </c>
     </row>
     <row r="97" spans="1:9">
       <c r="A97" s="5">
         <v>94</v>
       </c>
-      <c r="B97" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="C97" s="5" t="s">
-        <v>276</v>
+      <c r="B97" s="14" t="s">
+        <v>548</v>
+      </c>
+      <c r="C97" s="14" t="s">
+        <v>431</v>
       </c>
       <c r="E97">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
@@ -10625,26 +10764,26 @@
       </c>
       <c r="F97" s="10">
         <f>VLOOKUP(category_assignment[[#This Row],[category]],category[[category_name_german]:[category_id(for SVERWEIS)]],5,FALSE)</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G97" s="10">
         <f>VLOOKUP(category_assignment[[#This Row],[description_german]],abbreviation[[description_german]:[abbreviation_id(for SVERWEIS)]],4,FALSE)</f>
-        <v>71</v>
+        <v>155</v>
       </c>
       <c r="I97" s="5" t="str">
         <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A95),LEN(CELL("dateiname",A95))-FIND("]",CELL("dateiname",A95)))&amp;" VALUES"&amp;" ("&amp;Tabelle8[[#This Row],[category_assignment_id]]&amp;","&amp;Tabelle8[[#This Row],[category_id]]&amp;","&amp;Tabelle8[[#This Row],[abbreviation_id]]&amp;");"</f>
-        <v>INSERT INTO category_assignment VALUES (94,3,71);</v>
+        <v>INSERT INTO category_assignment VALUES (94,7,155);</v>
       </c>
     </row>
     <row r="98" spans="1:9">
       <c r="A98" s="5">
         <v>95</v>
       </c>
-      <c r="B98" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="C98" s="5" t="s">
-        <v>40</v>
+      <c r="B98" s="14" t="s">
+        <v>548</v>
+      </c>
+      <c r="C98" s="14" t="s">
+        <v>433</v>
       </c>
       <c r="E98">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
@@ -10652,26 +10791,26 @@
       </c>
       <c r="F98" s="10">
         <f>VLOOKUP(category_assignment[[#This Row],[category]],category[[category_name_german]:[category_id(for SVERWEIS)]],5,FALSE)</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G98" s="10">
         <f>VLOOKUP(category_assignment[[#This Row],[description_german]],abbreviation[[description_german]:[abbreviation_id(for SVERWEIS)]],4,FALSE)</f>
-        <v>25</v>
+        <v>156</v>
       </c>
       <c r="I98" s="5" t="str">
         <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A96),LEN(CELL("dateiname",A96))-FIND("]",CELL("dateiname",A96)))&amp;" VALUES"&amp;" ("&amp;Tabelle8[[#This Row],[category_assignment_id]]&amp;","&amp;Tabelle8[[#This Row],[category_id]]&amp;","&amp;Tabelle8[[#This Row],[abbreviation_id]]&amp;");"</f>
-        <v>INSERT INTO category_assignment VALUES (95,3,25);</v>
+        <v>INSERT INTO category_assignment VALUES (95,7,156);</v>
       </c>
     </row>
     <row r="99" spans="1:9">
       <c r="A99" s="5">
         <v>96</v>
       </c>
-      <c r="B99" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="C99" s="5" t="s">
-        <v>278</v>
+      <c r="B99" s="14" t="s">
+        <v>548</v>
+      </c>
+      <c r="C99" s="14" t="s">
+        <v>435</v>
       </c>
       <c r="E99">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
@@ -10679,26 +10818,26 @@
       </c>
       <c r="F99" s="10">
         <f>VLOOKUP(category_assignment[[#This Row],[category]],category[[category_name_german]:[category_id(for SVERWEIS)]],5,FALSE)</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G99" s="10">
         <f>VLOOKUP(category_assignment[[#This Row],[description_german]],abbreviation[[description_german]:[abbreviation_id(for SVERWEIS)]],4,FALSE)</f>
-        <v>72</v>
+        <v>157</v>
       </c>
       <c r="I99" s="5" t="str">
         <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A97),LEN(CELL("dateiname",A97))-FIND("]",CELL("dateiname",A97)))&amp;" VALUES"&amp;" ("&amp;Tabelle8[[#This Row],[category_assignment_id]]&amp;","&amp;Tabelle8[[#This Row],[category_id]]&amp;","&amp;Tabelle8[[#This Row],[abbreviation_id]]&amp;");"</f>
-        <v>INSERT INTO category_assignment VALUES (96,3,72);</v>
+        <v>INSERT INTO category_assignment VALUES (96,7,157);</v>
       </c>
     </row>
     <row r="100" spans="1:9">
       <c r="A100" s="5">
         <v>97</v>
       </c>
-      <c r="B100" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="C100" s="5" t="s">
-        <v>337</v>
+      <c r="B100" s="14" t="s">
+        <v>548</v>
+      </c>
+      <c r="C100" s="14" t="s">
+        <v>437</v>
       </c>
       <c r="E100">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
@@ -10706,26 +10845,26 @@
       </c>
       <c r="F100" s="10">
         <f>VLOOKUP(category_assignment[[#This Row],[category]],category[[category_name_german]:[category_id(for SVERWEIS)]],5,FALSE)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G100" s="10">
         <f>VLOOKUP(category_assignment[[#This Row],[description_german]],abbreviation[[description_german]:[abbreviation_id(for SVERWEIS)]],4,FALSE)</f>
-        <v>102</v>
+        <v>158</v>
       </c>
       <c r="I100" s="5" t="str">
         <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A98),LEN(CELL("dateiname",A98))-FIND("]",CELL("dateiname",A98)))&amp;" VALUES"&amp;" ("&amp;Tabelle8[[#This Row],[category_assignment_id]]&amp;","&amp;Tabelle8[[#This Row],[category_id]]&amp;","&amp;Tabelle8[[#This Row],[abbreviation_id]]&amp;");"</f>
-        <v>INSERT INTO category_assignment VALUES (97,4,102);</v>
+        <v>INSERT INTO category_assignment VALUES (97,7,158);</v>
       </c>
     </row>
     <row r="101" spans="1:9">
       <c r="A101" s="5">
         <v>98</v>
       </c>
-      <c r="B101" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="C101" s="5" t="s">
-        <v>339</v>
+      <c r="B101" s="14" t="s">
+        <v>548</v>
+      </c>
+      <c r="C101" s="14" t="s">
+        <v>439</v>
       </c>
       <c r="E101">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
@@ -10733,26 +10872,26 @@
       </c>
       <c r="F101" s="10">
         <f>VLOOKUP(category_assignment[[#This Row],[category]],category[[category_name_german]:[category_id(for SVERWEIS)]],5,FALSE)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G101" s="10">
         <f>VLOOKUP(category_assignment[[#This Row],[description_german]],abbreviation[[description_german]:[abbreviation_id(for SVERWEIS)]],4,FALSE)</f>
-        <v>103</v>
+        <v>159</v>
       </c>
       <c r="I101" s="5" t="str">
         <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A99),LEN(CELL("dateiname",A99))-FIND("]",CELL("dateiname",A99)))&amp;" VALUES"&amp;" ("&amp;Tabelle8[[#This Row],[category_assignment_id]]&amp;","&amp;Tabelle8[[#This Row],[category_id]]&amp;","&amp;Tabelle8[[#This Row],[abbreviation_id]]&amp;");"</f>
-        <v>INSERT INTO category_assignment VALUES (98,4,103);</v>
+        <v>INSERT INTO category_assignment VALUES (98,7,159);</v>
       </c>
     </row>
     <row r="102" spans="1:9">
       <c r="A102" s="5">
         <v>99</v>
       </c>
-      <c r="B102" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="C102" s="5" t="s">
-        <v>214</v>
+      <c r="B102" s="14" t="s">
+        <v>548</v>
+      </c>
+      <c r="C102" s="14" t="s">
+        <v>441</v>
       </c>
       <c r="E102">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
@@ -10760,26 +10899,26 @@
       </c>
       <c r="F102" s="10">
         <f>VLOOKUP(category_assignment[[#This Row],[category]],category[[category_name_german]:[category_id(for SVERWEIS)]],5,FALSE)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G102" s="10">
         <f>VLOOKUP(category_assignment[[#This Row],[description_german]],abbreviation[[description_german]:[abbreviation_id(for SVERWEIS)]],4,FALSE)</f>
-        <v>7</v>
+        <v>160</v>
       </c>
       <c r="I102" s="5" t="str">
         <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A100),LEN(CELL("dateiname",A100))-FIND("]",CELL("dateiname",A100)))&amp;" VALUES"&amp;" ("&amp;Tabelle8[[#This Row],[category_assignment_id]]&amp;","&amp;Tabelle8[[#This Row],[category_id]]&amp;","&amp;Tabelle8[[#This Row],[abbreviation_id]]&amp;");"</f>
-        <v>INSERT INTO category_assignment VALUES (99,4,7);</v>
+        <v>INSERT INTO category_assignment VALUES (99,7,160);</v>
       </c>
     </row>
     <row r="103" spans="1:9">
       <c r="A103" s="5">
         <v>100</v>
       </c>
-      <c r="B103" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="C103" s="5" t="s">
-        <v>341</v>
+      <c r="B103" s="14" t="s">
+        <v>548</v>
+      </c>
+      <c r="C103" s="14" t="s">
+        <v>443</v>
       </c>
       <c r="E103">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
@@ -10787,26 +10926,26 @@
       </c>
       <c r="F103" s="10">
         <f>VLOOKUP(category_assignment[[#This Row],[category]],category[[category_name_german]:[category_id(for SVERWEIS)]],5,FALSE)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G103" s="10">
         <f>VLOOKUP(category_assignment[[#This Row],[description_german]],abbreviation[[description_german]:[abbreviation_id(for SVERWEIS)]],4,FALSE)</f>
-        <v>104</v>
+        <v>161</v>
       </c>
       <c r="I103" s="5" t="str">
         <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A101),LEN(CELL("dateiname",A101))-FIND("]",CELL("dateiname",A101)))&amp;" VALUES"&amp;" ("&amp;Tabelle8[[#This Row],[category_assignment_id]]&amp;","&amp;Tabelle8[[#This Row],[category_id]]&amp;","&amp;Tabelle8[[#This Row],[abbreviation_id]]&amp;");"</f>
-        <v>INSERT INTO category_assignment VALUES (100,4,104);</v>
+        <v>INSERT INTO category_assignment VALUES (100,7,161);</v>
       </c>
     </row>
     <row r="104" spans="1:9">
       <c r="A104" s="5">
         <v>101</v>
       </c>
-      <c r="B104" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="C104" s="5" t="s">
-        <v>343</v>
+      <c r="B104" s="14" t="s">
+        <v>548</v>
+      </c>
+      <c r="C104" s="14" t="s">
+        <v>445</v>
       </c>
       <c r="E104">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
@@ -10814,26 +10953,26 @@
       </c>
       <c r="F104" s="10">
         <f>VLOOKUP(category_assignment[[#This Row],[category]],category[[category_name_german]:[category_id(for SVERWEIS)]],5,FALSE)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G104" s="10">
         <f>VLOOKUP(category_assignment[[#This Row],[description_german]],abbreviation[[description_german]:[abbreviation_id(for SVERWEIS)]],4,FALSE)</f>
-        <v>105</v>
+        <v>162</v>
       </c>
       <c r="I104" s="5" t="str">
         <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A102),LEN(CELL("dateiname",A102))-FIND("]",CELL("dateiname",A102)))&amp;" VALUES"&amp;" ("&amp;Tabelle8[[#This Row],[category_assignment_id]]&amp;","&amp;Tabelle8[[#This Row],[category_id]]&amp;","&amp;Tabelle8[[#This Row],[abbreviation_id]]&amp;");"</f>
-        <v>INSERT INTO category_assignment VALUES (101,4,105);</v>
+        <v>INSERT INTO category_assignment VALUES (101,7,162);</v>
       </c>
     </row>
     <row r="105" spans="1:9">
       <c r="A105" s="5">
         <v>102</v>
       </c>
-      <c r="B105" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="C105" s="5" t="s">
-        <v>22</v>
+      <c r="B105" s="14" t="s">
+        <v>548</v>
+      </c>
+      <c r="C105" s="14" t="s">
+        <v>447</v>
       </c>
       <c r="E105">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
@@ -10841,26 +10980,26 @@
       </c>
       <c r="F105" s="10">
         <f>VLOOKUP(category_assignment[[#This Row],[category]],category[[category_name_german]:[category_id(for SVERWEIS)]],5,FALSE)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G105" s="10">
         <f>VLOOKUP(category_assignment[[#This Row],[description_german]],abbreviation[[description_german]:[abbreviation_id(for SVERWEIS)]],4,FALSE)</f>
-        <v>14</v>
+        <v>163</v>
       </c>
       <c r="I105" s="5" t="str">
         <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A103),LEN(CELL("dateiname",A103))-FIND("]",CELL("dateiname",A103)))&amp;" VALUES"&amp;" ("&amp;Tabelle8[[#This Row],[category_assignment_id]]&amp;","&amp;Tabelle8[[#This Row],[category_id]]&amp;","&amp;Tabelle8[[#This Row],[abbreviation_id]]&amp;");"</f>
-        <v>INSERT INTO category_assignment VALUES (102,4,14);</v>
+        <v>INSERT INTO category_assignment VALUES (102,7,163);</v>
       </c>
     </row>
     <row r="106" spans="1:9">
       <c r="A106" s="5">
         <v>103</v>
       </c>
-      <c r="B106" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="C106" s="5" t="s">
-        <v>345</v>
+      <c r="B106" s="14" t="s">
+        <v>548</v>
+      </c>
+      <c r="C106" s="14" t="s">
+        <v>449</v>
       </c>
       <c r="E106">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
@@ -10868,26 +11007,26 @@
       </c>
       <c r="F106" s="10">
         <f>VLOOKUP(category_assignment[[#This Row],[category]],category[[category_name_german]:[category_id(for SVERWEIS)]],5,FALSE)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G106" s="10">
         <f>VLOOKUP(category_assignment[[#This Row],[description_german]],abbreviation[[description_german]:[abbreviation_id(for SVERWEIS)]],4,FALSE)</f>
-        <v>106</v>
+        <v>164</v>
       </c>
       <c r="I106" s="5" t="str">
         <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A104),LEN(CELL("dateiname",A104))-FIND("]",CELL("dateiname",A104)))&amp;" VALUES"&amp;" ("&amp;Tabelle8[[#This Row],[category_assignment_id]]&amp;","&amp;Tabelle8[[#This Row],[category_id]]&amp;","&amp;Tabelle8[[#This Row],[abbreviation_id]]&amp;");"</f>
-        <v>INSERT INTO category_assignment VALUES (103,4,106);</v>
+        <v>INSERT INTO category_assignment VALUES (103,7,164);</v>
       </c>
     </row>
     <row r="107" spans="1:9">
       <c r="A107" s="5">
         <v>104</v>
       </c>
-      <c r="B107" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="C107" s="5" t="s">
-        <v>28</v>
+      <c r="B107" s="14" t="s">
+        <v>548</v>
+      </c>
+      <c r="C107" s="14" t="s">
+        <v>451</v>
       </c>
       <c r="E107">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
@@ -10895,15 +11034,15 @@
       </c>
       <c r="F107" s="10">
         <f>VLOOKUP(category_assignment[[#This Row],[category]],category[[category_name_german]:[category_id(for SVERWEIS)]],5,FALSE)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G107" s="10">
         <f>VLOOKUP(category_assignment[[#This Row],[description_german]],abbreviation[[description_german]:[abbreviation_id(for SVERWEIS)]],4,FALSE)</f>
-        <v>19</v>
+        <v>165</v>
       </c>
       <c r="I107" s="5" t="str">
         <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A105),LEN(CELL("dateiname",A105))-FIND("]",CELL("dateiname",A105)))&amp;" VALUES"&amp;" ("&amp;Tabelle8[[#This Row],[category_assignment_id]]&amp;","&amp;Tabelle8[[#This Row],[category_id]]&amp;","&amp;Tabelle8[[#This Row],[abbreviation_id]]&amp;");"</f>
-        <v>INSERT INTO category_assignment VALUES (104,4,19);</v>
+        <v>INSERT INTO category_assignment VALUES (104,7,165);</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -10911,10 +11050,10 @@
         <v>105</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>266</v>
+        <v>453</v>
       </c>
       <c r="E108">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
@@ -10922,15 +11061,15 @@
       </c>
       <c r="F108" s="10">
         <f>VLOOKUP(category_assignment[[#This Row],[category]],category[[category_name_german]:[category_id(for SVERWEIS)]],5,FALSE)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G108" s="10">
         <f>VLOOKUP(category_assignment[[#This Row],[description_german]],abbreviation[[description_german]:[abbreviation_id(for SVERWEIS)]],4,FALSE)</f>
-        <v>66</v>
+        <v>166</v>
       </c>
       <c r="I108" s="5" t="str">
         <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A106),LEN(CELL("dateiname",A106))-FIND("]",CELL("dateiname",A106)))&amp;" VALUES"&amp;" ("&amp;Tabelle8[[#This Row],[category_assignment_id]]&amp;","&amp;Tabelle8[[#This Row],[category_id]]&amp;","&amp;Tabelle8[[#This Row],[abbreviation_id]]&amp;");"</f>
-        <v>INSERT INTO category_assignment VALUES (105,4,66);</v>
+        <v>INSERT INTO category_assignment VALUES (105,8,166);</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -10938,10 +11077,10 @@
         <v>106</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>42</v>
+        <v>455</v>
       </c>
       <c r="E109">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
@@ -10949,15 +11088,15 @@
       </c>
       <c r="F109" s="10">
         <f>VLOOKUP(category_assignment[[#This Row],[category]],category[[category_name_german]:[category_id(for SVERWEIS)]],5,FALSE)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G109" s="10">
         <f>VLOOKUP(category_assignment[[#This Row],[description_german]],abbreviation[[description_german]:[abbreviation_id(for SVERWEIS)]],4,FALSE)</f>
-        <v>26</v>
+        <v>167</v>
       </c>
       <c r="I109" s="5" t="str">
         <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A107),LEN(CELL("dateiname",A107))-FIND("]",CELL("dateiname",A107)))&amp;" VALUES"&amp;" ("&amp;Tabelle8[[#This Row],[category_assignment_id]]&amp;","&amp;Tabelle8[[#This Row],[category_id]]&amp;","&amp;Tabelle8[[#This Row],[abbreviation_id]]&amp;");"</f>
-        <v>INSERT INTO category_assignment VALUES (106,4,26);</v>
+        <v>INSERT INTO category_assignment VALUES (106,8,167);</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -10968,7 +11107,7 @@
         <v>174</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>372</v>
+        <v>457</v>
       </c>
       <c r="E110">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
@@ -10976,15 +11115,15 @@
       </c>
       <c r="F110" s="10">
         <f>VLOOKUP(category_assignment[[#This Row],[category]],category[[category_name_german]:[category_id(for SVERWEIS)]],5,FALSE)</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G110" s="10">
         <f>VLOOKUP(category_assignment[[#This Row],[description_german]],abbreviation[[description_german]:[abbreviation_id(for SVERWEIS)]],4,FALSE)</f>
-        <v>121</v>
+        <v>168</v>
       </c>
       <c r="I110" s="5" t="str">
         <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A108),LEN(CELL("dateiname",A108))-FIND("]",CELL("dateiname",A108)))&amp;" VALUES"&amp;" ("&amp;Tabelle8[[#This Row],[category_assignment_id]]&amp;","&amp;Tabelle8[[#This Row],[category_id]]&amp;","&amp;Tabelle8[[#This Row],[abbreviation_id]]&amp;");"</f>
-        <v>INSERT INTO category_assignment VALUES (107,5,121);</v>
+        <v>INSERT INTO category_assignment VALUES (107,8,168);</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -10995,7 +11134,7 @@
         <v>174</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>337</v>
+        <v>459</v>
       </c>
       <c r="E111">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
@@ -11003,15 +11142,15 @@
       </c>
       <c r="F111" s="10">
         <f>VLOOKUP(category_assignment[[#This Row],[category]],category[[category_name_german]:[category_id(for SVERWEIS)]],5,FALSE)</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G111" s="10">
         <f>VLOOKUP(category_assignment[[#This Row],[description_german]],abbreviation[[description_german]:[abbreviation_id(for SVERWEIS)]],4,FALSE)</f>
-        <v>102</v>
+        <v>169</v>
       </c>
       <c r="I111" s="5" t="str">
         <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A109),LEN(CELL("dateiname",A109))-FIND("]",CELL("dateiname",A109)))&amp;" VALUES"&amp;" ("&amp;Tabelle8[[#This Row],[category_assignment_id]]&amp;","&amp;Tabelle8[[#This Row],[category_id]]&amp;","&amp;Tabelle8[[#This Row],[abbreviation_id]]&amp;");"</f>
-        <v>INSERT INTO category_assignment VALUES (108,5,102);</v>
+        <v>INSERT INTO category_assignment VALUES (108,8,169);</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -11022,7 +11161,7 @@
         <v>174</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>374</v>
+        <v>461</v>
       </c>
       <c r="E112">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
@@ -11030,15 +11169,15 @@
       </c>
       <c r="F112" s="10">
         <f>VLOOKUP(category_assignment[[#This Row],[category]],category[[category_name_german]:[category_id(for SVERWEIS)]],5,FALSE)</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G112" s="10">
         <f>VLOOKUP(category_assignment[[#This Row],[description_german]],abbreviation[[description_german]:[abbreviation_id(for SVERWEIS)]],4,FALSE)</f>
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="I112" s="5" t="str">
         <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A110),LEN(CELL("dateiname",A110))-FIND("]",CELL("dateiname",A110)))&amp;" VALUES"&amp;" ("&amp;Tabelle8[[#This Row],[category_assignment_id]]&amp;","&amp;Tabelle8[[#This Row],[category_id]]&amp;","&amp;Tabelle8[[#This Row],[abbreviation_id]]&amp;");"</f>
-        <v>INSERT INTO category_assignment VALUES (109,5,122);</v>
+        <v>INSERT INTO category_assignment VALUES (109,8,170);</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -11049,7 +11188,7 @@
         <v>174</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>376</v>
+        <v>463</v>
       </c>
       <c r="E113">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
@@ -11057,15 +11196,15 @@
       </c>
       <c r="F113" s="10">
         <f>VLOOKUP(category_assignment[[#This Row],[category]],category[[category_name_german]:[category_id(for SVERWEIS)]],5,FALSE)</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G113" s="10">
         <f>VLOOKUP(category_assignment[[#This Row],[description_german]],abbreviation[[description_german]:[abbreviation_id(for SVERWEIS)]],4,FALSE)</f>
-        <v>123</v>
+        <v>171</v>
       </c>
       <c r="I113" s="5" t="str">
         <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A111),LEN(CELL("dateiname",A111))-FIND("]",CELL("dateiname",A111)))&amp;" VALUES"&amp;" ("&amp;Tabelle8[[#This Row],[category_assignment_id]]&amp;","&amp;Tabelle8[[#This Row],[category_id]]&amp;","&amp;Tabelle8[[#This Row],[abbreviation_id]]&amp;");"</f>
-        <v>INSERT INTO category_assignment VALUES (110,5,123);</v>
+        <v>INSERT INTO category_assignment VALUES (110,8,171);</v>
       </c>
     </row>
     <row r="114" spans="1:9">
@@ -11076,7 +11215,7 @@
         <v>174</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>378</v>
+        <v>465</v>
       </c>
       <c r="E114">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
@@ -11084,15 +11223,15 @@
       </c>
       <c r="F114" s="10">
         <f>VLOOKUP(category_assignment[[#This Row],[category]],category[[category_name_german]:[category_id(for SVERWEIS)]],5,FALSE)</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G114" s="10">
         <f>VLOOKUP(category_assignment[[#This Row],[description_german]],abbreviation[[description_german]:[abbreviation_id(for SVERWEIS)]],4,FALSE)</f>
-        <v>124</v>
+        <v>172</v>
       </c>
       <c r="I114" s="5" t="str">
         <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A112),LEN(CELL("dateiname",A112))-FIND("]",CELL("dateiname",A112)))&amp;" VALUES"&amp;" ("&amp;Tabelle8[[#This Row],[category_assignment_id]]&amp;","&amp;Tabelle8[[#This Row],[category_id]]&amp;","&amp;Tabelle8[[#This Row],[abbreviation_id]]&amp;");"</f>
-        <v>INSERT INTO category_assignment VALUES (111,5,124);</v>
+        <v>INSERT INTO category_assignment VALUES (111,8,172);</v>
       </c>
     </row>
     <row r="115" spans="1:9">
@@ -11103,7 +11242,7 @@
         <v>174</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>380</v>
+        <v>467</v>
       </c>
       <c r="E115">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
@@ -11111,564 +11250,144 @@
       </c>
       <c r="F115" s="10">
         <f>VLOOKUP(category_assignment[[#This Row],[category]],category[[category_name_german]:[category_id(for SVERWEIS)]],5,FALSE)</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G115" s="10">
         <f>VLOOKUP(category_assignment[[#This Row],[description_german]],abbreviation[[description_german]:[abbreviation_id(for SVERWEIS)]],4,FALSE)</f>
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="I115" s="5" t="str">
         <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A113),LEN(CELL("dateiname",A113))-FIND("]",CELL("dateiname",A113)))&amp;" VALUES"&amp;" ("&amp;Tabelle8[[#This Row],[category_assignment_id]]&amp;","&amp;Tabelle8[[#This Row],[category_id]]&amp;","&amp;Tabelle8[[#This Row],[abbreviation_id]]&amp;");"</f>
-        <v>INSERT INTO category_assignment VALUES (112,5,125);</v>
+        <v>INSERT INTO category_assignment VALUES (112,8,173);</v>
       </c>
     </row>
     <row r="116" spans="1:9">
-      <c r="A116" s="5">
-        <v>113</v>
-      </c>
-      <c r="B116" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="C116" s="5" t="s">
-        <v>351</v>
-      </c>
-      <c r="E116">
-        <f>category_assignment[[#This Row],[category_assignment_id]]</f>
-        <v>113</v>
-      </c>
-      <c r="F116" s="10">
-        <f>VLOOKUP(category_assignment[[#This Row],[category]],category[[category_name_german]:[category_id(for SVERWEIS)]],5,FALSE)</f>
-        <v>5</v>
-      </c>
-      <c r="G116" s="10">
-        <f>VLOOKUP(category_assignment[[#This Row],[description_german]],abbreviation[[description_german]:[abbreviation_id(for SVERWEIS)]],4,FALSE)</f>
-        <v>110</v>
-      </c>
-      <c r="I116" s="5" t="str">
-        <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A114),LEN(CELL("dateiname",A114))-FIND("]",CELL("dateiname",A114)))&amp;" VALUES"&amp;" ("&amp;Tabelle8[[#This Row],[category_assignment_id]]&amp;","&amp;Tabelle8[[#This Row],[category_id]]&amp;","&amp;Tabelle8[[#This Row],[abbreviation_id]]&amp;");"</f>
-        <v>INSERT INTO category_assignment VALUES (113,5,110);</v>
-      </c>
+      <c r="A116" s="5"/>
+      <c r="F116" s="10"/>
+      <c r="G116" s="10"/>
+      <c r="I116" s="5"/>
     </row>
     <row r="117" spans="1:9">
-      <c r="A117" s="5">
-        <v>114</v>
-      </c>
-      <c r="B117" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="C117" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="E117">
-        <f>category_assignment[[#This Row],[category_assignment_id]]</f>
-        <v>114</v>
-      </c>
-      <c r="F117" s="10">
-        <f>VLOOKUP(category_assignment[[#This Row],[category]],category[[category_name_german]:[category_id(for SVERWEIS)]],5,FALSE)</f>
-        <v>5</v>
-      </c>
-      <c r="G117" s="10">
-        <f>VLOOKUP(category_assignment[[#This Row],[description_german]],abbreviation[[description_german]:[abbreviation_id(for SVERWEIS)]],4,FALSE)</f>
-        <v>126</v>
-      </c>
-      <c r="I117" s="5" t="str">
-        <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A115),LEN(CELL("dateiname",A115))-FIND("]",CELL("dateiname",A115)))&amp;" VALUES"&amp;" ("&amp;Tabelle8[[#This Row],[category_assignment_id]]&amp;","&amp;Tabelle8[[#This Row],[category_id]]&amp;","&amp;Tabelle8[[#This Row],[abbreviation_id]]&amp;");"</f>
-        <v>INSERT INTO category_assignment VALUES (114,5,126);</v>
-      </c>
+      <c r="A117" s="5"/>
+      <c r="F117" s="10"/>
+      <c r="G117" s="10"/>
+      <c r="I117" s="5"/>
     </row>
     <row r="118" spans="1:9">
-      <c r="A118" s="5">
-        <v>115</v>
-      </c>
-      <c r="B118" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="C118" s="5" t="s">
-        <v>353</v>
-      </c>
-      <c r="E118">
-        <f>category_assignment[[#This Row],[category_assignment_id]]</f>
-        <v>115</v>
-      </c>
-      <c r="F118" s="10">
-        <f>VLOOKUP(category_assignment[[#This Row],[category]],category[[category_name_german]:[category_id(for SVERWEIS)]],5,FALSE)</f>
-        <v>5</v>
-      </c>
-      <c r="G118" s="10">
-        <f>VLOOKUP(category_assignment[[#This Row],[description_german]],abbreviation[[description_german]:[abbreviation_id(for SVERWEIS)]],4,FALSE)</f>
-        <v>111</v>
-      </c>
-      <c r="I118" s="5" t="str">
-        <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A116),LEN(CELL("dateiname",A116))-FIND("]",CELL("dateiname",A116)))&amp;" VALUES"&amp;" ("&amp;Tabelle8[[#This Row],[category_assignment_id]]&amp;","&amp;Tabelle8[[#This Row],[category_id]]&amp;","&amp;Tabelle8[[#This Row],[abbreviation_id]]&amp;");"</f>
-        <v>INSERT INTO category_assignment VALUES (115,5,111);</v>
-      </c>
+      <c r="A118" s="5"/>
+      <c r="F118" s="10"/>
+      <c r="G118" s="10"/>
+      <c r="I118" s="5"/>
     </row>
     <row r="119" spans="1:9">
-      <c r="A119" s="5">
-        <v>116</v>
-      </c>
-      <c r="B119" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="C119" s="5" t="s">
-        <v>384</v>
-      </c>
-      <c r="E119">
-        <f>category_assignment[[#This Row],[category_assignment_id]]</f>
-        <v>116</v>
-      </c>
-      <c r="F119" s="10">
-        <f>VLOOKUP(category_assignment[[#This Row],[category]],category[[category_name_german]:[category_id(for SVERWEIS)]],5,FALSE)</f>
-        <v>5</v>
-      </c>
-      <c r="G119" s="10">
-        <f>VLOOKUP(category_assignment[[#This Row],[description_german]],abbreviation[[description_german]:[abbreviation_id(for SVERWEIS)]],4,FALSE)</f>
-        <v>127</v>
-      </c>
-      <c r="I119" s="5" t="str">
-        <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A117),LEN(CELL("dateiname",A117))-FIND("]",CELL("dateiname",A117)))&amp;" VALUES"&amp;" ("&amp;Tabelle8[[#This Row],[category_assignment_id]]&amp;","&amp;Tabelle8[[#This Row],[category_id]]&amp;","&amp;Tabelle8[[#This Row],[abbreviation_id]]&amp;");"</f>
-        <v>INSERT INTO category_assignment VALUES (116,5,127);</v>
-      </c>
+      <c r="A119" s="5"/>
+      <c r="F119" s="10"/>
+      <c r="G119" s="10"/>
+      <c r="I119" s="5"/>
     </row>
     <row r="120" spans="1:9">
-      <c r="A120" s="5">
-        <v>117</v>
-      </c>
-      <c r="B120" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="C120" s="5" t="s">
-        <v>386</v>
-      </c>
-      <c r="E120">
-        <f>category_assignment[[#This Row],[category_assignment_id]]</f>
-        <v>117</v>
-      </c>
-      <c r="F120" s="10">
-        <f>VLOOKUP(category_assignment[[#This Row],[category]],category[[category_name_german]:[category_id(for SVERWEIS)]],5,FALSE)</f>
-        <v>5</v>
-      </c>
-      <c r="G120" s="10">
-        <f>VLOOKUP(category_assignment[[#This Row],[description_german]],abbreviation[[description_german]:[abbreviation_id(for SVERWEIS)]],4,FALSE)</f>
-        <v>128</v>
-      </c>
-      <c r="I120" s="5" t="str">
-        <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A118),LEN(CELL("dateiname",A118))-FIND("]",CELL("dateiname",A118)))&amp;" VALUES"&amp;" ("&amp;Tabelle8[[#This Row],[category_assignment_id]]&amp;","&amp;Tabelle8[[#This Row],[category_id]]&amp;","&amp;Tabelle8[[#This Row],[abbreviation_id]]&amp;");"</f>
-        <v>INSERT INTO category_assignment VALUES (117,5,128);</v>
-      </c>
+      <c r="A120" s="5"/>
+      <c r="F120" s="10"/>
+      <c r="G120" s="10"/>
+      <c r="I120" s="5"/>
     </row>
     <row r="121" spans="1:9">
-      <c r="A121" s="5">
-        <v>118</v>
-      </c>
-      <c r="B121" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="C121" s="5" t="s">
-        <v>388</v>
-      </c>
-      <c r="E121">
-        <f>category_assignment[[#This Row],[category_assignment_id]]</f>
-        <v>118</v>
-      </c>
-      <c r="F121" s="10">
-        <f>VLOOKUP(category_assignment[[#This Row],[category]],category[[category_name_german]:[category_id(for SVERWEIS)]],5,FALSE)</f>
-        <v>5</v>
-      </c>
-      <c r="G121" s="10">
-        <f>VLOOKUP(category_assignment[[#This Row],[description_german]],abbreviation[[description_german]:[abbreviation_id(for SVERWEIS)]],4,FALSE)</f>
-        <v>129</v>
-      </c>
-      <c r="I121" s="5" t="str">
-        <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A119),LEN(CELL("dateiname",A119))-FIND("]",CELL("dateiname",A119)))&amp;" VALUES"&amp;" ("&amp;Tabelle8[[#This Row],[category_assignment_id]]&amp;","&amp;Tabelle8[[#This Row],[category_id]]&amp;","&amp;Tabelle8[[#This Row],[abbreviation_id]]&amp;");"</f>
-        <v>INSERT INTO category_assignment VALUES (118,5,129);</v>
-      </c>
+      <c r="A121" s="5"/>
+      <c r="F121" s="10"/>
+      <c r="G121" s="10"/>
+      <c r="I121" s="5"/>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="5">
-        <v>119</v>
-      </c>
-      <c r="B122" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="C122" s="5" t="s">
-        <v>389</v>
-      </c>
-      <c r="E122">
-        <f>category_assignment[[#This Row],[category_assignment_id]]</f>
-        <v>119</v>
-      </c>
-      <c r="F122" s="10">
-        <f>VLOOKUP(category_assignment[[#This Row],[category]],category[[category_name_german]:[category_id(for SVERWEIS)]],5,FALSE)</f>
-        <v>6</v>
-      </c>
-      <c r="G122" s="10">
-        <f>VLOOKUP(category_assignment[[#This Row],[description_german]],abbreviation[[description_german]:[abbreviation_id(for SVERWEIS)]],4,FALSE)</f>
-        <v>130</v>
-      </c>
-      <c r="I122" s="5" t="str">
-        <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A120),LEN(CELL("dateiname",A120))-FIND("]",CELL("dateiname",A120)))&amp;" VALUES"&amp;" ("&amp;Tabelle8[[#This Row],[category_assignment_id]]&amp;","&amp;Tabelle8[[#This Row],[category_id]]&amp;","&amp;Tabelle8[[#This Row],[abbreviation_id]]&amp;");"</f>
-        <v>INSERT INTO category_assignment VALUES (119,6,130);</v>
-      </c>
+      <c r="A122" s="5"/>
+      <c r="F122" s="10"/>
+      <c r="G122" s="10"/>
+      <c r="I122" s="5"/>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="5">
-        <v>120</v>
-      </c>
-      <c r="B123" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="C123" s="5" t="s">
-        <v>391</v>
-      </c>
-      <c r="E123">
-        <f>category_assignment[[#This Row],[category_assignment_id]]</f>
-        <v>120</v>
-      </c>
-      <c r="F123" s="10">
-        <f>VLOOKUP(category_assignment[[#This Row],[category]],category[[category_name_german]:[category_id(for SVERWEIS)]],5,FALSE)</f>
-        <v>6</v>
-      </c>
-      <c r="G123" s="10">
-        <f>VLOOKUP(category_assignment[[#This Row],[description_german]],abbreviation[[description_german]:[abbreviation_id(for SVERWEIS)]],4,FALSE)</f>
-        <v>131</v>
-      </c>
-      <c r="I123" s="5" t="str">
-        <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A121),LEN(CELL("dateiname",A121))-FIND("]",CELL("dateiname",A121)))&amp;" VALUES"&amp;" ("&amp;Tabelle8[[#This Row],[category_assignment_id]]&amp;","&amp;Tabelle8[[#This Row],[category_id]]&amp;","&amp;Tabelle8[[#This Row],[abbreviation_id]]&amp;");"</f>
-        <v>INSERT INTO category_assignment VALUES (120,6,131);</v>
-      </c>
+      <c r="A123" s="5"/>
+      <c r="F123" s="10"/>
+      <c r="G123" s="10"/>
+      <c r="I123" s="5"/>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="5">
-        <v>121</v>
-      </c>
-      <c r="B124" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="C124" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="E124">
-        <f>category_assignment[[#This Row],[category_assignment_id]]</f>
-        <v>121</v>
-      </c>
-      <c r="F124" s="10">
-        <f>VLOOKUP(category_assignment[[#This Row],[category]],category[[category_name_german]:[category_id(for SVERWEIS)]],5,FALSE)</f>
-        <v>6</v>
-      </c>
-      <c r="G124" s="10">
-        <f>VLOOKUP(category_assignment[[#This Row],[description_german]],abbreviation[[description_german]:[abbreviation_id(for SVERWEIS)]],4,FALSE)</f>
-        <v>132</v>
-      </c>
-      <c r="I124" s="5" t="str">
-        <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A122),LEN(CELL("dateiname",A122))-FIND("]",CELL("dateiname",A122)))&amp;" VALUES"&amp;" ("&amp;Tabelle8[[#This Row],[category_assignment_id]]&amp;","&amp;Tabelle8[[#This Row],[category_id]]&amp;","&amp;Tabelle8[[#This Row],[abbreviation_id]]&amp;");"</f>
-        <v>INSERT INTO category_assignment VALUES (121,6,132);</v>
-      </c>
+      <c r="A124" s="5"/>
+      <c r="F124" s="10"/>
+      <c r="G124" s="10"/>
+      <c r="I124" s="5"/>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="5">
-        <v>122</v>
-      </c>
-      <c r="B125" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="C125" s="5" t="s">
-        <v>395</v>
-      </c>
-      <c r="E125">
-        <f>category_assignment[[#This Row],[category_assignment_id]]</f>
-        <v>122</v>
-      </c>
-      <c r="F125" s="10">
-        <f>VLOOKUP(category_assignment[[#This Row],[category]],category[[category_name_german]:[category_id(for SVERWEIS)]],5,FALSE)</f>
-        <v>6</v>
-      </c>
-      <c r="G125" s="10">
-        <f>VLOOKUP(category_assignment[[#This Row],[description_german]],abbreviation[[description_german]:[abbreviation_id(for SVERWEIS)]],4,FALSE)</f>
-        <v>133</v>
-      </c>
-      <c r="I125" s="5" t="str">
-        <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A123),LEN(CELL("dateiname",A123))-FIND("]",CELL("dateiname",A123)))&amp;" VALUES"&amp;" ("&amp;Tabelle8[[#This Row],[category_assignment_id]]&amp;","&amp;Tabelle8[[#This Row],[category_id]]&amp;","&amp;Tabelle8[[#This Row],[abbreviation_id]]&amp;");"</f>
-        <v>INSERT INTO category_assignment VALUES (122,6,133);</v>
-      </c>
+      <c r="A125" s="5"/>
+      <c r="F125" s="10"/>
+      <c r="G125" s="10"/>
+      <c r="I125" s="5"/>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="5">
-        <v>123</v>
-      </c>
-      <c r="B126" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="C126" s="5" t="s">
-        <v>397</v>
-      </c>
-      <c r="E126">
-        <f>category_assignment[[#This Row],[category_assignment_id]]</f>
-        <v>123</v>
-      </c>
-      <c r="F126" s="10">
-        <f>VLOOKUP(category_assignment[[#This Row],[category]],category[[category_name_german]:[category_id(for SVERWEIS)]],5,FALSE)</f>
-        <v>6</v>
-      </c>
-      <c r="G126" s="10">
-        <f>VLOOKUP(category_assignment[[#This Row],[description_german]],abbreviation[[description_german]:[abbreviation_id(for SVERWEIS)]],4,FALSE)</f>
-        <v>134</v>
-      </c>
-      <c r="I126" s="5" t="str">
-        <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A124),LEN(CELL("dateiname",A124))-FIND("]",CELL("dateiname",A124)))&amp;" VALUES"&amp;" ("&amp;Tabelle8[[#This Row],[category_assignment_id]]&amp;","&amp;Tabelle8[[#This Row],[category_id]]&amp;","&amp;Tabelle8[[#This Row],[abbreviation_id]]&amp;");"</f>
-        <v>INSERT INTO category_assignment VALUES (123,6,134);</v>
-      </c>
+      <c r="A126" s="5"/>
+      <c r="F126" s="10"/>
+      <c r="G126" s="10"/>
+      <c r="I126" s="5"/>
     </row>
     <row r="127" spans="1:9">
-      <c r="A127" s="5">
-        <v>124</v>
-      </c>
-      <c r="B127" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="C127" s="5" t="s">
-        <v>399</v>
-      </c>
-      <c r="E127">
-        <f>category_assignment[[#This Row],[category_assignment_id]]</f>
-        <v>124</v>
-      </c>
-      <c r="F127" s="10">
-        <f>VLOOKUP(category_assignment[[#This Row],[category]],category[[category_name_german]:[category_id(for SVERWEIS)]],5,FALSE)</f>
-        <v>6</v>
-      </c>
-      <c r="G127" s="10">
-        <f>VLOOKUP(category_assignment[[#This Row],[description_german]],abbreviation[[description_german]:[abbreviation_id(for SVERWEIS)]],4,FALSE)</f>
-        <v>135</v>
-      </c>
-      <c r="I127" s="5" t="str">
-        <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A125),LEN(CELL("dateiname",A125))-FIND("]",CELL("dateiname",A125)))&amp;" VALUES"&amp;" ("&amp;Tabelle8[[#This Row],[category_assignment_id]]&amp;","&amp;Tabelle8[[#This Row],[category_id]]&amp;","&amp;Tabelle8[[#This Row],[abbreviation_id]]&amp;");"</f>
-        <v>INSERT INTO category_assignment VALUES (124,6,135);</v>
-      </c>
+      <c r="A127" s="5"/>
+      <c r="F127" s="10"/>
+      <c r="G127" s="10"/>
+      <c r="I127" s="5"/>
     </row>
     <row r="128" spans="1:9">
-      <c r="A128" s="5">
-        <v>125</v>
-      </c>
-      <c r="B128" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="C128" s="5" t="s">
-        <v>460</v>
-      </c>
-      <c r="E128">
-        <f>category_assignment[[#This Row],[category_assignment_id]]</f>
-        <v>125</v>
-      </c>
-      <c r="F128" s="10">
-        <f>VLOOKUP(category_assignment[[#This Row],[category]],category[[category_name_german]:[category_id(for SVERWEIS)]],5,FALSE)</f>
-        <v>7</v>
-      </c>
-      <c r="G128" s="10">
-        <f>VLOOKUP(category_assignment[[#This Row],[description_german]],abbreviation[[description_german]:[abbreviation_id(for SVERWEIS)]],4,FALSE)</f>
-        <v>166</v>
-      </c>
-      <c r="I128" s="5" t="str">
-        <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A126),LEN(CELL("dateiname",A126))-FIND("]",CELL("dateiname",A126)))&amp;" VALUES"&amp;" ("&amp;Tabelle8[[#This Row],[category_assignment_id]]&amp;","&amp;Tabelle8[[#This Row],[category_id]]&amp;","&amp;Tabelle8[[#This Row],[abbreviation_id]]&amp;");"</f>
-        <v>INSERT INTO category_assignment VALUES (125,7,166);</v>
-      </c>
+      <c r="A128" s="5"/>
+      <c r="F128" s="10"/>
+      <c r="G128" s="10"/>
+      <c r="I128" s="5"/>
     </row>
     <row r="129" spans="1:9">
-      <c r="A129" s="5">
-        <v>126</v>
-      </c>
-      <c r="B129" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="C129" s="5" t="s">
-        <v>462</v>
-      </c>
-      <c r="E129">
-        <f>category_assignment[[#This Row],[category_assignment_id]]</f>
-        <v>126</v>
-      </c>
-      <c r="F129" s="10">
-        <f>VLOOKUP(category_assignment[[#This Row],[category]],category[[category_name_german]:[category_id(for SVERWEIS)]],5,FALSE)</f>
-        <v>7</v>
-      </c>
-      <c r="G129" s="10">
-        <f>VLOOKUP(category_assignment[[#This Row],[description_german]],abbreviation[[description_german]:[abbreviation_id(for SVERWEIS)]],4,FALSE)</f>
-        <v>167</v>
-      </c>
-      <c r="I129" s="5" t="str">
-        <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A127),LEN(CELL("dateiname",A127))-FIND("]",CELL("dateiname",A127)))&amp;" VALUES"&amp;" ("&amp;Tabelle8[[#This Row],[category_assignment_id]]&amp;","&amp;Tabelle8[[#This Row],[category_id]]&amp;","&amp;Tabelle8[[#This Row],[abbreviation_id]]&amp;");"</f>
-        <v>INSERT INTO category_assignment VALUES (126,7,167);</v>
-      </c>
+      <c r="A129" s="5"/>
+      <c r="F129" s="10"/>
+      <c r="G129" s="10"/>
+      <c r="I129" s="5"/>
     </row>
     <row r="130" spans="1:9">
-      <c r="A130" s="5">
-        <v>127</v>
-      </c>
-      <c r="B130" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="C130" s="5" t="s">
-        <v>464</v>
-      </c>
-      <c r="E130">
-        <f>category_assignment[[#This Row],[category_assignment_id]]</f>
-        <v>127</v>
-      </c>
-      <c r="F130" s="10">
-        <f>VLOOKUP(category_assignment[[#This Row],[category]],category[[category_name_german]:[category_id(for SVERWEIS)]],5,FALSE)</f>
-        <v>7</v>
-      </c>
-      <c r="G130" s="10">
-        <f>VLOOKUP(category_assignment[[#This Row],[description_german]],abbreviation[[description_german]:[abbreviation_id(for SVERWEIS)]],4,FALSE)</f>
-        <v>168</v>
-      </c>
-      <c r="I130" s="5" t="str">
-        <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A128),LEN(CELL("dateiname",A128))-FIND("]",CELL("dateiname",A128)))&amp;" VALUES"&amp;" ("&amp;Tabelle8[[#This Row],[category_assignment_id]]&amp;","&amp;Tabelle8[[#This Row],[category_id]]&amp;","&amp;Tabelle8[[#This Row],[abbreviation_id]]&amp;");"</f>
-        <v>INSERT INTO category_assignment VALUES (127,7,168);</v>
-      </c>
+      <c r="A130" s="5"/>
+      <c r="F130" s="10"/>
+      <c r="G130" s="10"/>
+      <c r="I130" s="5"/>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="5">
-        <v>128</v>
-      </c>
-      <c r="B131" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="C131" s="5" t="s">
-        <v>466</v>
-      </c>
-      <c r="E131">
-        <f>category_assignment[[#This Row],[category_assignment_id]]</f>
-        <v>128</v>
-      </c>
-      <c r="F131" s="10">
-        <f>VLOOKUP(category_assignment[[#This Row],[category]],category[[category_name_german]:[category_id(for SVERWEIS)]],5,FALSE)</f>
-        <v>7</v>
-      </c>
-      <c r="G131" s="10">
-        <f>VLOOKUP(category_assignment[[#This Row],[description_german]],abbreviation[[description_german]:[abbreviation_id(for SVERWEIS)]],4,FALSE)</f>
-        <v>169</v>
-      </c>
-      <c r="I131" s="5" t="str">
-        <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A129),LEN(CELL("dateiname",A129))-FIND("]",CELL("dateiname",A129)))&amp;" VALUES"&amp;" ("&amp;Tabelle8[[#This Row],[category_assignment_id]]&amp;","&amp;Tabelle8[[#This Row],[category_id]]&amp;","&amp;Tabelle8[[#This Row],[abbreviation_id]]&amp;");"</f>
-        <v>INSERT INTO category_assignment VALUES (128,7,169);</v>
-      </c>
+      <c r="A131" s="5"/>
+      <c r="F131" s="10"/>
+      <c r="G131" s="10"/>
+      <c r="I131" s="5"/>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="5">
-        <v>129</v>
-      </c>
-      <c r="B132" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="C132" s="5" t="s">
-        <v>468</v>
-      </c>
-      <c r="E132">
-        <f>category_assignment[[#This Row],[category_assignment_id]]</f>
-        <v>129</v>
-      </c>
-      <c r="F132" s="10">
-        <f>VLOOKUP(category_assignment[[#This Row],[category]],category[[category_name_german]:[category_id(for SVERWEIS)]],5,FALSE)</f>
-        <v>7</v>
-      </c>
-      <c r="G132" s="10">
-        <f>VLOOKUP(category_assignment[[#This Row],[description_german]],abbreviation[[description_german]:[abbreviation_id(for SVERWEIS)]],4,FALSE)</f>
-        <v>170</v>
-      </c>
-      <c r="I132" s="5" t="str">
-        <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A130),LEN(CELL("dateiname",A130))-FIND("]",CELL("dateiname",A130)))&amp;" VALUES"&amp;" ("&amp;Tabelle8[[#This Row],[category_assignment_id]]&amp;","&amp;Tabelle8[[#This Row],[category_id]]&amp;","&amp;Tabelle8[[#This Row],[abbreviation_id]]&amp;");"</f>
-        <v>INSERT INTO category_assignment VALUES (129,7,170);</v>
-      </c>
+      <c r="A132" s="5"/>
+      <c r="F132" s="10"/>
+      <c r="G132" s="10"/>
+      <c r="I132" s="5"/>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="5">
-        <v>130</v>
-      </c>
-      <c r="B133" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="C133" s="5" t="s">
-        <v>470</v>
-      </c>
-      <c r="E133">
-        <f>category_assignment[[#This Row],[category_assignment_id]]</f>
-        <v>130</v>
-      </c>
-      <c r="F133" s="10">
-        <f>VLOOKUP(category_assignment[[#This Row],[category]],category[[category_name_german]:[category_id(for SVERWEIS)]],5,FALSE)</f>
-        <v>7</v>
-      </c>
-      <c r="G133" s="10">
-        <f>VLOOKUP(category_assignment[[#This Row],[description_german]],abbreviation[[description_german]:[abbreviation_id(for SVERWEIS)]],4,FALSE)</f>
-        <v>171</v>
-      </c>
-      <c r="I133" s="5" t="str">
-        <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A131),LEN(CELL("dateiname",A131))-FIND("]",CELL("dateiname",A131)))&amp;" VALUES"&amp;" ("&amp;Tabelle8[[#This Row],[category_assignment_id]]&amp;","&amp;Tabelle8[[#This Row],[category_id]]&amp;","&amp;Tabelle8[[#This Row],[abbreviation_id]]&amp;");"</f>
-        <v>INSERT INTO category_assignment VALUES (130,7,171);</v>
-      </c>
+      <c r="A133" s="5"/>
+      <c r="F133" s="10"/>
+      <c r="G133" s="10"/>
+      <c r="I133" s="5"/>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="5">
-        <v>131</v>
-      </c>
-      <c r="B134" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="C134" s="5" t="s">
-        <v>472</v>
-      </c>
-      <c r="E134">
-        <f>category_assignment[[#This Row],[category_assignment_id]]</f>
-        <v>131</v>
-      </c>
-      <c r="F134" s="10">
-        <f>VLOOKUP(category_assignment[[#This Row],[category]],category[[category_name_german]:[category_id(for SVERWEIS)]],5,FALSE)</f>
-        <v>7</v>
-      </c>
-      <c r="G134" s="10">
-        <f>VLOOKUP(category_assignment[[#This Row],[description_german]],abbreviation[[description_german]:[abbreviation_id(for SVERWEIS)]],4,FALSE)</f>
-        <v>172</v>
-      </c>
-      <c r="I134" s="5" t="str">
-        <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A132),LEN(CELL("dateiname",A132))-FIND("]",CELL("dateiname",A132)))&amp;" VALUES"&amp;" ("&amp;Tabelle8[[#This Row],[category_assignment_id]]&amp;","&amp;Tabelle8[[#This Row],[category_id]]&amp;","&amp;Tabelle8[[#This Row],[abbreviation_id]]&amp;");"</f>
-        <v>INSERT INTO category_assignment VALUES (131,7,172);</v>
-      </c>
+      <c r="A134" s="5"/>
+      <c r="F134" s="10"/>
+      <c r="G134" s="10"/>
+      <c r="I134" s="5"/>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="5">
-        <v>132</v>
-      </c>
-      <c r="B135" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="C135" s="5" t="s">
-        <v>474</v>
-      </c>
-      <c r="E135">
-        <f>category_assignment[[#This Row],[category_assignment_id]]</f>
-        <v>132</v>
-      </c>
-      <c r="F135" s="10">
-        <f>VLOOKUP(category_assignment[[#This Row],[category]],category[[category_name_german]:[category_id(for SVERWEIS)]],5,FALSE)</f>
-        <v>7</v>
-      </c>
-      <c r="G135" s="10">
-        <f>VLOOKUP(category_assignment[[#This Row],[description_german]],abbreviation[[description_german]:[abbreviation_id(for SVERWEIS)]],4,FALSE)</f>
-        <v>173</v>
-      </c>
-      <c r="I135" s="5" t="str">
-        <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A133),LEN(CELL("dateiname",A133))-FIND("]",CELL("dateiname",A133)))&amp;" VALUES"&amp;" ("&amp;Tabelle8[[#This Row],[category_assignment_id]]&amp;","&amp;Tabelle8[[#This Row],[category_id]]&amp;","&amp;Tabelle8[[#This Row],[abbreviation_id]]&amp;");"</f>
-        <v>INSERT INTO category_assignment VALUES (132,7,173);</v>
-      </c>
+      <c r="A135" s="5"/>
+      <c r="F135" s="10"/>
+      <c r="G135" s="10"/>
+      <c r="I135" s="5"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B135">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C77 C79:C80 C108:C115 C82:C94">
+      <formula1>description_german</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B108:B115 B3:B94">
       <formula1>category_name_german</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C135">
-      <formula1>description_german</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -11681,10 +11400,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Tabelle4"/>
   <dimension ref="A1:O208"/>
   <sheetViews>
-    <sheetView topLeftCell="A174" workbookViewId="0">
-      <selection activeCell="F200" sqref="F200"/>
+    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
+      <selection activeCell="D192" sqref="D192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -11703,45 +11423,45 @@
   <sheetData>
     <row r="1" spans="1:15" s="5" customFormat="1">
       <c r="E1" s="5" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B2" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C2" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="I2" t="s">
         <v>169</v>
       </c>
       <c r="J2" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="K2" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="L2" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="N2" s="5" t="str">
         <f ca="1">"CREATE TABLE "&amp;RIGHT(CELL("dateiname",A1),LEN(CELL("dateiname",A1))-FIND("]",CELL("dateiname",A1)))&amp;"("&amp;parent_children8[[#Headers],[parent_children_id]]&amp;" "&amp;E1&amp;","&amp;parent_children8[[#Headers],[parent_id]]&amp;" "&amp;F1&amp;","&amp;parent_children8[[#Headers],[children_id]]&amp;" "&amp;G1&amp;", PRIMARY KEY("&amp;parent_children8[[#Headers],[parent_children_id]]&amp;"))"</f>
@@ -11880,7 +11600,7 @@
         <v>34</v>
       </c>
       <c r="K6" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="L6" s="5" t="b">
         <f>IF(Tabelle2[[#This Row],[System]]&lt;&gt;"",VLOOKUP(Tabelle2[[#This Row],[System]],parent_children[[parent]:[children]],2,0))</f>
@@ -11914,7 +11634,7 @@
         <v>35</v>
       </c>
       <c r="K7" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="L7" s="5" t="b">
         <f>IF(Tabelle2[[#This Row],[System]]&lt;&gt;"",VLOOKUP(Tabelle2[[#This Row],[System]],parent_children[[parent]:[children]],2,0))</f>
@@ -11948,7 +11668,7 @@
         <v>36</v>
       </c>
       <c r="K8" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="L8" s="5" t="b">
         <f>IF(Tabelle2[[#This Row],[System]]&lt;&gt;"",VLOOKUP(Tabelle2[[#This Row],[System]],parent_children[[parent]:[children]],2,0))</f>
@@ -11982,7 +11702,7 @@
         <v>37</v>
       </c>
       <c r="K9" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="L9" s="5" t="b">
         <f>IF(Tabelle2[[#This Row],[System]]&lt;&gt;"",VLOOKUP(Tabelle2[[#This Row],[System]],parent_children[[parent]:[children]],2,0))</f>
@@ -12016,7 +11736,7 @@
         <v>38</v>
       </c>
       <c r="K10" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="L10" s="5" t="b">
         <f>IF(Tabelle2[[#This Row],[System]]&lt;&gt;"",VLOOKUP(Tabelle2[[#This Row],[System]],parent_children[[parent]:[children]],2,0))</f>
@@ -12050,7 +11770,7 @@
         <v>39</v>
       </c>
       <c r="K11" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="L11" s="5" t="b">
         <f>IF(Tabelle2[[#This Row],[System]]&lt;&gt;"",VLOOKUP(Tabelle2[[#This Row],[System]],parent_children[[parent]:[children]],2,0))</f>
@@ -12084,7 +11804,7 @@
         <v>40</v>
       </c>
       <c r="K12" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="L12" s="5" t="b">
         <f>IF(Tabelle2[[#This Row],[System]]&lt;&gt;"",VLOOKUP(Tabelle2[[#This Row],[System]],parent_children[[parent]:[children]],2,0))</f>
@@ -12118,7 +11838,7 @@
         <v>41</v>
       </c>
       <c r="K13" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="L13" s="5" t="b">
         <f>IF(Tabelle2[[#This Row],[System]]&lt;&gt;"",VLOOKUP(Tabelle2[[#This Row],[System]],parent_children[[parent]:[children]],2,0))</f>
@@ -12152,7 +11872,7 @@
         <v>42</v>
       </c>
       <c r="K14" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="L14" s="5" t="b">
         <f>IF(Tabelle2[[#This Row],[System]]&lt;&gt;"",VLOOKUP(Tabelle2[[#This Row],[System]],parent_children[[parent]:[children]],2,0))</f>
@@ -12186,7 +11906,7 @@
         <v>40</v>
       </c>
       <c r="K15" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="L15" s="5" t="b">
         <f>IF(Tabelle2[[#This Row],[System]]&lt;&gt;"",VLOOKUP(Tabelle2[[#This Row],[System]],parent_children[[parent]:[children]],2,0))</f>
@@ -12220,7 +11940,7 @@
         <v>41</v>
       </c>
       <c r="K16" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="L16" s="5" t="b">
         <f>IF(Tabelle2[[#This Row],[System]]&lt;&gt;"",VLOOKUP(Tabelle2[[#This Row],[System]],parent_children[[parent]:[children]],2,0))</f>
@@ -12254,7 +11974,7 @@
         <v>42</v>
       </c>
       <c r="K17" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="L17" s="5" t="b">
         <f>IF(Tabelle2[[#This Row],[System]]&lt;&gt;"",VLOOKUP(Tabelle2[[#This Row],[System]],parent_children[[parent]:[children]],2,0))</f>
@@ -12288,7 +12008,7 @@
         <v>40</v>
       </c>
       <c r="K18" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="L18" s="5" t="b">
         <f>IF(Tabelle2[[#This Row],[System]]&lt;&gt;"",VLOOKUP(Tabelle2[[#This Row],[System]],parent_children[[parent]:[children]],2,0))</f>
@@ -12322,7 +12042,7 @@
         <v>41</v>
       </c>
       <c r="K19" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="L19" s="5" t="b">
         <f>IF(Tabelle2[[#This Row],[System]]&lt;&gt;"",VLOOKUP(Tabelle2[[#This Row],[System]],parent_children[[parent]:[children]],2,0))</f>
@@ -12356,7 +12076,7 @@
         <v>42</v>
       </c>
       <c r="K20" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="L20" s="5" t="b">
         <f>IF(Tabelle2[[#This Row],[System]]&lt;&gt;"",VLOOKUP(Tabelle2[[#This Row],[System]],parent_children[[parent]:[children]],2,0))</f>
@@ -12390,7 +12110,7 @@
         <v>40</v>
       </c>
       <c r="K21" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="L21" s="5" t="b">
         <f>IF(Tabelle2[[#This Row],[System]]&lt;&gt;"",VLOOKUP(Tabelle2[[#This Row],[System]],parent_children[[parent]:[children]],2,0))</f>
@@ -12424,7 +12144,7 @@
         <v>41</v>
       </c>
       <c r="K22" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="L22" s="5" t="b">
         <f>IF(Tabelle2[[#This Row],[System]]&lt;&gt;"",VLOOKUP(Tabelle2[[#This Row],[System]],parent_children[[parent]:[children]],2,0))</f>
@@ -12458,7 +12178,7 @@
         <v>42</v>
       </c>
       <c r="K23" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="L23" s="5" t="b">
         <f>IF(Tabelle2[[#This Row],[System]]&lt;&gt;"",VLOOKUP(Tabelle2[[#This Row],[System]],parent_children[[parent]:[children]],2,0))</f>
@@ -12492,7 +12212,7 @@
         <v>43</v>
       </c>
       <c r="K24" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="L24" s="5" t="b">
         <f>IF(Tabelle2[[#This Row],[System]]&lt;&gt;"",VLOOKUP(Tabelle2[[#This Row],[System]],parent_children[[parent]:[children]],2,0))</f>
@@ -12526,7 +12246,7 @@
         <v>44</v>
       </c>
       <c r="K25" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="L25" s="5" t="b">
         <f>IF(Tabelle2[[#This Row],[System]]&lt;&gt;"",VLOOKUP(Tabelle2[[#This Row],[System]],parent_children[[parent]:[children]],2,0))</f>
@@ -12560,7 +12280,7 @@
         <v>45</v>
       </c>
       <c r="K26" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="L26" s="5" t="b">
         <f>IF(Tabelle2[[#This Row],[System]]&lt;&gt;"",VLOOKUP(Tabelle2[[#This Row],[System]],parent_children[[parent]:[children]],2,0))</f>
@@ -12576,10 +12296,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="E27" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -12603,10 +12323,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="E28" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -12630,10 +12350,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="E29" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -12657,10 +12377,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E30" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -12684,10 +12404,10 @@
         <v>29</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="E31" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -12711,10 +12431,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="E32" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -12738,10 +12458,10 @@
         <v>31</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="E33" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -12765,10 +12485,10 @@
         <v>32</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="E34" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -12792,10 +12512,10 @@
         <v>33</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="E35" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -12819,10 +12539,10 @@
         <v>34</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E36" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -12846,10 +12566,10 @@
         <v>35</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="E37" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -12873,10 +12593,10 @@
         <v>36</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="E38" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -12900,10 +12620,10 @@
         <v>37</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="E39" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -12927,10 +12647,10 @@
         <v>38</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="E40" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -12954,10 +12674,10 @@
         <v>39</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="E41" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -12981,10 +12701,10 @@
         <v>40</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="E42" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -13008,10 +12728,10 @@
         <v>41</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="E43" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -13035,10 +12755,10 @@
         <v>42</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="E44" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -13062,10 +12782,10 @@
         <v>43</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="E45" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -13089,10 +12809,10 @@
         <v>44</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="E46" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -13116,10 +12836,10 @@
         <v>45</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="E47" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -13143,10 +12863,10 @@
         <v>46</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="E48" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -13170,10 +12890,10 @@
         <v>47</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="E49" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -13197,10 +12917,10 @@
         <v>48</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="E50" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -13224,10 +12944,10 @@
         <v>49</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="E51" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -13251,10 +12971,10 @@
         <v>50</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="E52" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -13278,10 +12998,10 @@
         <v>51</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E53" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -13305,10 +13025,10 @@
         <v>52</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="E54" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -13332,10 +13052,10 @@
         <v>53</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>321</v>
+        <v>254</v>
+      </c>
+      <c r="C55" s="14" t="s">
+        <v>498</v>
       </c>
       <c r="E55" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -13345,13 +13065,13 @@
         <f>VLOOKUP(parent_children[[#This Row],[parent]],abbreviation[[description_german]:[abbreviation_id(for SVERWEIS)]],4,FALSE)</f>
         <v>63</v>
       </c>
-      <c r="G55" s="10" t="e">
-        <f>VLOOKUP(parent_children[[#This Row],[children]],abbreviation[[description_german]:[abbreviation_id(for SVERWEIS)]],4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N55" s="5" t="e">
+      <c r="G55" s="10">
+        <f>VLOOKUP(parent_children[[#This Row],[children]],abbreviation[[description_german]:[abbreviation_id(for SVERWEIS)]],4,FALSE)</f>
+        <v>94</v>
+      </c>
+      <c r="N55" s="5" t="str">
         <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A53),LEN(CELL("dateiname",A53))-FIND("]",CELL("dateiname",A53)))&amp;" VALUES"&amp;" ("&amp;parent_children8[[#This Row],[parent_children_id]]&amp;","&amp;parent_children8[[#This Row],[parent_id]]&amp;","&amp;parent_children8[[#This Row],[children_id]]&amp;");"</f>
-        <v>#N/A</v>
+        <v>INSERT INTO parent_children VALUES (53,63,94);</v>
       </c>
     </row>
     <row r="56" spans="1:14">
@@ -13359,10 +13079,10 @@
         <v>54</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="E56" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -13386,10 +13106,10 @@
         <v>55</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E57" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -13413,10 +13133,10 @@
         <v>56</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="E58" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -13440,10 +13160,10 @@
         <v>57</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="E59" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -13467,10 +13187,10 @@
         <v>58</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="E60" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -13494,10 +13214,10 @@
         <v>59</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="E61" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -13521,10 +13241,10 @@
         <v>60</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="E62" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -13551,7 +13271,7 @@
         <v>42</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="E63" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -13578,7 +13298,7 @@
         <v>42</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="E64" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -13632,7 +13352,7 @@
         <v>42</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="E66" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -13659,7 +13379,7 @@
         <v>42</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="E67" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -13713,7 +13433,7 @@
         <v>42</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="E69" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -13740,7 +13460,7 @@
         <v>42</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="E70" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -13767,7 +13487,7 @@
         <v>42</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="E71" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -13794,7 +13514,7 @@
         <v>42</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="E72" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -13821,7 +13541,7 @@
         <v>42</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="E73" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -13848,7 +13568,7 @@
         <v>42</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="E74" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -13875,7 +13595,7 @@
         <v>22</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="E75" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -13902,7 +13622,7 @@
         <v>22</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="E76" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -13929,7 +13649,7 @@
         <v>22</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="E77" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -13956,7 +13676,7 @@
         <v>22</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="E78" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -13983,7 +13703,7 @@
         <v>22</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="E79" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -14010,7 +13730,7 @@
         <v>22</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="E80" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -14037,7 +13757,7 @@
         <v>22</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="E81" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -14064,7 +13784,7 @@
         <v>22</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="E82" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -14091,7 +13811,7 @@
         <v>22</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="E83" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -14118,7 +13838,7 @@
         <v>22</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="E84" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -14142,10 +13862,10 @@
         <v>83</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="E85" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -14169,10 +13889,10 @@
         <v>84</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="E86" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -14196,10 +13916,10 @@
         <v>85</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="E87" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -14223,10 +13943,10 @@
         <v>86</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="E88" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -14250,10 +13970,10 @@
         <v>87</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="E89" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -14277,10 +13997,10 @@
         <v>88</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="E90" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -14304,10 +14024,10 @@
         <v>89</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="E91" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -14331,10 +14051,10 @@
         <v>90</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="E92" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -14358,10 +14078,10 @@
         <v>91</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="E93" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -14385,10 +14105,10 @@
         <v>92</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="E94" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -14412,10 +14132,10 @@
         <v>93</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="E95" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -14439,10 +14159,10 @@
         <v>94</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="E96" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -14466,10 +14186,10 @@
         <v>95</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="E97" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -14493,10 +14213,10 @@
         <v>96</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="E98" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -14520,10 +14240,10 @@
         <v>97</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="E99" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -14547,10 +14267,10 @@
         <v>98</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="E100" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -14574,10 +14294,10 @@
         <v>99</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="E101" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -14601,10 +14321,10 @@
         <v>100</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="E102" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -14628,10 +14348,10 @@
         <v>101</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="E103" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -14655,10 +14375,10 @@
         <v>102</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="E104" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -14682,10 +14402,10 @@
         <v>103</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="E105" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -14709,10 +14429,10 @@
         <v>104</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="E106" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -14736,10 +14456,10 @@
         <v>105</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="E107" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -14763,10 +14483,10 @@
         <v>106</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="E108" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -14790,10 +14510,10 @@
         <v>107</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="E109" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -14817,10 +14537,10 @@
         <v>108</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="E110" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -14844,10 +14564,10 @@
         <v>109</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="E111" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -14871,10 +14591,10 @@
         <v>110</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="E112" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -14898,10 +14618,10 @@
         <v>111</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="E113" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -14925,10 +14645,10 @@
         <v>112</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="E114" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -14952,10 +14672,10 @@
         <v>113</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="E115" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -14979,10 +14699,10 @@
         <v>114</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="E116" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -15006,10 +14726,10 @@
         <v>115</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="E117" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -15033,10 +14753,10 @@
         <v>116</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="E118" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -15060,10 +14780,10 @@
         <v>117</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="E119" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -15087,10 +14807,10 @@
         <v>118</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="E120" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -15114,10 +14834,10 @@
         <v>119</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="E121" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -15141,10 +14861,10 @@
         <v>120</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="E122" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -15168,10 +14888,10 @@
         <v>121</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="E123" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -15195,10 +14915,10 @@
         <v>122</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="E124" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -15222,10 +14942,10 @@
         <v>123</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="E125" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -15249,10 +14969,10 @@
         <v>124</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="E126" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -15276,10 +14996,10 @@
         <v>125</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="E127" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -15303,10 +15023,10 @@
         <v>126</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="E128" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -15330,10 +15050,10 @@
         <v>127</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="E129" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -15357,10 +15077,10 @@
         <v>128</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="E130" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -15384,10 +15104,10 @@
         <v>129</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="E131" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -15411,10 +15131,10 @@
         <v>130</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="E132" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -15438,10 +15158,10 @@
         <v>131</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="E133" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -15465,10 +15185,10 @@
         <v>132</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="E134" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -15492,10 +15212,10 @@
         <v>133</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="E135" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -15519,10 +15239,10 @@
         <v>134</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E136" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -15546,10 +15266,10 @@
         <v>135</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="E137" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -15573,10 +15293,10 @@
         <v>136</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="C138" s="5" t="s">
-        <v>321</v>
+        <v>386</v>
+      </c>
+      <c r="C138" s="14" t="s">
+        <v>498</v>
       </c>
       <c r="E138" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -15586,13 +15306,13 @@
         <f>VLOOKUP(parent_children[[#This Row],[parent]],abbreviation[[description_german]:[abbreviation_id(for SVERWEIS)]],4,FALSE)</f>
         <v>132</v>
       </c>
-      <c r="G138" s="10" t="e">
-        <f>VLOOKUP(parent_children[[#This Row],[children]],abbreviation[[description_german]:[abbreviation_id(for SVERWEIS)]],4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N138" s="5" t="e">
+      <c r="G138" s="10">
+        <f>VLOOKUP(parent_children[[#This Row],[children]],abbreviation[[description_german]:[abbreviation_id(for SVERWEIS)]],4,FALSE)</f>
+        <v>94</v>
+      </c>
+      <c r="N138" s="5" t="str">
         <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A136),LEN(CELL("dateiname",A136))-FIND("]",CELL("dateiname",A136)))&amp;" VALUES"&amp;" ("&amp;parent_children8[[#This Row],[parent_children_id]]&amp;","&amp;parent_children8[[#This Row],[parent_id]]&amp;","&amp;parent_children8[[#This Row],[children_id]]&amp;");"</f>
-        <v>#N/A</v>
+        <v>INSERT INTO parent_children VALUES (136,132,94);</v>
       </c>
     </row>
     <row r="139" spans="1:14">
@@ -15600,10 +15320,10 @@
         <v>137</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="E139" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -15627,10 +15347,10 @@
         <v>138</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E140" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -15654,10 +15374,10 @@
         <v>139</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="E141" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -15681,10 +15401,10 @@
         <v>140</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="E142" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -15708,10 +15428,10 @@
         <v>141</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="E143" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -15735,10 +15455,10 @@
         <v>142</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="E144" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -15762,10 +15482,10 @@
         <v>143</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="E145" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -15789,10 +15509,10 @@
         <v>144</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="E146" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -15816,10 +15536,10 @@
         <v>145</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="E147" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -15843,10 +15563,10 @@
         <v>146</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="E148" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -15870,10 +15590,10 @@
         <v>147</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="E149" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -15897,10 +15617,10 @@
         <v>148</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="E150" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -15924,10 +15644,10 @@
         <v>149</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="E151" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -15951,10 +15671,10 @@
         <v>150</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="E152" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -15978,10 +15698,10 @@
         <v>151</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="E153" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -16005,10 +15725,10 @@
         <v>152</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="E154" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -16032,10 +15752,10 @@
         <v>153</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="E155" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -16059,10 +15779,10 @@
         <v>154</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="E156" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -16086,10 +15806,10 @@
         <v>155</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="E157" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -16113,10 +15833,10 @@
         <v>156</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="E158" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -16140,10 +15860,10 @@
         <v>157</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="E159" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -16167,10 +15887,10 @@
         <v>158</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="E160" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -16194,10 +15914,10 @@
         <v>159</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="E161" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -16221,10 +15941,10 @@
         <v>160</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>321</v>
+        <v>498</v>
       </c>
       <c r="E162" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -16234,13 +15954,13 @@
         <f>VLOOKUP(parent_children[[#This Row],[parent]],abbreviation[[description_german]:[abbreviation_id(for SVERWEIS)]],4,FALSE)</f>
         <v>134</v>
       </c>
-      <c r="G162" s="10" t="e">
-        <f>VLOOKUP(parent_children[[#This Row],[children]],abbreviation[[description_german]:[abbreviation_id(for SVERWEIS)]],4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N162" s="5" t="e">
+      <c r="G162" s="10">
+        <f>VLOOKUP(parent_children[[#This Row],[children]],abbreviation[[description_german]:[abbreviation_id(for SVERWEIS)]],4,FALSE)</f>
+        <v>94</v>
+      </c>
+      <c r="N162" s="5" t="str">
         <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A160),LEN(CELL("dateiname",A160))-FIND("]",CELL("dateiname",A160)))&amp;" VALUES"&amp;" ("&amp;parent_children8[[#This Row],[parent_children_id]]&amp;","&amp;parent_children8[[#This Row],[parent_id]]&amp;","&amp;parent_children8[[#This Row],[children_id]]&amp;");"</f>
-        <v>#N/A</v>
+        <v>INSERT INTO parent_children VALUES (160,134,94);</v>
       </c>
     </row>
     <row r="163" spans="1:14">
@@ -16248,10 +15968,10 @@
         <v>161</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="E163" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -16275,10 +15995,10 @@
         <v>162</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E164" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -16302,10 +16022,10 @@
         <v>163</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="E165" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -16329,10 +16049,10 @@
         <v>164</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="E166" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -16356,10 +16076,10 @@
         <v>165</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="E167" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -16383,10 +16103,10 @@
         <v>166</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="E168" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -16410,10 +16130,10 @@
         <v>167</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="E169" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -16437,10 +16157,10 @@
         <v>168</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="E170" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -16464,10 +16184,10 @@
         <v>169</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="E171" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -16491,10 +16211,10 @@
         <v>170</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="E172" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -16518,10 +16238,10 @@
         <v>171</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="E173" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -16545,10 +16265,10 @@
         <v>172</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="E174" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -16572,10 +16292,10 @@
         <v>173</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="E175" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -16599,10 +16319,10 @@
         <v>174</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="C176" s="5" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="E176" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -16626,10 +16346,10 @@
         <v>175</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="E177" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -16653,10 +16373,10 @@
         <v>176</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="E178" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -16680,10 +16400,10 @@
         <v>177</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="E179" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -16707,10 +16427,10 @@
         <v>178</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="C180" s="5" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="E180" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -16734,10 +16454,10 @@
         <v>179</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="C181" s="5" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="E181" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -16761,10 +16481,10 @@
         <v>180</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="E182" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -16788,10 +16508,10 @@
         <v>181</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="E183" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -16815,10 +16535,10 @@
         <v>182</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="C184" s="5" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="E184" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -16842,10 +16562,10 @@
         <v>183</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="E185" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -16869,10 +16589,10 @@
         <v>184</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="C186" s="5" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="E186" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -16896,10 +16616,10 @@
         <v>185</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="E187" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -16923,10 +16643,10 @@
         <v>186</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="E188" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -16950,10 +16670,10 @@
         <v>187</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="C189" s="5" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="E189" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -16977,10 +16697,10 @@
         <v>188</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="E190" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -17004,10 +16724,10 @@
         <v>189</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="E191" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -17031,10 +16751,10 @@
         <v>190</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="E192" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -17058,10 +16778,10 @@
         <v>191</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="E193" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -17085,10 +16805,10 @@
         <v>192</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="E194" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -17112,10 +16832,10 @@
         <v>193</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="E195" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -17139,10 +16859,10 @@
         <v>194</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="E196" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -17166,10 +16886,10 @@
         <v>195</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="E197" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -17193,10 +16913,10 @@
         <v>196</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="C198" s="5" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="E198" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -17220,10 +16940,10 @@
         <v>197</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="E199" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -17247,10 +16967,10 @@
         <v>198</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="C200" s="5" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E200" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -17274,10 +16994,10 @@
         <v>199</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="C201" s="5" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="E201" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -17301,10 +17021,10 @@
         <v>200</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="C202" s="5" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="E202" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -17328,10 +17048,10 @@
         <v>201</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>399</v>
-      </c>
-      <c r="C203" s="5" t="s">
-        <v>321</v>
+        <v>392</v>
+      </c>
+      <c r="C203" s="14" t="s">
+        <v>498</v>
       </c>
       <c r="E203" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -17341,13 +17061,13 @@
         <f>VLOOKUP(parent_children[[#This Row],[parent]],abbreviation[[description_german]:[abbreviation_id(for SVERWEIS)]],4,FALSE)</f>
         <v>135</v>
       </c>
-      <c r="G203" s="10" t="e">
-        <f>VLOOKUP(parent_children[[#This Row],[children]],abbreviation[[description_german]:[abbreviation_id(for SVERWEIS)]],4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N203" s="5" t="e">
+      <c r="G203" s="10">
+        <f>VLOOKUP(parent_children[[#This Row],[children]],abbreviation[[description_german]:[abbreviation_id(for SVERWEIS)]],4,FALSE)</f>
+        <v>94</v>
+      </c>
+      <c r="N203" s="5" t="str">
         <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A201),LEN(CELL("dateiname",A201))-FIND("]",CELL("dateiname",A201)))&amp;" VALUES"&amp;" ("&amp;parent_children8[[#This Row],[parent_children_id]]&amp;","&amp;parent_children8[[#This Row],[parent_id]]&amp;","&amp;parent_children8[[#This Row],[children_id]]&amp;");"</f>
-        <v>#N/A</v>
+        <v>INSERT INTO parent_children VALUES (201,135,94);</v>
       </c>
     </row>
     <row r="204" spans="1:14">
@@ -17355,10 +17075,10 @@
         <v>202</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="C204" s="5" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="E204" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -17382,10 +17102,10 @@
         <v>203</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="C205" s="5" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E205" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -17409,10 +17129,10 @@
         <v>204</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="C206" s="5" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="E206" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -17436,10 +17156,10 @@
         <v>205</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="C207" s="5" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="E207" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -17463,10 +17183,10 @@
         <v>206</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="C208" s="5" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="E208" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -17502,6 +17222,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Tabelle5"/>
   <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -17518,7 +17239,7 @@
         <v>169</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -17834,6 +17555,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Tabelle6"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Excel-Table/BUDO_SQL_table.xlsx
+++ b/Excel-Table/BUDO_SQL_table.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18840" windowHeight="2910"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18840" windowHeight="2910" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="abbreviation" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1692" uniqueCount="833">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1692" uniqueCount="836">
   <si>
     <t>Betonkerntemperierung</t>
   </si>
@@ -600,9 +600,6 @@
     <t>comment</t>
   </si>
   <si>
-    <t>Data Point</t>
-  </si>
-  <si>
     <t>Function type</t>
   </si>
   <si>
@@ -684,9 +681,6 @@
     <t>Anlage</t>
   </si>
   <si>
-    <t>SY</t>
-  </si>
-  <si>
     <t>Gas</t>
   </si>
   <si>
@@ -1677,9 +1671,6 @@
     <t>Datenpunkt 2. Spezifizierung</t>
   </si>
   <si>
-    <t>Data Point 2nd specification</t>
-  </si>
-  <si>
     <t>DP2</t>
   </si>
   <si>
@@ -1701,9 +1692,6 @@
     <t>building automation system</t>
   </si>
   <si>
-    <t>building management system</t>
-  </si>
-  <si>
     <t>cooling tower</t>
   </si>
   <si>
@@ -2325,9 +2313,6 @@
     <t>SC</t>
   </si>
   <si>
-    <t>system</t>
-  </si>
-  <si>
     <t>combined heat and power</t>
   </si>
   <si>
@@ -2569,6 +2554,30 @@
   </si>
   <si>
     <t>glycol cooler</t>
+  </si>
+  <si>
+    <t>Gebäudemonitoringsystem</t>
+  </si>
+  <si>
+    <t>building monitoring system</t>
+  </si>
+  <si>
+    <t>EQ</t>
+  </si>
+  <si>
+    <t>equipment</t>
+  </si>
+  <si>
+    <t>Signaltyp</t>
+  </si>
+  <si>
+    <t>Signaltyp 2. Spezifizierung</t>
+  </si>
+  <si>
+    <t>Signal type</t>
+  </si>
+  <si>
+    <t>Signal type 2nd specification</t>
   </si>
 </sst>
 </file>
@@ -3270,8 +3279,8 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:I500"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A247" workbookViewId="0">
-      <selection activeCell="C262" sqref="C262"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3287,39 +3296,39 @@
   <sheetData>
     <row r="1" spans="1:9" s="5" customFormat="1">
       <c r="A1" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>457</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>457</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>458</v>
-      </c>
       <c r="E1" s="18" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C2" t="s">
         <v>183</v>
       </c>
-      <c r="C2" t="s">
-        <v>184</v>
-      </c>
       <c r="D2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>175</v>
       </c>
       <c r="F2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H2" t="str">
         <f ca="1">"CREATE TABLE IF NOT EXISTS "&amp;RIGHT(CELL("dateiname",A1),LEN(CELL("dateiname",A1))-FIND("]",CELL("dateiname",A1)))&amp;"("&amp;abbreviation[[#Headers],[abbreviation_id]]&amp;" "&amp;A1&amp;","&amp;abbreviation[[#Headers],[description_german]]&amp;" "&amp;B1&amp;","&amp;abbreviation[[#Headers],[description_english]]&amp;" "&amp;C1&amp;","&amp;abbreviation[[#Headers],[abbreviation_budo]]&amp;" "&amp;D1&amp;","&amp;abbreviation[[#Headers],[comment]]&amp;" "&amp;E1&amp;","&amp;" PRIMARY KEY("&amp;abbreviation[[#Headers],[abbreviation_id]]&amp;"))"&amp;";"</f>
@@ -3353,13 +3362,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>751</v>
+        <v>831</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>204</v>
+        <v>830</v>
       </c>
       <c r="F4" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -3367,7 +3376,7 @@
       </c>
       <c r="H4" s="18" t="str">
         <f ca="1">IF(abbreviation[[#This Row],[description_german]]&lt;&gt;"","INSERT INTO "&amp;RIGHT(CELL("dateiname",A2),LEN(CELL("dateiname",A2))-FIND("]",CELL("dateiname",A2)))&amp;" VALUES"&amp;" ("&amp;abbreviation[[#This Row],[abbreviation_id]]&amp;",'"&amp;abbreviation[[#This Row],[description_german]]&amp;"','"&amp;abbreviation[[#This Row],[description_english]]&amp;"','"&amp;abbreviation[[#This Row],[abbreviation_budo]]&amp;"','"&amp;abbreviation[[#This Row],[comment]]&amp;"');","")</f>
-        <v>INSERT INTO abbreviation VALUES (1,'Anlage','system','SY','');</v>
+        <v>INSERT INTO abbreviation VALUES (1,'Anlage','equipment','EQ','');</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3379,7 +3388,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>1</v>
@@ -3403,7 +3412,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>3</v>
@@ -3427,7 +3436,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>5</v>
@@ -3451,7 +3460,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>7</v>
@@ -3475,7 +3484,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>9</v>
@@ -3496,13 +3505,13 @@
         <v>7</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E10" s="22"/>
       <c r="F10" s="18">
@@ -3523,7 +3532,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>11</v>
@@ -3547,7 +3556,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>13</v>
@@ -3568,10 +3577,10 @@
         <v>10</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>14</v>
+        <v>828</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>543</v>
+        <v>829</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>15</v>
@@ -3583,7 +3592,7 @@
       </c>
       <c r="H13" s="18" t="str">
         <f ca="1">IF(abbreviation[[#This Row],[description_german]]&lt;&gt;"","INSERT INTO "&amp;RIGHT(CELL("dateiname",A11),LEN(CELL("dateiname",A11))-FIND("]",CELL("dateiname",A11)))&amp;" VALUES"&amp;" ("&amp;abbreviation[[#This Row],[abbreviation_id]]&amp;",'"&amp;abbreviation[[#This Row],[description_german]]&amp;"','"&amp;abbreviation[[#This Row],[description_english]]&amp;"','"&amp;abbreviation[[#This Row],[abbreviation_budo]]&amp;"','"&amp;abbreviation[[#This Row],[comment]]&amp;"');","")</f>
-        <v>INSERT INTO abbreviation VALUES (10,'Gebäudemanagementsystem','building management system','BMS','');</v>
+        <v>INSERT INTO abbreviation VALUES (10,'Gebäudemonitoringsystem','building monitoring system','BMS','');</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -3595,7 +3604,7 @@
         <v>16</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>17</v>
@@ -3619,7 +3628,7 @@
         <v>18</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>19</v>
@@ -3643,7 +3652,7 @@
         <v>20</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>21</v>
@@ -3667,7 +3676,7 @@
         <v>22</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>23</v>
@@ -3691,7 +3700,7 @@
         <v>24</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>25</v>
@@ -3712,13 +3721,13 @@
         <v>16</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E19" s="22"/>
       <c r="F19" s="18">
@@ -3736,13 +3745,13 @@
         <v>17</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E20" s="22"/>
       <c r="F20" s="18">
@@ -3763,7 +3772,7 @@
         <v>26</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>27</v>
@@ -3787,7 +3796,7 @@
         <v>28</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>29</v>
@@ -3811,7 +3820,7 @@
         <v>30</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>31</v>
@@ -3835,7 +3844,7 @@
         <v>32</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>33</v>
@@ -3859,7 +3868,7 @@
         <v>34</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>35</v>
@@ -3883,7 +3892,7 @@
         <v>36</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>37</v>
@@ -3907,7 +3916,7 @@
         <v>38</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>39</v>
@@ -3931,7 +3940,7 @@
         <v>40</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>41</v>
@@ -3955,10 +3964,10 @@
         <v>42</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="E29" s="22"/>
       <c r="F29" s="18">
@@ -3979,10 +3988,10 @@
         <v>43</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E30" s="22"/>
       <c r="F30" s="18">
@@ -4003,7 +4012,7 @@
         <v>44</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>45</v>
@@ -4024,13 +4033,13 @@
         <v>29</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E32" s="22"/>
       <c r="F32" s="18">
@@ -4048,13 +4057,13 @@
         <v>30</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E33" s="22"/>
       <c r="F33" s="18">
@@ -4075,7 +4084,7 @@
         <v>46</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>47</v>
@@ -4099,7 +4108,7 @@
         <v>48</v>
       </c>
       <c r="C35" s="22" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>49</v>
@@ -4123,7 +4132,7 @@
         <v>50</v>
       </c>
       <c r="C36" s="22" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="D36" s="6" t="s">
         <v>51</v>
@@ -4144,16 +4153,16 @@
         <v>34</v>
       </c>
       <c r="B37" s="26" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="C37" s="26" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="D37" s="22" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="E37" s="22" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="F37" s="23">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -4170,16 +4179,16 @@
         <v>35</v>
       </c>
       <c r="B38" s="26" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="C38" s="26" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="D38" s="22" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="E38" s="22" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="F38" s="23">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -4199,7 +4208,7 @@
         <v>52</v>
       </c>
       <c r="C39" s="22" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>53</v>
@@ -4223,7 +4232,7 @@
         <v>54</v>
       </c>
       <c r="C40" s="22" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>55</v>
@@ -4247,10 +4256,10 @@
         <v>56</v>
       </c>
       <c r="C41" s="22" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E41" s="22"/>
       <c r="F41" s="18">
@@ -4271,7 +4280,7 @@
         <v>57</v>
       </c>
       <c r="C42" s="25" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>58</v>
@@ -4295,10 +4304,10 @@
         <v>59</v>
       </c>
       <c r="C43" s="25" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E43" s="21"/>
       <c r="F43" s="18">
@@ -4316,10 +4325,10 @@
         <v>41</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
       <c r="C44" s="25" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>61</v>
@@ -4343,7 +4352,7 @@
         <v>62</v>
       </c>
       <c r="C45" s="25" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>63</v>
@@ -4367,7 +4376,7 @@
         <v>64</v>
       </c>
       <c r="C46" s="25" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="D46" s="5" t="s">
         <v>17</v>
@@ -4390,7 +4399,7 @@
         <v>65</v>
       </c>
       <c r="C47" s="25" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="D47" s="5" t="s">
         <v>51</v>
@@ -4413,7 +4422,7 @@
         <v>66</v>
       </c>
       <c r="C48" s="25" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="D48" s="5" t="s">
         <v>67</v>
@@ -4436,7 +4445,7 @@
         <v>68</v>
       </c>
       <c r="C49" s="25" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="D49" s="5" t="s">
         <v>55</v>
@@ -4459,7 +4468,7 @@
         <v>69</v>
       </c>
       <c r="C50" s="25" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="D50" s="5" t="s">
         <v>47</v>
@@ -4479,13 +4488,13 @@
         <v>48</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C51" s="25" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F51" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -4502,13 +4511,13 @@
         <v>49</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C52" s="25" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F52" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -4525,13 +4534,13 @@
         <v>50</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C53" s="25" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F53" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -4548,13 +4557,13 @@
         <v>51</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C54" s="25" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F54" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -4571,13 +4580,13 @@
         <v>52</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C55" s="25" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F55" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -4594,13 +4603,13 @@
         <v>53</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C56" s="25" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F56" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -4617,13 +4626,13 @@
         <v>54</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C57" s="25" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F57" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -4640,13 +4649,13 @@
         <v>55</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C58" s="25" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F58" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -4663,13 +4672,13 @@
         <v>56</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C59" s="25" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F59" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -4686,13 +4695,13 @@
         <v>57</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C60" s="25" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F60" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -4709,10 +4718,10 @@
         <v>58</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C61" s="25" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="D61" s="5" t="s">
         <v>55</v>
@@ -4732,13 +4741,13 @@
         <v>59</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C62" s="25" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F62" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -4755,13 +4764,13 @@
         <v>60</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C63" s="25" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F63" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -4778,13 +4787,13 @@
         <v>61</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C64" s="25" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F64" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -4801,13 +4810,13 @@
         <v>62</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C65" s="25" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F65" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -4824,13 +4833,13 @@
         <v>63</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C66" s="25" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F66" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -4847,13 +4856,13 @@
         <v>64</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C67" s="25" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F67" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -4870,13 +4879,13 @@
         <v>65</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C68" s="25" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F68" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -4893,13 +4902,13 @@
         <v>66</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C69" s="25" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F69" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -4916,13 +4925,13 @@
         <v>67</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C70" s="25" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F70" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -4939,13 +4948,13 @@
         <v>68</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C71" s="25" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F71" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -4962,13 +4971,13 @@
         <v>69</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C72" s="25" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F72" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -4985,13 +4994,13 @@
         <v>70</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C73" s="25" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F73" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -5008,13 +5017,13 @@
         <v>71</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C74" s="25" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F74" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -5031,13 +5040,13 @@
         <v>72</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C75" s="25" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="F75" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -5054,13 +5063,13 @@
         <v>73</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C76" s="25" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F76" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -5077,13 +5086,13 @@
         <v>74</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C77" s="25" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F77" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -5100,13 +5109,13 @@
         <v>75</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C78" s="25" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F78" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -5123,13 +5132,13 @@
         <v>76</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C79" s="25" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F79" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -5146,13 +5155,13 @@
         <v>77</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C80" s="25" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F80" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -5169,13 +5178,13 @@
         <v>78</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C81" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F81" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -5192,13 +5201,13 @@
         <v>79</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C82" s="25" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F82" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -5215,13 +5224,13 @@
         <v>80</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C83" s="25" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F83" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -5238,13 +5247,13 @@
         <v>81</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C84" s="25" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F84" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -5261,13 +5270,13 @@
         <v>82</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C85" s="25" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F85" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -5284,16 +5293,16 @@
         <v>83</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C86" s="25" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E86" s="18" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="F86" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -5310,13 +5319,13 @@
         <v>84</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C87" s="25" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F87" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -5333,13 +5342,13 @@
         <v>85</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C88" s="25" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F88" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -5356,13 +5365,13 @@
         <v>86</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C89" s="25" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F89" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -5379,13 +5388,13 @@
         <v>87</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C90" s="25" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F90" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -5402,13 +5411,13 @@
         <v>88</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C91" s="25" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F91" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -5425,13 +5434,13 @@
         <v>89</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C92" s="25" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F92" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -5448,13 +5457,13 @@
         <v>90</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C93" s="25" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F93" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -5471,13 +5480,13 @@
         <v>91</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C94" s="25" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F94" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -5494,13 +5503,13 @@
         <v>92</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C95" s="25" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F95" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -5517,13 +5526,13 @@
         <v>93</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C96" s="25" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F96" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -5540,13 +5549,13 @@
         <v>94</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C97" s="25" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F97" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -5563,13 +5572,13 @@
         <v>95</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C98" s="25" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F98" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -5586,13 +5595,13 @@
         <v>96</v>
       </c>
       <c r="B99" s="11" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C99" s="19" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F99" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -5609,16 +5618,16 @@
         <v>97</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C100" s="19" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E100" s="18" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="F100" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -5635,13 +5644,13 @@
         <v>98</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F101" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -5658,13 +5667,13 @@
         <v>99</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C102" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F102" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -5681,13 +5690,13 @@
         <v>100</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C103" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F103" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -5704,13 +5713,13 @@
         <v>101</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C104" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F104" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -5727,13 +5736,13 @@
         <v>102</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C105" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F105" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -5750,13 +5759,13 @@
         <v>103</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C106" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F106" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -5773,13 +5782,13 @@
         <v>104</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C107" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F107" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -5796,13 +5805,13 @@
         <v>105</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C108" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F108" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -5819,13 +5828,13 @@
         <v>106</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C109" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F109" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -5842,13 +5851,13 @@
         <v>107</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C110" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F110" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -5865,13 +5874,13 @@
         <v>108</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C111" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F111" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -5888,16 +5897,16 @@
         <v>109</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C112" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="E112" s="18" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="F112" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -5914,16 +5923,16 @@
         <v>110</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C113" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E113" s="18" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="F113" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -5940,16 +5949,16 @@
         <v>111</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C114" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E114" s="18" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="F114" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -5966,13 +5975,13 @@
         <v>112</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C115" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F115" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -5989,16 +5998,16 @@
         <v>113</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C116" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E116" s="18" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="F116" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -6015,16 +6024,16 @@
         <v>114</v>
       </c>
       <c r="B117" s="14" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="C117" s="13" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="D117" s="13" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="E117" s="13" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="F117" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -6041,16 +6050,16 @@
         <v>115</v>
       </c>
       <c r="B118" s="14" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="C118" s="13" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="D118" s="13" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="E118" s="13" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="F118" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -6067,16 +6076,16 @@
         <v>116</v>
       </c>
       <c r="B119" s="14" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="C119" s="14" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="D119" s="13" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="E119" s="13" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="F119" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -6093,16 +6102,16 @@
         <v>117</v>
       </c>
       <c r="B120" s="14" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="C120" s="14" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="D120" s="13" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="E120" s="13" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="F120" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -6119,16 +6128,16 @@
         <v>118</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C121" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E121" s="18" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="F121" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -6145,13 +6154,13 @@
         <v>119</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C122" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="F122" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -6168,16 +6177,16 @@
         <v>120</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C123" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="E123" s="18" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="F123" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -6194,16 +6203,16 @@
         <v>121</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C124" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="E124" s="18" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="F124" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -6220,16 +6229,16 @@
         <v>122</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C125" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="E125" s="18" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="F125" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -6246,16 +6255,16 @@
         <v>123</v>
       </c>
       <c r="B126" s="11" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C126" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="D126" s="12" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="E126" s="24" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="F126" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -6272,16 +6281,16 @@
         <v>124</v>
       </c>
       <c r="B127" s="14" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="C127" s="14" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="D127" s="27" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="E127" s="27" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="F127" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -6298,16 +6307,16 @@
         <v>125</v>
       </c>
       <c r="B128" s="14" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="C128" s="14" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="D128" s="27" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="E128" s="27" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="F128" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -6324,16 +6333,16 @@
         <v>126</v>
       </c>
       <c r="B129" s="14" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="C129" s="28" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="D129" s="27" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="E129" s="27" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="F129" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -6350,16 +6359,16 @@
         <v>127</v>
       </c>
       <c r="B130" s="14" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="C130" s="14" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="D130" s="27" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="E130" s="27" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="F130" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -6376,16 +6385,16 @@
         <v>128</v>
       </c>
       <c r="B131" s="14" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="C131" s="14" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="D131" s="27" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="E131" s="27" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="F131" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -6402,16 +6411,16 @@
         <v>129</v>
       </c>
       <c r="B132" s="14" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="C132" s="14" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="D132" s="27" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="E132" s="27" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="F132" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -6428,16 +6437,16 @@
         <v>130</v>
       </c>
       <c r="B133" s="14" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="C133" s="14" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="D133" s="27" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="E133" s="27" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="F133" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -6454,16 +6463,16 @@
         <v>131</v>
       </c>
       <c r="B134" s="14" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="C134" s="14" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="D134" s="27" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="E134" s="27" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="F134" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -6480,16 +6489,16 @@
         <v>132</v>
       </c>
       <c r="B135" s="28" t="s">
+        <v>729</v>
+      </c>
+      <c r="C135" s="14" t="s">
         <v>733</v>
       </c>
-      <c r="C135" s="14" t="s">
-        <v>737</v>
-      </c>
       <c r="D135" s="27" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="E135" s="27" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="F135" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -6506,13 +6515,13 @@
         <v>133</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C136" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F136" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -6529,13 +6538,13 @@
         <v>134</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C137" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="D137" s="5" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F137" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -6552,13 +6561,13 @@
         <v>135</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C138" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="D138" s="5" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F138" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -6575,13 +6584,13 @@
         <v>136</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C139" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="D139" s="5" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F139" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -6598,13 +6607,13 @@
         <v>137</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C140" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="D140" s="5" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F140" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -6621,13 +6630,13 @@
         <v>138</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C141" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="D141" s="5" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F141" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -6644,13 +6653,13 @@
         <v>139</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C142" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="D142" s="5" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="F142" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -6667,13 +6676,13 @@
         <v>140</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C143" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="D143" s="5" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="F143" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -6690,13 +6699,13 @@
         <v>141</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C144" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="D144" s="5" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F144" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -6713,13 +6722,13 @@
         <v>142</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C145" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="D145" s="5" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="F145" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -6736,13 +6745,13 @@
         <v>143</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C146" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="D146" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F146" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -6759,13 +6768,13 @@
         <v>144</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C147" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="D147" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F147" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -6782,13 +6791,13 @@
         <v>145</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C148" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="D148" s="5" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F148" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -6805,13 +6814,13 @@
         <v>146</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C149" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="D149" s="5" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="F149" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -6828,13 +6837,13 @@
         <v>147</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C150" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="D150" s="5" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="F150" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -6851,13 +6860,13 @@
         <v>148</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C151" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="D151" s="5" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="F151" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -6874,13 +6883,13 @@
         <v>149</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C152" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="D152" s="5" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="F152" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -6897,13 +6906,13 @@
         <v>150</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C153" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="D153" s="5" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="F153" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -6920,13 +6929,13 @@
         <v>151</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C154" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="D154" s="5" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="F154" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -6943,13 +6952,13 @@
         <v>152</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C155" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="D155" s="5" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="F155" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -6966,13 +6975,13 @@
         <v>153</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C156" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="D156" s="5" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="F156" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -6989,13 +6998,13 @@
         <v>154</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C157" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="D157" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F157" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -7012,13 +7021,13 @@
         <v>155</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C158" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="D158" s="5" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="F158" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -7035,13 +7044,13 @@
         <v>156</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C159" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="D159" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="F159" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -7058,13 +7067,13 @@
         <v>157</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C160" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="D160" s="5" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F160" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -7081,13 +7090,13 @@
         <v>158</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C161" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="D161" s="5" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F161" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -7104,13 +7113,13 @@
         <v>159</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C162" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="D162" s="5" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F162" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -7127,13 +7136,13 @@
         <v>160</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C163" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="D163" s="5" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F163" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -7150,13 +7159,13 @@
         <v>161</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C164" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="D164" s="5" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F164" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -7173,13 +7182,13 @@
         <v>162</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C165" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="D165" s="5" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F165" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -7196,13 +7205,13 @@
         <v>163</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C166" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="D166" s="5" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F166" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -7219,13 +7228,13 @@
         <v>164</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C167" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="D167" s="5" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F167" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -7242,13 +7251,13 @@
         <v>165</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C168" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="D168" s="5" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F168" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -7265,13 +7274,13 @@
         <v>166</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C169" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="D169" s="5" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F169" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -7288,13 +7297,13 @@
         <v>167</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C170" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="D170" s="5" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F170" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -7311,13 +7320,13 @@
         <v>168</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C171" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="D171" s="5" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F171" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -7334,13 +7343,13 @@
         <v>169</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C172" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="D172" s="5" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F172" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -7357,13 +7366,13 @@
         <v>170</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C173" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="D173" s="5" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F173" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -7380,13 +7389,13 @@
         <v>171</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C174" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="D174" s="5" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F174" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -7403,13 +7412,13 @@
         <v>172</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C175" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="D175" s="5" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F175" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -7426,13 +7435,13 @@
         <v>173</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C176" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="D176" s="5" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F176" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -7449,13 +7458,13 @@
         <v>174</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C177" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="D177" s="5" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F177" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -7472,13 +7481,13 @@
         <v>175</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C178" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="D178" s="5" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F178" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -7495,13 +7504,13 @@
         <v>176</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C179" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="D179" s="5" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F179" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -7518,13 +7527,13 @@
         <v>177</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C180" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="D180" s="5" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F180" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -7541,13 +7550,13 @@
         <v>178</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C181" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="D181" s="5" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F181" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -7564,13 +7573,13 @@
         <v>179</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C182" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="D182" s="5" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F182" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -7587,13 +7596,13 @@
         <v>180</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C183" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="D183" s="5" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F183" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -7610,13 +7619,13 @@
         <v>181</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C184" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="D184" s="5" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F184" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -7633,13 +7642,13 @@
         <v>182</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C185" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="D185" s="5" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F185" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -7656,13 +7665,13 @@
         <v>183</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C186" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="D186" s="5" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F186" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -7679,13 +7688,13 @@
         <v>184</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C187" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="D187" s="5" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="F187" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -7702,13 +7711,13 @@
         <v>185</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C188" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="D188" s="5" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F188" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -7725,13 +7734,13 @@
         <v>186</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C189" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="D189" s="5" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="F189" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -7748,13 +7757,13 @@
         <v>187</v>
       </c>
       <c r="B190" s="25" t="s">
+        <v>692</v>
+      </c>
+      <c r="C190" s="25" t="s">
         <v>696</v>
       </c>
-      <c r="C190" s="25" t="s">
-        <v>700</v>
-      </c>
       <c r="D190" s="18" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F190" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -7771,13 +7780,13 @@
         <v>188</v>
       </c>
       <c r="B191" s="25" t="s">
+        <v>693</v>
+      </c>
+      <c r="C191" s="25" t="s">
         <v>697</v>
       </c>
-      <c r="C191" s="25" t="s">
-        <v>701</v>
-      </c>
       <c r="D191" s="18" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F191" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -7794,13 +7803,13 @@
         <v>189</v>
       </c>
       <c r="B192" s="25" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="C192" s="25" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="D192" s="18" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F192" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -7817,13 +7826,13 @@
         <v>190</v>
       </c>
       <c r="B193" s="25" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="C193" s="25" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="D193" s="18" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F193" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -7846,7 +7855,7 @@
         <v>72</v>
       </c>
       <c r="D194" s="5" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="F194" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -8559,7 +8568,7 @@
         <v>164</v>
       </c>
       <c r="D225" s="5" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="F225" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -8576,13 +8585,13 @@
         <v>223</v>
       </c>
       <c r="B226" s="14" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C226" s="14" t="s">
+        <v>457</v>
+      </c>
+      <c r="D226" s="14" t="s">
         <v>459</v>
-      </c>
-      <c r="D226" s="14" t="s">
-        <v>461</v>
       </c>
       <c r="E226" s="14"/>
       <c r="F226" s="18">
@@ -8600,13 +8609,13 @@
         <v>224</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D227" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="F227" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -8623,13 +8632,13 @@
         <v>225</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D228" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F228" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -8646,13 +8655,13 @@
         <v>226</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D229" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="F229" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -8669,13 +8678,13 @@
         <v>227</v>
       </c>
       <c r="B230" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="C230" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="C230" s="1" t="s">
-        <v>469</v>
-      </c>
       <c r="D230" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="F230" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -8692,13 +8701,13 @@
         <v>228</v>
       </c>
       <c r="B231" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="D231" t="s">
         <v>473</v>
-      </c>
-      <c r="C231" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="D231" t="s">
-        <v>475</v>
       </c>
       <c r="F231" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -8715,13 +8724,13 @@
         <v>229</v>
       </c>
       <c r="B232" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="D232" t="s">
         <v>476</v>
-      </c>
-      <c r="C232" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="D232" t="s">
-        <v>478</v>
       </c>
       <c r="F232" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -8738,13 +8747,13 @@
         <v>230</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C233" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="D233" t="s">
         <v>479</v>
-      </c>
-      <c r="D233" t="s">
-        <v>481</v>
       </c>
       <c r="F233" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -8761,13 +8770,13 @@
         <v>231</v>
       </c>
       <c r="B234" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="D234" t="s">
         <v>482</v>
-      </c>
-      <c r="C234" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="D234" t="s">
-        <v>484</v>
       </c>
       <c r="F234" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -8784,13 +8793,13 @@
         <v>232</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C235" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="D235" t="s">
         <v>488</v>
-      </c>
-      <c r="D235" t="s">
-        <v>490</v>
       </c>
       <c r="F235" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -8807,13 +8816,13 @@
         <v>233</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D236" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="F236" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -8830,13 +8839,13 @@
         <v>234</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D237" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="F237" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -8853,13 +8862,13 @@
         <v>235</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D238" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F238" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -8876,13 +8885,13 @@
         <v>236</v>
       </c>
       <c r="B239" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="D239" t="s">
         <v>497</v>
-      </c>
-      <c r="C239" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="D239" t="s">
-        <v>499</v>
       </c>
       <c r="F239" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -8899,13 +8908,13 @@
         <v>237</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D240" s="5" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F240" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -8922,13 +8931,13 @@
         <v>238</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D241" s="5" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F241" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -8945,13 +8954,13 @@
         <v>239</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D242" s="5" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F242" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -8968,13 +8977,13 @@
         <v>240</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D243" s="5" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F243" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -8991,13 +9000,13 @@
         <v>241</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="D244" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="F244" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -9014,13 +9023,13 @@
         <v>242</v>
       </c>
       <c r="B245" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="D245" t="s">
         <v>517</v>
-      </c>
-      <c r="C245" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="D245" t="s">
-        <v>519</v>
       </c>
       <c r="F245" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -9037,13 +9046,13 @@
         <v>243</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D246" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="F246" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -9060,13 +9069,13 @@
         <v>244</v>
       </c>
       <c r="B247" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="C247" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="C247" s="1" t="s">
-        <v>525</v>
-      </c>
       <c r="D247" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="F247" s="18">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -9083,16 +9092,16 @@
         <v>245</v>
       </c>
       <c r="B248" s="14" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="C248" s="14" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="D248" s="13" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="E248" s="13" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="F248" s="23">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -9109,13 +9118,13 @@
         <v>246</v>
       </c>
       <c r="B249" s="25" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="C249" s="25" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
       <c r="D249" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="F249" s="23">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -9132,13 +9141,13 @@
         <v>247</v>
       </c>
       <c r="B250" s="25" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="C250" s="25" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
       <c r="D250" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="F250" s="23">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -9155,13 +9164,13 @@
         <v>248</v>
       </c>
       <c r="B251" s="25" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="C251" s="25" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="D251" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="F251" s="23">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -9178,13 +9187,13 @@
         <v>249</v>
       </c>
       <c r="B252" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="C252" s="26" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
       <c r="D252" s="22" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="F252" s="23">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -9201,13 +9210,13 @@
         <v>250</v>
       </c>
       <c r="B253" s="25" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="C253" s="25" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="D253" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F253" s="23">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -9224,13 +9233,13 @@
         <v>251</v>
       </c>
       <c r="B254" s="22" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="C254" s="22" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D254" s="22" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F254" s="23">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -9247,13 +9256,13 @@
         <v>252</v>
       </c>
       <c r="B255" s="14" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="C255" s="25" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="D255" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="F255" s="23">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -9270,13 +9279,13 @@
         <v>253</v>
       </c>
       <c r="B256" s="25" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="C256" s="25" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="D256" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="F256" s="23">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -9293,13 +9302,13 @@
         <v>254</v>
       </c>
       <c r="B257" s="25" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="C257" s="25" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="D257" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="F257" s="23">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -9316,13 +9325,13 @@
         <v>255</v>
       </c>
       <c r="B258" s="25" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="C258" s="25" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="D258" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="F258" s="23">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -9339,13 +9348,13 @@
         <v>256</v>
       </c>
       <c r="B259" s="25" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="C259" s="25" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="D259" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="F259" s="23">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -9362,13 +9371,13 @@
         <v>257</v>
       </c>
       <c r="B260" s="25" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="C260" s="25" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="D260" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="F260" s="23">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -9385,13 +9394,13 @@
         <v>258</v>
       </c>
       <c r="B261" s="25" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="C261" s="25" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="D261" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="F261" s="23">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -9408,13 +9417,13 @@
         <v>259</v>
       </c>
       <c r="B262" s="25" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="C262" s="25" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="D262" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="F262" s="23">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -9431,13 +9440,13 @@
         <v>260</v>
       </c>
       <c r="B263" s="29" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
       <c r="C263" s="30" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="D263" s="22" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F263" s="23">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -9454,13 +9463,13 @@
         <v>261</v>
       </c>
       <c r="B264" s="25" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="C264" s="25" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="D264" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="F264" s="23">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -9477,16 +9486,16 @@
         <v>262</v>
       </c>
       <c r="B265" s="25" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="C265" s="25" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
       <c r="D265" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="E265" s="18" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="F265" s="23">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -9503,16 +9512,16 @@
         <v>263</v>
       </c>
       <c r="B266" s="25" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="C266" s="25" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
       <c r="D266" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E266" s="18" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="F266" s="23">
         <f>abbreviation[[#This Row],[abbreviation_id]]</f>
@@ -12402,8 +12411,8 @@
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -12419,19 +12428,19 @@
   <sheetData>
     <row r="1" spans="1:9" s="5" customFormat="1">
       <c r="A1" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>197</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -12445,13 +12454,13 @@
         <v>168</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>175</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H2" t="str">
         <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(I2,"[","("),"]",")"),"INTEGER[10]","INT")&amp;";"</f>
@@ -12495,7 +12504,7 @@
         <v>172</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="F4" s="6">
         <f>category[[#This Row],[category_id]]</f>
@@ -12521,7 +12530,7 @@
         <v>173</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="F5" s="6">
         <f>category[[#This Row],[category_id]]</f>
@@ -12547,7 +12556,7 @@
         <v>174</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="F6" s="6">
         <f>category[[#This Row],[category_id]]</f>
@@ -12564,16 +12573,16 @@
         <v>4</v>
       </c>
       <c r="B7" s="13" t="s">
+        <v>525</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>527</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="D7" s="13" t="s">
+        <v>528</v>
+      </c>
+      <c r="E7" s="13" t="s">
         <v>529</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>530</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>531</v>
       </c>
       <c r="F7" s="17">
         <f>category[[#This Row],[category_id]]</f>
@@ -12590,16 +12599,16 @@
         <v>5</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="F8" s="17">
         <f>category[[#This Row],[category_id]]</f>
@@ -12616,16 +12625,16 @@
         <v>6</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>170</v>
+        <v>832</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>176</v>
+        <v>834</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="F9" s="16">
         <f>category[[#This Row],[category_id]]</f>
@@ -12633,7 +12642,7 @@
       </c>
       <c r="H9" s="5" t="str">
         <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A7),LEN(CELL("dateiname",A7))-FIND("]",CELL("dateiname",A7)))&amp;" VALUES"&amp;" ("&amp;category[[#This Row],[category_id]]&amp;",'"&amp;category[[#This Row],[category_name_german]]&amp;"','"&amp;category[[#This Row],[category_name_english]]&amp;"','"&amp;category[[#This Row],[abbreviation_category_budo]]&amp;"','"&amp;category[[#This Row],[comment]]&amp;"');"</f>
-        <v>INSERT INTO category VALUES (6,'Datenpunkt','Data Point','DP','not used as abbreviation');</v>
+        <v>INSERT INTO category VALUES (6,'Signaltyp','Signal type','DP','not used as abbreviation');</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -12642,16 +12651,16 @@
         <v>7</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>534</v>
+        <v>833</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>535</v>
+        <v>835</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="F10" s="17">
         <f>category[[#This Row],[category_id]]</f>
@@ -12659,7 +12668,7 @@
       </c>
       <c r="H10" s="5" t="str">
         <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A8),LEN(CELL("dateiname",A8))-FIND("]",CELL("dateiname",A8)))&amp;" VALUES"&amp;" ("&amp;category[[#This Row],[category_id]]&amp;",'"&amp;category[[#This Row],[category_name_german]]&amp;"','"&amp;category[[#This Row],[category_name_english]]&amp;"','"&amp;category[[#This Row],[abbreviation_category_budo]]&amp;"','"&amp;category[[#This Row],[comment]]&amp;"');"</f>
-        <v>INSERT INTO category VALUES (7,'Datenpunkt 2. Spezifizierung','Data Point 2nd specification','DP2','not used as abbreviation');</v>
+        <v>INSERT INTO category VALUES (7,'Signaltyp 2. Spezifizierung','Signal type 2nd specification','DP2','not used as abbreviation');</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -12671,13 +12680,13 @@
         <v>171</v>
       </c>
       <c r="C11" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>178</v>
-      </c>
       <c r="E11" s="6" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="F11" s="16">
         <f>category[[#This Row],[category_id]]</f>
@@ -12700,7 +12709,7 @@
         <v>72</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="16">
@@ -13444,7 +13453,7 @@
         <v>164</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="E43" s="6"/>
       <c r="F43" s="15">
@@ -13462,16 +13471,16 @@
         <v>41</v>
       </c>
       <c r="B44" s="22" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="C44" s="22" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D44" s="22" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="E44" s="22" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="F44" s="16">
         <f>category[[#This Row],[category_id]]</f>
@@ -13544,8 +13553,8 @@
   <sheetPr codeName="Tabelle3"/>
   <dimension ref="A1:J155"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="B125" sqref="B125:C125"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -13563,13 +13572,13 @@
   <sheetData>
     <row r="1" spans="1:10" s="5" customFormat="1">
       <c r="E1" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I1" s="5" t="str">
         <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(J1,"[","("),"]",")"),"INTEGER[10]","INT")&amp;";"</f>
@@ -13582,22 +13591,22 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C2" t="s">
         <v>182</v>
       </c>
-      <c r="C2" t="s">
-        <v>183</v>
-      </c>
       <c r="E2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F2" t="s">
         <v>70</v>
       </c>
       <c r="G2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:10" hidden="1">
@@ -13630,7 +13639,7 @@
         <v>166</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E4" s="5">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
@@ -13798,7 +13807,7 @@
         <v>166</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E10" s="5">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
@@ -13892,13 +13901,13 @@
         <f>VLOOKUP(category_assignment[[#This Row],[category]],category[[category_name_german]:[category_id(for SVERWEIS)]],5,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="G13">
+      <c r="G13" t="e">
         <f>VLOOKUP(category_assignment[[#This Row],[description_german]],abbreviation[[description_german]:[abbreviation_id(for SVERWEIS)]],5,FALSE)</f>
-        <v>10</v>
-      </c>
-      <c r="I13" s="5" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="I13" s="5" t="e">
         <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A11),LEN(CELL("dateiname",A11))-FIND("]",CELL("dateiname",A11)))&amp;" VALUES"&amp;" ("&amp;Tabelle8[[#This Row],[category_assignment_id]]&amp;","&amp;Tabelle8[[#This Row],[category_id]]&amp;","&amp;Tabelle8[[#This Row],[abbreviation_id]]&amp;");"</f>
-        <v>INSERT INTO category_assignment VALUES (10,1,10);</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -14050,7 +14059,7 @@
         <v>166</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E19" s="5">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
@@ -14078,7 +14087,7 @@
         <v>166</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E20" s="5">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
@@ -14414,7 +14423,7 @@
         <v>166</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E32">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
@@ -14442,7 +14451,7 @@
         <v>166</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E33">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
@@ -14470,7 +14479,7 @@
         <v>167</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E34">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
@@ -14498,7 +14507,7 @@
         <v>167</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E35">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
@@ -14554,7 +14563,7 @@
         <v>167</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E37">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
@@ -14582,7 +14591,7 @@
         <v>167</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E38">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
@@ -14610,7 +14619,7 @@
         <v>167</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E39">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
@@ -14638,7 +14647,7 @@
         <v>167</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E40">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
@@ -14666,7 +14675,7 @@
         <v>167</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E41">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
@@ -14722,7 +14731,7 @@
         <v>167</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E43">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
@@ -14750,7 +14759,7 @@
         <v>167</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E44">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
@@ -14778,7 +14787,7 @@
         <v>167</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E45">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
@@ -14806,7 +14815,7 @@
         <v>167</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E46">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
@@ -14834,7 +14843,7 @@
         <v>167</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E47">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
@@ -14862,7 +14871,7 @@
         <v>167</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E48">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
@@ -14890,7 +14899,7 @@
         <v>167</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E49">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
@@ -14918,7 +14927,7 @@
         <v>167</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E50">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
@@ -14974,7 +14983,7 @@
         <v>167</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E52">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
@@ -15002,7 +15011,7 @@
         <v>167</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E53">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
@@ -15030,7 +15039,7 @@
         <v>167</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E54">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
@@ -15058,7 +15067,7 @@
         <v>167</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E55">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
@@ -15114,7 +15123,7 @@
         <v>167</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E57">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
@@ -15142,7 +15151,7 @@
         <v>167</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E58">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
@@ -15198,7 +15207,7 @@
         <v>167</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E60">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
@@ -15226,7 +15235,7 @@
         <v>167</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E61">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
@@ -15254,7 +15263,7 @@
         <v>167</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E62">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
@@ -15282,7 +15291,7 @@
         <v>167</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E63">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
@@ -15310,7 +15319,7 @@
         <v>167</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E64">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
@@ -15366,7 +15375,7 @@
         <v>167</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E66">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
@@ -15394,7 +15403,7 @@
         <v>169</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E67">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
@@ -15422,7 +15431,7 @@
         <v>169</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E68">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
@@ -15450,7 +15459,7 @@
         <v>169</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E69">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
@@ -15478,7 +15487,7 @@
         <v>169</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E70">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
@@ -15506,7 +15515,7 @@
         <v>169</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E71">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
@@ -15562,7 +15571,7 @@
         <v>169</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E73">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
@@ -15618,7 +15627,7 @@
         <v>169</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E75">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
@@ -15671,10 +15680,10 @@
         <v>74</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E77">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
@@ -15699,10 +15708,10 @@
         <v>75</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C78" s="13" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E78">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
@@ -15727,10 +15736,10 @@
         <v>76</v>
       </c>
       <c r="B79" s="13" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E79">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
@@ -15755,10 +15764,10 @@
         <v>77</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C80" s="13" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E80">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
@@ -15783,10 +15792,10 @@
         <v>78</v>
       </c>
       <c r="B81" s="13" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C81" s="13" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E81">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
@@ -15811,10 +15820,10 @@
         <v>79</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C82" s="13" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E82">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
@@ -15839,10 +15848,10 @@
         <v>80</v>
       </c>
       <c r="B83" s="13" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C83" s="13" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E83">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
@@ -15867,10 +15876,10 @@
         <v>81</v>
       </c>
       <c r="B84" s="13" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C84" s="13" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E84">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
@@ -15895,10 +15904,10 @@
         <v>82</v>
       </c>
       <c r="B85" s="13" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C85" s="13" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E85">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
@@ -15923,10 +15932,10 @@
         <v>83</v>
       </c>
       <c r="B86" s="13" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C86" s="13" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E86">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
@@ -15951,10 +15960,10 @@
         <v>84</v>
       </c>
       <c r="B87" s="13" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C87" s="13" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E87">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
@@ -15979,10 +15988,10 @@
         <v>85</v>
       </c>
       <c r="B88" s="13" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C88" s="13" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E88">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
@@ -16010,23 +16019,23 @@
         <v>170</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E89">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
         <v>86</v>
       </c>
-      <c r="F89" s="10">
+      <c r="F89" s="10" t="e">
         <f>VLOOKUP(category_assignment[[#This Row],[category]],category[[category_name_german]:[category_id(for SVERWEIS)]],5,FALSE)</f>
-        <v>6</v>
+        <v>#N/A</v>
       </c>
       <c r="G89" s="10">
         <f>VLOOKUP(category_assignment[[#This Row],[description_german]],abbreviation[[description_german]:[abbreviation_id(for SVERWEIS)]],5,FALSE)</f>
         <v>143</v>
       </c>
-      <c r="I89" s="5" t="str">
+      <c r="I89" s="5" t="e">
         <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A87),LEN(CELL("dateiname",A87))-FIND("]",CELL("dateiname",A87)))&amp;" VALUES"&amp;" ("&amp;Tabelle8[[#This Row],[category_assignment_id]]&amp;","&amp;Tabelle8[[#This Row],[category_id]]&amp;","&amp;Tabelle8[[#This Row],[abbreviation_id]]&amp;");"</f>
-        <v>INSERT INTO category_assignment VALUES (86,6,143);</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -16038,23 +16047,23 @@
         <v>170</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E90">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
         <v>87</v>
       </c>
-      <c r="F90" s="10">
+      <c r="F90" s="10" t="e">
         <f>VLOOKUP(category_assignment[[#This Row],[category]],category[[category_name_german]:[category_id(for SVERWEIS)]],5,FALSE)</f>
-        <v>6</v>
+        <v>#N/A</v>
       </c>
       <c r="G90" s="10">
         <f>VLOOKUP(category_assignment[[#This Row],[description_german]],abbreviation[[description_german]:[abbreviation_id(for SVERWEIS)]],5,FALSE)</f>
         <v>144</v>
       </c>
-      <c r="I90" s="5" t="str">
+      <c r="I90" s="5" t="e">
         <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A88),LEN(CELL("dateiname",A88))-FIND("]",CELL("dateiname",A88)))&amp;" VALUES"&amp;" ("&amp;Tabelle8[[#This Row],[category_assignment_id]]&amp;","&amp;Tabelle8[[#This Row],[category_id]]&amp;","&amp;Tabelle8[[#This Row],[abbreviation_id]]&amp;");"</f>
-        <v>INSERT INTO category_assignment VALUES (87,6,144);</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -16066,23 +16075,23 @@
         <v>170</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E91">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
         <v>88</v>
       </c>
-      <c r="F91" s="10">
+      <c r="F91" s="10" t="e">
         <f>VLOOKUP(category_assignment[[#This Row],[category]],category[[category_name_german]:[category_id(for SVERWEIS)]],5,FALSE)</f>
-        <v>6</v>
+        <v>#N/A</v>
       </c>
       <c r="G91" s="10">
         <f>VLOOKUP(category_assignment[[#This Row],[description_german]],abbreviation[[description_german]:[abbreviation_id(for SVERWEIS)]],5,FALSE)</f>
         <v>145</v>
       </c>
-      <c r="I91" s="5" t="str">
+      <c r="I91" s="5" t="e">
         <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A89),LEN(CELL("dateiname",A89))-FIND("]",CELL("dateiname",A89)))&amp;" VALUES"&amp;" ("&amp;Tabelle8[[#This Row],[category_assignment_id]]&amp;","&amp;Tabelle8[[#This Row],[category_id]]&amp;","&amp;Tabelle8[[#This Row],[abbreviation_id]]&amp;");"</f>
-        <v>INSERT INTO category_assignment VALUES (88,6,145);</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -16094,23 +16103,23 @@
         <v>170</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E92">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
         <v>89</v>
       </c>
-      <c r="F92" s="10">
+      <c r="F92" s="10" t="e">
         <f>VLOOKUP(category_assignment[[#This Row],[category]],category[[category_name_german]:[category_id(for SVERWEIS)]],5,FALSE)</f>
-        <v>6</v>
+        <v>#N/A</v>
       </c>
       <c r="G92" s="10">
         <f>VLOOKUP(category_assignment[[#This Row],[description_german]],abbreviation[[description_german]:[abbreviation_id(for SVERWEIS)]],5,FALSE)</f>
         <v>146</v>
       </c>
-      <c r="I92" s="5" t="str">
+      <c r="I92" s="5" t="e">
         <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A90),LEN(CELL("dateiname",A90))-FIND("]",CELL("dateiname",A90)))&amp;" VALUES"&amp;" ("&amp;Tabelle8[[#This Row],[category_assignment_id]]&amp;","&amp;Tabelle8[[#This Row],[category_id]]&amp;","&amp;Tabelle8[[#This Row],[abbreviation_id]]&amp;");"</f>
-        <v>INSERT INTO category_assignment VALUES (89,6,146);</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -16122,23 +16131,23 @@
         <v>170</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E93">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
         <v>90</v>
       </c>
-      <c r="F93" s="10">
+      <c r="F93" s="10" t="e">
         <f>VLOOKUP(category_assignment[[#This Row],[category]],category[[category_name_german]:[category_id(for SVERWEIS)]],5,FALSE)</f>
-        <v>6</v>
+        <v>#N/A</v>
       </c>
       <c r="G93" s="10">
         <f>VLOOKUP(category_assignment[[#This Row],[description_german]],abbreviation[[description_german]:[abbreviation_id(for SVERWEIS)]],5,FALSE)</f>
         <v>147</v>
       </c>
-      <c r="I93" s="5" t="str">
+      <c r="I93" s="5" t="e">
         <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A91),LEN(CELL("dateiname",A91))-FIND("]",CELL("dateiname",A91)))&amp;" VALUES"&amp;" ("&amp;Tabelle8[[#This Row],[category_assignment_id]]&amp;","&amp;Tabelle8[[#This Row],[category_id]]&amp;","&amp;Tabelle8[[#This Row],[abbreviation_id]]&amp;");"</f>
-        <v>INSERT INTO category_assignment VALUES (90,6,147);</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -16150,23 +16159,23 @@
         <v>170</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E94">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
         <v>91</v>
       </c>
-      <c r="F94" s="10">
+      <c r="F94" s="10" t="e">
         <f>VLOOKUP(category_assignment[[#This Row],[category]],category[[category_name_german]:[category_id(for SVERWEIS)]],5,FALSE)</f>
-        <v>6</v>
+        <v>#N/A</v>
       </c>
       <c r="G94" s="10">
         <f>VLOOKUP(category_assignment[[#This Row],[description_german]],abbreviation[[description_german]:[abbreviation_id(for SVERWEIS)]],5,FALSE)</f>
         <v>148</v>
       </c>
-      <c r="I94" s="5" t="str">
+      <c r="I94" s="5" t="e">
         <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A92),LEN(CELL("dateiname",A92))-FIND("]",CELL("dateiname",A92)))&amp;" VALUES"&amp;" ("&amp;Tabelle8[[#This Row],[category_assignment_id]]&amp;","&amp;Tabelle8[[#This Row],[category_id]]&amp;","&amp;Tabelle8[[#This Row],[abbreviation_id]]&amp;");"</f>
-        <v>INSERT INTO category_assignment VALUES (91,6,148);</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -16175,26 +16184,26 @@
         <v>92</v>
       </c>
       <c r="B95" s="13" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C95" s="13" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E95">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
         <v>92</v>
       </c>
-      <c r="F95" s="10">
+      <c r="F95" s="10" t="e">
         <f>VLOOKUP(category_assignment[[#This Row],[category]],category[[category_name_german]:[category_id(for SVERWEIS)]],5,FALSE)</f>
-        <v>7</v>
+        <v>#N/A</v>
       </c>
       <c r="G95" s="10">
         <f>VLOOKUP(category_assignment[[#This Row],[description_german]],abbreviation[[description_german]:[abbreviation_id(for SVERWEIS)]],5,FALSE)</f>
         <v>166</v>
       </c>
-      <c r="I95" s="5" t="str">
+      <c r="I95" s="5" t="e">
         <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A93),LEN(CELL("dateiname",A93))-FIND("]",CELL("dateiname",A93)))&amp;" VALUES"&amp;" ("&amp;Tabelle8[[#This Row],[category_assignment_id]]&amp;","&amp;Tabelle8[[#This Row],[category_id]]&amp;","&amp;Tabelle8[[#This Row],[abbreviation_id]]&amp;");"</f>
-        <v>INSERT INTO category_assignment VALUES (92,7,166);</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -16203,26 +16212,26 @@
         <v>93</v>
       </c>
       <c r="B96" s="13" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C96" s="13" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E96">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
         <v>93</v>
       </c>
-      <c r="F96" s="10">
+      <c r="F96" s="10" t="e">
         <f>VLOOKUP(category_assignment[[#This Row],[category]],category[[category_name_german]:[category_id(for SVERWEIS)]],5,FALSE)</f>
-        <v>7</v>
+        <v>#N/A</v>
       </c>
       <c r="G96" s="10">
         <f>VLOOKUP(category_assignment[[#This Row],[description_german]],abbreviation[[description_german]:[abbreviation_id(for SVERWEIS)]],5,FALSE)</f>
         <v>167</v>
       </c>
-      <c r="I96" s="5" t="str">
+      <c r="I96" s="5" t="e">
         <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A94),LEN(CELL("dateiname",A94))-FIND("]",CELL("dateiname",A94)))&amp;" VALUES"&amp;" ("&amp;Tabelle8[[#This Row],[category_assignment_id]]&amp;","&amp;Tabelle8[[#This Row],[category_id]]&amp;","&amp;Tabelle8[[#This Row],[abbreviation_id]]&amp;");"</f>
-        <v>INSERT INTO category_assignment VALUES (93,7,167);</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -16231,26 +16240,26 @@
         <v>94</v>
       </c>
       <c r="B97" s="13" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C97" s="13" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E97">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
         <v>94</v>
       </c>
-      <c r="F97" s="10">
+      <c r="F97" s="10" t="e">
         <f>VLOOKUP(category_assignment[[#This Row],[category]],category[[category_name_german]:[category_id(for SVERWEIS)]],5,FALSE)</f>
-        <v>7</v>
+        <v>#N/A</v>
       </c>
       <c r="G97" s="10">
         <f>VLOOKUP(category_assignment[[#This Row],[description_german]],abbreviation[[description_german]:[abbreviation_id(for SVERWEIS)]],5,FALSE)</f>
         <v>168</v>
       </c>
-      <c r="I97" s="5" t="str">
+      <c r="I97" s="5" t="e">
         <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A95),LEN(CELL("dateiname",A95))-FIND("]",CELL("dateiname",A95)))&amp;" VALUES"&amp;" ("&amp;Tabelle8[[#This Row],[category_assignment_id]]&amp;","&amp;Tabelle8[[#This Row],[category_id]]&amp;","&amp;Tabelle8[[#This Row],[abbreviation_id]]&amp;");"</f>
-        <v>INSERT INTO category_assignment VALUES (94,7,168);</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -16259,26 +16268,26 @@
         <v>95</v>
       </c>
       <c r="B98" s="13" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C98" s="13" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E98">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
         <v>95</v>
       </c>
-      <c r="F98" s="10">
+      <c r="F98" s="10" t="e">
         <f>VLOOKUP(category_assignment[[#This Row],[category]],category[[category_name_german]:[category_id(for SVERWEIS)]],5,FALSE)</f>
-        <v>7</v>
+        <v>#N/A</v>
       </c>
       <c r="G98" s="10">
         <f>VLOOKUP(category_assignment[[#This Row],[description_german]],abbreviation[[description_german]:[abbreviation_id(for SVERWEIS)]],5,FALSE)</f>
         <v>169</v>
       </c>
-      <c r="I98" s="5" t="str">
+      <c r="I98" s="5" t="e">
         <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A96),LEN(CELL("dateiname",A96))-FIND("]",CELL("dateiname",A96)))&amp;" VALUES"&amp;" ("&amp;Tabelle8[[#This Row],[category_assignment_id]]&amp;","&amp;Tabelle8[[#This Row],[category_id]]&amp;","&amp;Tabelle8[[#This Row],[abbreviation_id]]&amp;");"</f>
-        <v>INSERT INTO category_assignment VALUES (95,7,169);</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -16287,26 +16296,26 @@
         <v>96</v>
       </c>
       <c r="B99" s="13" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C99" s="13" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E99">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
         <v>96</v>
       </c>
-      <c r="F99" s="10">
+      <c r="F99" s="10" t="e">
         <f>VLOOKUP(category_assignment[[#This Row],[category]],category[[category_name_german]:[category_id(for SVERWEIS)]],5,FALSE)</f>
-        <v>7</v>
+        <v>#N/A</v>
       </c>
       <c r="G99" s="10">
         <f>VLOOKUP(category_assignment[[#This Row],[description_german]],abbreviation[[description_german]:[abbreviation_id(for SVERWEIS)]],5,FALSE)</f>
         <v>170</v>
       </c>
-      <c r="I99" s="5" t="str">
+      <c r="I99" s="5" t="e">
         <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A97),LEN(CELL("dateiname",A97))-FIND("]",CELL("dateiname",A97)))&amp;" VALUES"&amp;" ("&amp;Tabelle8[[#This Row],[category_assignment_id]]&amp;","&amp;Tabelle8[[#This Row],[category_id]]&amp;","&amp;Tabelle8[[#This Row],[abbreviation_id]]&amp;");"</f>
-        <v>INSERT INTO category_assignment VALUES (96,7,170);</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -16315,26 +16324,26 @@
         <v>97</v>
       </c>
       <c r="B100" s="13" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C100" s="13" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="E100">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
         <v>97</v>
       </c>
-      <c r="F100" s="10">
+      <c r="F100" s="10" t="e">
         <f>VLOOKUP(category_assignment[[#This Row],[category]],category[[category_name_german]:[category_id(for SVERWEIS)]],5,FALSE)</f>
-        <v>7</v>
+        <v>#N/A</v>
       </c>
       <c r="G100" s="10">
         <f>VLOOKUP(category_assignment[[#This Row],[description_german]],abbreviation[[description_german]:[abbreviation_id(for SVERWEIS)]],5,FALSE)</f>
         <v>171</v>
       </c>
-      <c r="I100" s="5" t="str">
+      <c r="I100" s="5" t="e">
         <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A98),LEN(CELL("dateiname",A98))-FIND("]",CELL("dateiname",A98)))&amp;" VALUES"&amp;" ("&amp;Tabelle8[[#This Row],[category_assignment_id]]&amp;","&amp;Tabelle8[[#This Row],[category_id]]&amp;","&amp;Tabelle8[[#This Row],[abbreviation_id]]&amp;");"</f>
-        <v>INSERT INTO category_assignment VALUES (97,7,171);</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -16343,26 +16352,26 @@
         <v>98</v>
       </c>
       <c r="B101" s="13" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C101" s="13" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E101">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
         <v>98</v>
       </c>
-      <c r="F101" s="10">
+      <c r="F101" s="10" t="e">
         <f>VLOOKUP(category_assignment[[#This Row],[category]],category[[category_name_german]:[category_id(for SVERWEIS)]],5,FALSE)</f>
-        <v>7</v>
+        <v>#N/A</v>
       </c>
       <c r="G101" s="10">
         <f>VLOOKUP(category_assignment[[#This Row],[description_german]],abbreviation[[description_german]:[abbreviation_id(for SVERWEIS)]],5,FALSE)</f>
         <v>172</v>
       </c>
-      <c r="I101" s="5" t="str">
+      <c r="I101" s="5" t="e">
         <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A99),LEN(CELL("dateiname",A99))-FIND("]",CELL("dateiname",A99)))&amp;" VALUES"&amp;" ("&amp;Tabelle8[[#This Row],[category_assignment_id]]&amp;","&amp;Tabelle8[[#This Row],[category_id]]&amp;","&amp;Tabelle8[[#This Row],[abbreviation_id]]&amp;");"</f>
-        <v>INSERT INTO category_assignment VALUES (98,7,172);</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -16371,26 +16380,26 @@
         <v>99</v>
       </c>
       <c r="B102" s="13" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C102" s="13" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E102">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
         <v>99</v>
       </c>
-      <c r="F102" s="10">
+      <c r="F102" s="10" t="e">
         <f>VLOOKUP(category_assignment[[#This Row],[category]],category[[category_name_german]:[category_id(for SVERWEIS)]],5,FALSE)</f>
-        <v>7</v>
+        <v>#N/A</v>
       </c>
       <c r="G102" s="10">
         <f>VLOOKUP(category_assignment[[#This Row],[description_german]],abbreviation[[description_german]:[abbreviation_id(for SVERWEIS)]],5,FALSE)</f>
         <v>173</v>
       </c>
-      <c r="I102" s="5" t="str">
+      <c r="I102" s="5" t="e">
         <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A100),LEN(CELL("dateiname",A100))-FIND("]",CELL("dateiname",A100)))&amp;" VALUES"&amp;" ("&amp;Tabelle8[[#This Row],[category_assignment_id]]&amp;","&amp;Tabelle8[[#This Row],[category_id]]&amp;","&amp;Tabelle8[[#This Row],[abbreviation_id]]&amp;");"</f>
-        <v>INSERT INTO category_assignment VALUES (99,7,173);</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -16399,26 +16408,26 @@
         <v>100</v>
       </c>
       <c r="B103" s="13" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C103" s="13" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E103">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
         <v>100</v>
       </c>
-      <c r="F103" s="10">
+      <c r="F103" s="10" t="e">
         <f>VLOOKUP(category_assignment[[#This Row],[category]],category[[category_name_german]:[category_id(for SVERWEIS)]],5,FALSE)</f>
-        <v>7</v>
+        <v>#N/A</v>
       </c>
       <c r="G103" s="10">
         <f>VLOOKUP(category_assignment[[#This Row],[description_german]],abbreviation[[description_german]:[abbreviation_id(for SVERWEIS)]],5,FALSE)</f>
         <v>174</v>
       </c>
-      <c r="I103" s="5" t="str">
+      <c r="I103" s="5" t="e">
         <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A101),LEN(CELL("dateiname",A101))-FIND("]",CELL("dateiname",A101)))&amp;" VALUES"&amp;" ("&amp;Tabelle8[[#This Row],[category_assignment_id]]&amp;","&amp;Tabelle8[[#This Row],[category_id]]&amp;","&amp;Tabelle8[[#This Row],[abbreviation_id]]&amp;");"</f>
-        <v>INSERT INTO category_assignment VALUES (100,7,174);</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -16427,26 +16436,26 @@
         <v>101</v>
       </c>
       <c r="B104" s="13" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C104" s="13" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E104">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
         <v>101</v>
       </c>
-      <c r="F104" s="10">
+      <c r="F104" s="10" t="e">
         <f>VLOOKUP(category_assignment[[#This Row],[category]],category[[category_name_german]:[category_id(for SVERWEIS)]],5,FALSE)</f>
-        <v>7</v>
+        <v>#N/A</v>
       </c>
       <c r="G104" s="10">
         <f>VLOOKUP(category_assignment[[#This Row],[description_german]],abbreviation[[description_german]:[abbreviation_id(for SVERWEIS)]],5,FALSE)</f>
         <v>175</v>
       </c>
-      <c r="I104" s="5" t="str">
+      <c r="I104" s="5" t="e">
         <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A102),LEN(CELL("dateiname",A102))-FIND("]",CELL("dateiname",A102)))&amp;" VALUES"&amp;" ("&amp;Tabelle8[[#This Row],[category_assignment_id]]&amp;","&amp;Tabelle8[[#This Row],[category_id]]&amp;","&amp;Tabelle8[[#This Row],[abbreviation_id]]&amp;");"</f>
-        <v>INSERT INTO category_assignment VALUES (101,7,175);</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -16455,26 +16464,26 @@
         <v>102</v>
       </c>
       <c r="B105" s="13" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C105" s="13" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E105">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
         <v>102</v>
       </c>
-      <c r="F105" s="10">
+      <c r="F105" s="10" t="e">
         <f>VLOOKUP(category_assignment[[#This Row],[category]],category[[category_name_german]:[category_id(for SVERWEIS)]],5,FALSE)</f>
-        <v>7</v>
+        <v>#N/A</v>
       </c>
       <c r="G105" s="10">
         <f>VLOOKUP(category_assignment[[#This Row],[description_german]],abbreviation[[description_german]:[abbreviation_id(for SVERWEIS)]],5,FALSE)</f>
         <v>176</v>
       </c>
-      <c r="I105" s="5" t="str">
+      <c r="I105" s="5" t="e">
         <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A103),LEN(CELL("dateiname",A103))-FIND("]",CELL("dateiname",A103)))&amp;" VALUES"&amp;" ("&amp;Tabelle8[[#This Row],[category_assignment_id]]&amp;","&amp;Tabelle8[[#This Row],[category_id]]&amp;","&amp;Tabelle8[[#This Row],[abbreviation_id]]&amp;");"</f>
-        <v>INSERT INTO category_assignment VALUES (102,7,176);</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -16483,26 +16492,26 @@
         <v>103</v>
       </c>
       <c r="B106" s="13" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C106" s="13" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E106">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
         <v>103</v>
       </c>
-      <c r="F106" s="10">
+      <c r="F106" s="10" t="e">
         <f>VLOOKUP(category_assignment[[#This Row],[category]],category[[category_name_german]:[category_id(for SVERWEIS)]],5,FALSE)</f>
-        <v>7</v>
+        <v>#N/A</v>
       </c>
       <c r="G106" s="10">
         <f>VLOOKUP(category_assignment[[#This Row],[description_german]],abbreviation[[description_german]:[abbreviation_id(for SVERWEIS)]],5,FALSE)</f>
         <v>177</v>
       </c>
-      <c r="I106" s="5" t="str">
+      <c r="I106" s="5" t="e">
         <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A104),LEN(CELL("dateiname",A104))-FIND("]",CELL("dateiname",A104)))&amp;" VALUES"&amp;" ("&amp;Tabelle8[[#This Row],[category_assignment_id]]&amp;","&amp;Tabelle8[[#This Row],[category_id]]&amp;","&amp;Tabelle8[[#This Row],[abbreviation_id]]&amp;");"</f>
-        <v>INSERT INTO category_assignment VALUES (103,7,177);</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -16511,26 +16520,26 @@
         <v>104</v>
       </c>
       <c r="B107" s="13" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C107" s="13" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E107">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
         <v>104</v>
       </c>
-      <c r="F107" s="10">
+      <c r="F107" s="10" t="e">
         <f>VLOOKUP(category_assignment[[#This Row],[category]],category[[category_name_german]:[category_id(for SVERWEIS)]],5,FALSE)</f>
-        <v>7</v>
+        <v>#N/A</v>
       </c>
       <c r="G107" s="10">
         <f>VLOOKUP(category_assignment[[#This Row],[description_german]],abbreviation[[description_german]:[abbreviation_id(for SVERWEIS)]],5,FALSE)</f>
         <v>178</v>
       </c>
-      <c r="I107" s="5" t="str">
+      <c r="I107" s="5" t="e">
         <f ca="1">"INSERT INTO "&amp;RIGHT(CELL("dateiname",A105),LEN(CELL("dateiname",A105))-FIND("]",CELL("dateiname",A105)))&amp;" VALUES"&amp;" ("&amp;Tabelle8[[#This Row],[category_assignment_id]]&amp;","&amp;Tabelle8[[#This Row],[category_id]]&amp;","&amp;Tabelle8[[#This Row],[abbreviation_id]]&amp;");"</f>
-        <v>INSERT INTO category_assignment VALUES (104,7,178);</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -16542,7 +16551,7 @@
         <v>171</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E108">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
@@ -16570,7 +16579,7 @@
         <v>171</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E109">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
@@ -16598,7 +16607,7 @@
         <v>171</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E110">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
@@ -16626,7 +16635,7 @@
         <v>171</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E111">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
@@ -16654,7 +16663,7 @@
         <v>171</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E112">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
@@ -16682,7 +16691,7 @@
         <v>171</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E113">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
@@ -16710,7 +16719,7 @@
         <v>171</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E114">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
@@ -16738,7 +16747,7 @@
         <v>171</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E115">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
@@ -16766,7 +16775,7 @@
         <v>171</v>
       </c>
       <c r="C116" s="18" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E116" s="18">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
@@ -16794,7 +16803,7 @@
         <v>171</v>
       </c>
       <c r="C117" s="18" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="E117" s="18">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
@@ -16822,7 +16831,7 @@
         <v>171</v>
       </c>
       <c r="C118" s="18" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="E118" s="18">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
@@ -16850,7 +16859,7 @@
         <v>171</v>
       </c>
       <c r="C119" s="18" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="E119" s="18">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
@@ -16878,7 +16887,7 @@
         <v>166</v>
       </c>
       <c r="C120" s="18" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="E120">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
@@ -16906,7 +16915,7 @@
         <v>167</v>
       </c>
       <c r="C121" s="18" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="E121">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
@@ -16934,7 +16943,7 @@
         <v>166</v>
       </c>
       <c r="C122" s="18" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="E122">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
@@ -16962,7 +16971,7 @@
         <v>167</v>
       </c>
       <c r="C123" s="18" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="E123">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
@@ -16990,7 +16999,7 @@
         <v>167</v>
       </c>
       <c r="C124" s="18" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E124">
         <f>category_assignment[[#This Row],[category_assignment_id]]</f>
@@ -17797,48 +17806,48 @@
     <row r="1" spans="1:16" s="5" customFormat="1">
       <c r="D1" s="18"/>
       <c r="F1" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B2" t="s">
         <v>185</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>186</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="18" t="s">
+        <v>817</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="D2" s="18" t="s">
-        <v>822</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>188</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>189</v>
       </c>
       <c r="J2" t="s">
         <v>166</v>
       </c>
       <c r="K2" t="s">
+        <v>191</v>
+      </c>
+      <c r="L2" t="s">
         <v>192</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>193</v>
-      </c>
-      <c r="M2" t="s">
-        <v>194</v>
       </c>
       <c r="O2" s="5" t="str">
         <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(P2,"[","("),"]",")"),"INTEGER[10]","INT")</f>
@@ -17981,7 +17990,7 @@
         <v>36</v>
       </c>
       <c r="L6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="M6" s="5" t="b">
         <f>IF(Tabelle2[[#This Row],[System]]&lt;&gt;"",VLOOKUP(Tabelle2[[#This Row],[System]],parent_children[[parent]:[children]],2,0))</f>
@@ -18016,7 +18025,7 @@
         <v>37</v>
       </c>
       <c r="L7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="M7" s="5" t="b">
         <f>IF(Tabelle2[[#This Row],[System]]&lt;&gt;"",VLOOKUP(Tabelle2[[#This Row],[System]],parent_children[[parent]:[children]],2,0))</f>
@@ -18051,7 +18060,7 @@
         <v>38</v>
       </c>
       <c r="L8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="M8" s="5" t="b">
         <f>IF(Tabelle2[[#This Row],[System]]&lt;&gt;"",VLOOKUP(Tabelle2[[#This Row],[System]],parent_children[[parent]:[children]],2,0))</f>
@@ -18086,7 +18095,7 @@
         <v>39</v>
       </c>
       <c r="L9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="M9" s="5" t="b">
         <f>IF(Tabelle2[[#This Row],[System]]&lt;&gt;"",VLOOKUP(Tabelle2[[#This Row],[System]],parent_children[[parent]:[children]],2,0))</f>
@@ -18121,7 +18130,7 @@
         <v>40</v>
       </c>
       <c r="L10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="M10" s="5" t="b">
         <f>IF(Tabelle2[[#This Row],[System]]&lt;&gt;"",VLOOKUP(Tabelle2[[#This Row],[System]],parent_children[[parent]:[children]],2,0))</f>
@@ -18156,7 +18165,7 @@
         <v>#N/A</v>
       </c>
       <c r="L11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="M11" s="5" t="b">
         <f>IF(Tabelle2[[#This Row],[System]]&lt;&gt;"",VLOOKUP(Tabelle2[[#This Row],[System]],parent_children[[parent]:[children]],2,0))</f>
@@ -18191,7 +18200,7 @@
         <v>42</v>
       </c>
       <c r="L12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="M12" s="5" t="b">
         <f>IF(Tabelle2[[#This Row],[System]]&lt;&gt;"",VLOOKUP(Tabelle2[[#This Row],[System]],parent_children[[parent]:[children]],2,0))</f>
@@ -18226,7 +18235,7 @@
         <v>43</v>
       </c>
       <c r="L13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="M13" s="5" t="b">
         <f>IF(Tabelle2[[#This Row],[System]]&lt;&gt;"",VLOOKUP(Tabelle2[[#This Row],[System]],parent_children[[parent]:[children]],2,0))</f>
@@ -18261,7 +18270,7 @@
         <v>44</v>
       </c>
       <c r="L14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="M14" s="5" t="b">
         <f>IF(Tabelle2[[#This Row],[System]]&lt;&gt;"",VLOOKUP(Tabelle2[[#This Row],[System]],parent_children[[parent]:[children]],2,0))</f>
@@ -18296,7 +18305,7 @@
         <v>42</v>
       </c>
       <c r="L15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="M15" s="5" t="b">
         <f>IF(Tabelle2[[#This Row],[System]]&lt;&gt;"",VLOOKUP(Tabelle2[[#This Row],[System]],parent_children[[parent]:[children]],2,0))</f>
@@ -18331,7 +18340,7 @@
         <v>43</v>
       </c>
       <c r="L16" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="M16" s="5" t="b">
         <f>IF(Tabelle2[[#This Row],[System]]&lt;&gt;"",VLOOKUP(Tabelle2[[#This Row],[System]],parent_children[[parent]:[children]],2,0))</f>
@@ -18366,7 +18375,7 @@
         <v>44</v>
       </c>
       <c r="L17" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="M17" s="5" t="b">
         <f>IF(Tabelle2[[#This Row],[System]]&lt;&gt;"",VLOOKUP(Tabelle2[[#This Row],[System]],parent_children[[parent]:[children]],2,0))</f>
@@ -18401,7 +18410,7 @@
         <v>42</v>
       </c>
       <c r="L18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="M18" s="5" t="b">
         <f>IF(Tabelle2[[#This Row],[System]]&lt;&gt;"",VLOOKUP(Tabelle2[[#This Row],[System]],parent_children[[parent]:[children]],2,0))</f>
@@ -18436,7 +18445,7 @@
         <v>43</v>
       </c>
       <c r="L19" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="M19" s="5" t="b">
         <f>IF(Tabelle2[[#This Row],[System]]&lt;&gt;"",VLOOKUP(Tabelle2[[#This Row],[System]],parent_children[[parent]:[children]],2,0))</f>
@@ -18471,7 +18480,7 @@
         <v>44</v>
       </c>
       <c r="L20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="M20" s="5" t="b">
         <f>IF(Tabelle2[[#This Row],[System]]&lt;&gt;"",VLOOKUP(Tabelle2[[#This Row],[System]],parent_children[[parent]:[children]],2,0))</f>
@@ -18506,7 +18515,7 @@
         <v>42</v>
       </c>
       <c r="L21" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="M21" s="5" t="b">
         <f>IF(Tabelle2[[#This Row],[System]]&lt;&gt;"",VLOOKUP(Tabelle2[[#This Row],[System]],parent_children[[parent]:[children]],2,0))</f>
@@ -18541,7 +18550,7 @@
         <v>43</v>
       </c>
       <c r="L22" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="M22" s="5" t="b">
         <f>IF(Tabelle2[[#This Row],[System]]&lt;&gt;"",VLOOKUP(Tabelle2[[#This Row],[System]],parent_children[[parent]:[children]],2,0))</f>
@@ -18576,7 +18585,7 @@
         <v>44</v>
       </c>
       <c r="L23" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="M23" s="5" t="b">
         <f>IF(Tabelle2[[#This Row],[System]]&lt;&gt;"",VLOOKUP(Tabelle2[[#This Row],[System]],parent_children[[parent]:[children]],2,0))</f>
@@ -18611,7 +18620,7 @@
         <v>45</v>
       </c>
       <c r="L24" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="M24" s="5" t="b">
         <f>IF(Tabelle2[[#This Row],[System]]&lt;&gt;"",VLOOKUP(Tabelle2[[#This Row],[System]],parent_children[[parent]:[children]],2,0))</f>
@@ -18646,7 +18655,7 @@
         <v>46</v>
       </c>
       <c r="L25" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="M25" s="5" t="b">
         <f>IF(Tabelle2[[#This Row],[System]]&lt;&gt;"",VLOOKUP(Tabelle2[[#This Row],[System]],parent_children[[parent]:[children]],2,0))</f>
@@ -18681,7 +18690,7 @@
         <v>47</v>
       </c>
       <c r="L26" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="M26" s="5" t="b">
         <f>IF(Tabelle2[[#This Row],[System]]&lt;&gt;"",VLOOKUP(Tabelle2[[#This Row],[System]],parent_children[[parent]:[children]],2,0))</f>
@@ -18698,10 +18707,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F27" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -18726,10 +18735,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F28" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -18754,10 +18763,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F29" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -18782,10 +18791,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F30" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -18810,10 +18819,10 @@
         <v>29</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F31" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -18838,10 +18847,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F32" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -18866,10 +18875,10 @@
         <v>31</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F33" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -18894,10 +18903,10 @@
         <v>32</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F34" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -18922,10 +18931,10 @@
         <v>33</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F35" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -18950,10 +18959,10 @@
         <v>34</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F36" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -18978,10 +18987,10 @@
         <v>35</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F37" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -19006,10 +19015,10 @@
         <v>36</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F38" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -19034,10 +19043,10 @@
         <v>37</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F39" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -19062,10 +19071,10 @@
         <v>38</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F40" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -19090,10 +19099,10 @@
         <v>39</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F41" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -19118,10 +19127,10 @@
         <v>40</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F42" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -19146,10 +19155,10 @@
         <v>41</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F43" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -19174,10 +19183,10 @@
         <v>42</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F44" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -19202,10 +19211,10 @@
         <v>43</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F45" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -19230,10 +19239,10 @@
         <v>44</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F46" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -19258,10 +19267,10 @@
         <v>45</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F47" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -19286,10 +19295,10 @@
         <v>46</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F48" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -19314,10 +19323,10 @@
         <v>47</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F49" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -19342,10 +19351,10 @@
         <v>48</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F50" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -19370,10 +19379,10 @@
         <v>49</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F51" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -19398,10 +19407,10 @@
         <v>50</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F52" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -19426,10 +19435,10 @@
         <v>51</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F53" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -19454,10 +19463,10 @@
         <v>52</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F54" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -19482,10 +19491,10 @@
         <v>53</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D55" s="13"/>
       <c r="F55" s="10">
@@ -19511,10 +19520,10 @@
         <v>54</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F56" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -19539,10 +19548,10 @@
         <v>55</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F57" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -19567,10 +19576,10 @@
         <v>56</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="F58" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -19595,10 +19604,10 @@
         <v>57</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F59" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -19623,10 +19632,10 @@
         <v>58</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F60" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -19651,10 +19660,10 @@
         <v>59</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F61" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -19679,10 +19688,10 @@
         <v>60</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F62" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -19710,7 +19719,7 @@
         <v>42</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F63" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -19738,7 +19747,7 @@
         <v>42</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F64" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -19794,7 +19803,7 @@
         <v>42</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F66" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -19822,7 +19831,7 @@
         <v>42</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F67" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -19878,7 +19887,7 @@
         <v>42</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F69" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -19906,7 +19915,7 @@
         <v>42</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F70" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -19934,7 +19943,7 @@
         <v>42</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="F71" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -19962,7 +19971,7 @@
         <v>42</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="F72" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -19990,7 +19999,7 @@
         <v>42</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F73" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -20018,7 +20027,7 @@
         <v>42</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F74" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -20046,7 +20055,7 @@
         <v>22</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F75" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -20074,7 +20083,7 @@
         <v>22</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F76" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -20102,7 +20111,7 @@
         <v>22</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="F77" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -20130,7 +20139,7 @@
         <v>22</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F78" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -20158,7 +20167,7 @@
         <v>22</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F79" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -20186,7 +20195,7 @@
         <v>22</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F80" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -20214,7 +20223,7 @@
         <v>22</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F81" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -20242,7 +20251,7 @@
         <v>22</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F82" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -20270,7 +20279,7 @@
         <v>22</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F83" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -20298,7 +20307,7 @@
         <v>22</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F84" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -20323,10 +20332,10 @@
         <v>83</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F85" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -20351,10 +20360,10 @@
         <v>84</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F86" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -20379,10 +20388,10 @@
         <v>85</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="F87" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -20407,10 +20416,10 @@
         <v>86</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F88" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -20435,10 +20444,10 @@
         <v>87</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F89" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -20463,10 +20472,10 @@
         <v>88</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F90" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -20491,10 +20500,10 @@
         <v>89</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F91" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -20519,10 +20528,10 @@
         <v>90</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F92" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -20547,10 +20556,10 @@
         <v>91</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F93" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -20575,10 +20584,10 @@
         <v>92</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F94" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -20603,10 +20612,10 @@
         <v>93</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F95" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -20631,10 +20640,10 @@
         <v>94</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F96" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -20659,10 +20668,10 @@
         <v>95</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F97" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -20687,10 +20696,10 @@
         <v>96</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="F98" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -20715,10 +20724,10 @@
         <v>97</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F99" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -20743,10 +20752,10 @@
         <v>98</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F100" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -20771,10 +20780,10 @@
         <v>99</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F101" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -20799,10 +20808,10 @@
         <v>100</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F102" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -20827,10 +20836,10 @@
         <v>101</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F103" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -20855,10 +20864,10 @@
         <v>102</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F104" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -20883,10 +20892,10 @@
         <v>103</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F105" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -20911,10 +20920,10 @@
         <v>104</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F106" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -20939,10 +20948,10 @@
         <v>105</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F107" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -20967,10 +20976,10 @@
         <v>106</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="F108" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -20995,10 +21004,10 @@
         <v>107</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F109" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -21023,10 +21032,10 @@
         <v>108</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F110" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -21051,10 +21060,10 @@
         <v>109</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F111" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -21079,10 +21088,10 @@
         <v>110</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F112" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -21107,10 +21116,10 @@
         <v>111</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F113" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -21135,10 +21144,10 @@
         <v>112</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F114" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -21163,10 +21172,10 @@
         <v>113</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F115" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -21191,10 +21200,10 @@
         <v>114</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F116" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -21219,10 +21228,10 @@
         <v>115</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F117" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -21247,10 +21256,10 @@
         <v>116</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F118" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -21275,10 +21284,10 @@
         <v>117</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F119" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -21303,10 +21312,10 @@
         <v>118</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F120" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -21331,10 +21340,10 @@
         <v>119</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F121" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -21359,10 +21368,10 @@
         <v>120</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F122" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -21387,10 +21396,10 @@
         <v>121</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F123" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -21415,10 +21424,10 @@
         <v>122</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F124" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -21443,10 +21452,10 @@
         <v>123</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F125" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -21471,10 +21480,10 @@
         <v>124</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F126" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -21499,10 +21508,10 @@
         <v>125</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F127" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -21527,10 +21536,10 @@
         <v>126</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F128" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -21555,10 +21564,10 @@
         <v>127</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F129" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -21583,10 +21592,10 @@
         <v>128</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F130" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -21611,10 +21620,10 @@
         <v>129</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F131" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -21639,10 +21648,10 @@
         <v>130</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F132" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -21667,10 +21676,10 @@
         <v>131</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F133" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -21695,10 +21704,10 @@
         <v>132</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F134" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -21723,10 +21732,10 @@
         <v>133</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F135" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -21751,10 +21760,10 @@
         <v>134</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F136" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -21779,10 +21788,10 @@
         <v>135</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F137" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -21807,10 +21816,10 @@
         <v>136</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C138" s="13" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D138" s="13"/>
       <c r="F138" s="10">
@@ -21836,10 +21845,10 @@
         <v>137</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F139" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -21864,10 +21873,10 @@
         <v>138</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F140" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -21892,10 +21901,10 @@
         <v>139</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="F141" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -21920,10 +21929,10 @@
         <v>140</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F142" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -21948,10 +21957,10 @@
         <v>141</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F143" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -21976,10 +21985,10 @@
         <v>142</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F144" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -22004,10 +22013,10 @@
         <v>143</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F145" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -22032,10 +22041,10 @@
         <v>144</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F146" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -22060,10 +22069,10 @@
         <v>145</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F147" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -22088,10 +22097,10 @@
         <v>146</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F148" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -22116,10 +22125,10 @@
         <v>147</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F149" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -22144,10 +22153,10 @@
         <v>148</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F150" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -22172,10 +22181,10 @@
         <v>149</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F151" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -22200,10 +22209,10 @@
         <v>150</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F152" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -22228,10 +22237,10 @@
         <v>151</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F153" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -22256,10 +22265,10 @@
         <v>152</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F154" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -22284,10 +22293,10 @@
         <v>153</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F155" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -22312,10 +22321,10 @@
         <v>154</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F156" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -22340,10 +22349,10 @@
         <v>155</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F157" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -22368,10 +22377,10 @@
         <v>156</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F158" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -22396,10 +22405,10 @@
         <v>157</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F159" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -22424,10 +22433,10 @@
         <v>158</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F160" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -22452,10 +22461,10 @@
         <v>159</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F161" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -22480,10 +22489,10 @@
         <v>160</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="F162" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -22508,10 +22517,10 @@
         <v>161</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F163" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -22536,10 +22545,10 @@
         <v>162</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F164" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -22564,10 +22573,10 @@
         <v>163</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="F165" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -22592,10 +22601,10 @@
         <v>164</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F166" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -22620,10 +22629,10 @@
         <v>165</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F167" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -22648,10 +22657,10 @@
         <v>166</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F168" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -22676,10 +22685,10 @@
         <v>167</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F169" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -22704,10 +22713,10 @@
         <v>168</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F170" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -22732,10 +22741,10 @@
         <v>169</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F171" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -22760,10 +22769,10 @@
         <v>170</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F172" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -22788,10 +22797,10 @@
         <v>171</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F173" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -22816,10 +22825,10 @@
         <v>172</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F174" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -22844,10 +22853,10 @@
         <v>173</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F175" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -22872,10 +22881,10 @@
         <v>174</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C176" s="5" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F176" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -22900,10 +22909,10 @@
         <v>175</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F177" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -22928,10 +22937,10 @@
         <v>176</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F178" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -22956,10 +22965,10 @@
         <v>177</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F179" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -22984,10 +22993,10 @@
         <v>178</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C180" s="5" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F180" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -23012,10 +23021,10 @@
         <v>179</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C181" s="5" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F181" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -23040,10 +23049,10 @@
         <v>180</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F182" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -23068,10 +23077,10 @@
         <v>181</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F183" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -23096,10 +23105,10 @@
         <v>182</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C184" s="5" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F184" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -23124,10 +23133,10 @@
         <v>183</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F185" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -23152,10 +23161,10 @@
         <v>184</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C186" s="5" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F186" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -23180,10 +23189,10 @@
         <v>185</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F187" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -23208,10 +23217,10 @@
         <v>186</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F188" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -23236,10 +23245,10 @@
         <v>187</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C189" s="5" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F189" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -23264,10 +23273,10 @@
         <v>188</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F190" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -23292,10 +23301,10 @@
         <v>189</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F191" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -23320,10 +23329,10 @@
         <v>190</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F192" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -23348,10 +23357,10 @@
         <v>191</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F193" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -23376,10 +23385,10 @@
         <v>192</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F194" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -23404,10 +23413,10 @@
         <v>193</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F195" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -23432,10 +23441,10 @@
         <v>194</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F196" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -23460,10 +23469,10 @@
         <v>195</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F197" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -23488,10 +23497,10 @@
         <v>196</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C198" s="5" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F198" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -23516,10 +23525,10 @@
         <v>197</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F199" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -23544,10 +23553,10 @@
         <v>198</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C200" s="5" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F200" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -23572,10 +23581,10 @@
         <v>199</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C201" s="5" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F201" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -23600,10 +23609,10 @@
         <v>200</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C202" s="5" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F202" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -23628,10 +23637,10 @@
         <v>201</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C203" s="13" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D203" s="13"/>
       <c r="F203" s="10">
@@ -23657,10 +23666,10 @@
         <v>202</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C204" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F204" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -23685,10 +23694,10 @@
         <v>203</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C205" s="5" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F205" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -23713,10 +23722,10 @@
         <v>204</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C206" s="5" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="F206" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -23741,10 +23750,10 @@
         <v>205</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C207" s="5" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F207" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -23769,10 +23778,10 @@
         <v>206</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C208" s="5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F208" s="10">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -23797,10 +23806,10 @@
         <v>207</v>
       </c>
       <c r="B209" s="13" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C209" s="13" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="D209" s="13"/>
       <c r="F209" s="23">
@@ -23832,10 +23841,10 @@
         <v>208</v>
       </c>
       <c r="B210" s="18" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C210" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="F210" s="23">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -23866,10 +23875,10 @@
         <v>209</v>
       </c>
       <c r="B211" s="18" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C211" s="18" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="F211" s="23">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -23900,10 +23909,10 @@
         <v>210</v>
       </c>
       <c r="B212" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="C212" s="29" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
       <c r="D212" s="29"/>
       <c r="F212" s="23">
@@ -23935,10 +23944,10 @@
         <v>211</v>
       </c>
       <c r="B213" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C213" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="F213" s="23">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -23969,10 +23978,10 @@
         <v>212</v>
       </c>
       <c r="B214" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C214" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="F214" s="23">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -24003,10 +24012,10 @@
         <v>213</v>
       </c>
       <c r="B215" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C215" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="F215" s="23">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -24040,7 +24049,7 @@
         <v>16</v>
       </c>
       <c r="C216" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="F216" s="23">
         <f>parent_children[[#This Row],[parent_children_id]]</f>
@@ -24407,10 +24416,10 @@
         <v>166</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F1" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -24500,7 +24509,7 @@
       </c>
       <c r="B10" s="5" t="str">
         <f>IFERROR(VLOOKUP(A10,abbreviation[[description_german]:[abbreviation_budo]],3,0),"")</f>
-        <v>BMS</v>
+        <v/>
       </c>
     </row>
     <row r="11" spans="1:6">
